--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>任務類型</t>
   </si>
@@ -218,12 +218,115 @@
   <si>
     <t>隱藏</t>
   </si>
+  <si>
+    <t>初心者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍騎兵轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵人轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侶轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打手轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劍士;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法師;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盜賊;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盜;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！</t>
+  </si>
+  <si>
+    <t>擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵人;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍騎兵;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侶;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打手;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑騎士轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭神轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜使者轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳霸轉職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗黑山老妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +352,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -287,12 +398,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Z999"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -592,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -658,25 +772,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -700,25 +814,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -742,25 +856,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -784,25 +898,25 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -829,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -843,8 +957,8 @@
       <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>20</v>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -868,25 +982,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -910,25 +1024,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -952,25 +1066,25 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -994,25 +1108,25 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1036,10 +1150,10 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>27</v>
@@ -1051,10 +1165,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
+      <c r="G13" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1078,25 +1192,25 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
+      <c r="G14" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1120,25 +1234,25 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
+      <c r="B15" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
+      <c r="G15" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1162,25 +1276,25 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
+      <c r="B16" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
+      <c r="G16" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1204,25 +1318,25 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
+      <c r="G17" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1246,25 +1360,25 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>61</v>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
+      <c r="C18" s="3" t="s">
+        <v>91</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
+      <c r="D18" s="3" t="s">
+        <v>78</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>65</v>
+      <c r="G18" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1287,13 +1401,27 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1315,13 +1443,27 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1343,13 +1485,27 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1371,13 +1527,27 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1399,13 +1569,27 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1427,13 +1611,27 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1455,13 +1653,27 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1483,13 +1695,27 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1511,13 +1737,27 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1539,13 +1779,27 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -28754,6 +29008,227 @@
       <c r="Y999" s="1"/>
       <c r="Z999" s="1"/>
     </row>
+    <row r="1000" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1000" s="1"/>
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="1"/>
+      <c r="D1000" s="1"/>
+      <c r="E1000" s="1"/>
+      <c r="F1000" s="1"/>
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="1"/>
+      <c r="C1001" s="1"/>
+      <c r="D1001" s="1"/>
+      <c r="E1001" s="1"/>
+      <c r="F1001" s="1"/>
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="1"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="1"/>
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1003" s="1"/>
+      <c r="B1003" s="1"/>
+      <c r="C1003" s="1"/>
+      <c r="D1003" s="1"/>
+      <c r="E1003" s="1"/>
+      <c r="F1003" s="1"/>
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1004" s="1"/>
+      <c r="B1004" s="1"/>
+      <c r="C1004" s="1"/>
+      <c r="D1004" s="1"/>
+      <c r="E1004" s="1"/>
+      <c r="F1004" s="1"/>
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="1"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="1"/>
+      <c r="G1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1006" s="1"/>
+      <c r="B1006" s="1"/>
+      <c r="C1006" s="1"/>
+      <c r="D1006" s="1"/>
+      <c r="E1006" s="1"/>
+      <c r="F1006" s="1"/>
+      <c r="G1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="1"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="1"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="1"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="1"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="1"/>
+      <c r="E1013" s="1"/>
+      <c r="F1013" s="1"/>
+      <c r="G1013" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>任務類型</t>
   </si>
@@ -195,9 +195,6 @@
     <t>成為鑄造之神</t>
   </si>
   <si>
-    <t>身為鍛造之神，有關鍛造的物品，理應應有盡有。請將，任意3種製作防具的催化劑各15個，以及1顆匠人之心，交給黑風。</t>
-  </si>
-  <si>
     <t>你已成為鍛造之神</t>
   </si>
   <si>
@@ -319,6 +316,145 @@
   </si>
   <si>
     <t>擊敗黑山老妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。交給黑風證明你的資質</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身為鍛造之神，有關鍛造的物品，理應應有盡有。請將，任意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>種製作防具的催化劑各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，任意兩種一般礦石各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，任意兩種屬性母礦各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顆匠人之心，交給黑風。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龍項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為神龍項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮卡啾項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為皮卡啾項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為皮卡啾項鍊之神，稀有的皮卡啾項鍊，你應該擁有。請將，乾淨的皮卡啾項鍊，交給黑風。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為神龍項鍊之神，稀有的神龍項鍊，你應該擁有。請將，乾淨的神龍項鍊，交給黑風。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -706,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -906,14 +1042,14 @@
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
+      <c r="D7" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -940,25 +1076,25 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
+      <c r="B8" s="3" t="s">
+        <v>95</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
+      <c r="C8" s="3" t="s">
+        <v>96</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
+      <c r="D8" s="3" t="s">
+        <v>97</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>66</v>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -982,25 +1118,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
+      <c r="B9" s="3" t="s">
+        <v>93</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1027,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1041,8 +1177,8 @@
       <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
+      <c r="G10" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1069,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -1111,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
@@ -1152,14 +1288,14 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1167,8 +1303,8 @@
       <c r="F13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1194,14 +1330,14 @@
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>68</v>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>53</v>
+      <c r="D14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1209,8 +1345,8 @@
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>73</v>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1237,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -1252,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1279,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
@@ -1294,7 +1430,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1321,7 +1457,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>27</v>
@@ -1336,7 +1472,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1363,13 +1499,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>91</v>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>78</v>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1378,7 +1514,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1405,13 +1541,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>91</v>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>79</v>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1420,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1447,10 +1583,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>77</v>
@@ -1462,7 +1598,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1489,13 +1625,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1504,7 +1640,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1531,13 +1667,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1546,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1570,25 +1706,25 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
+      <c r="B23" s="3" t="s">
+        <v>87</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>53</v>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1612,25 +1748,25 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>53</v>
+      <c r="D24" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>31</v>
+      <c r="G24" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1657,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>27</v>
@@ -1672,7 +1808,7 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1699,7 +1835,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -1714,7 +1850,7 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1741,7 +1877,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
@@ -1756,7 +1892,7 @@
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1780,25 +1916,25 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1821,13 +1957,27 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1849,13 +1999,27 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -29148,7 +29312,7 @@
       <c r="Y1004" s="1"/>
       <c r="Z1004" s="1"/>
     </row>
-    <row r="1005" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1005" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -29156,8 +29320,27 @@
       <c r="E1005" s="1"/>
       <c r="F1005" s="1"/>
       <c r="G1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
@@ -29165,6 +29348,25 @@
       <c r="E1006" s="1"/>
       <c r="F1006" s="1"/>
       <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
     </row>
     <row r="1007" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1007" s="1"/>
@@ -29229,6 +29431,24 @@
       <c r="F1013" s="1"/>
       <c r="G1013" s="1"/>
     </row>
+    <row r="1014" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="1"/>
+      <c r="E1014" s="1"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="166">
   <si>
     <t>任務類型</t>
   </si>
@@ -99,40 +99,10 @@
     <t>職業任務</t>
   </si>
   <si>
-    <t>見習劍士</t>
-  </si>
-  <si>
     <t>擊敗雪山魔女</t>
   </si>
   <si>
     <t>系統提示(升等序號</t>
-  </si>
-  <si>
-    <t>劍士</t>
-  </si>
-  <si>
-    <t>見習弓箭手</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>見習魔法師</t>
-  </si>
-  <si>
-    <t>魔法師</t>
-  </si>
-  <si>
-    <t>見習盜賊</t>
-  </si>
-  <si>
-    <t>盜賊</t>
-  </si>
-  <si>
-    <t>見習海盜</t>
-  </si>
-  <si>
-    <t>海盜</t>
   </si>
   <si>
     <t>為了成為楓之谷之王，需要擊敗???，在???，找到???。最後將???、???、???、???、???交給黑風。完成最後的加冕儀式。</t>
@@ -160,9 +130,6 @@
   </si>
   <si>
     <t>與智慧之神對戰</t>
-  </si>
-  <si>
-    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神。自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會！</t>
   </si>
   <si>
     <t>你將智慧之神拉下神壇！</t>
@@ -280,6 +247,10 @@
   </si>
   <si>
     <t>僧侶;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜使者;70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -442,19 +413,309 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>皮卡啾項鍊之神</t>
+    <t>身為神龍項鍊之神，稀有的神龍項鍊，你應該擁有。請將，乾淨的神龍項鍊，交給黑風。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成為皮卡啾項鍊之神</t>
+    <t>待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身為皮卡啾項鍊之神，稀有的皮卡啾項鍊，你應該擁有。請將，乾淨的皮卡啾項鍊，交給黑風。</t>
+    <t>見習劍士之路1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身為神龍項鍊之神，稀有的神龍項鍊，你應該擁有。請將，乾淨的神龍項鍊，交給黑風。</t>
+    <t>見習劍士之路2</t>
+  </si>
+  <si>
+    <t>見習弓箭手之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習弓箭手之路2</t>
+  </si>
+  <si>
+    <t>見習魔法師之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習魔法師之路2</t>
+  </si>
+  <si>
+    <t>見習盜賊之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習盜賊之路2</t>
+  </si>
+  <si>
+    <t>見習海盜之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習海盜之路2</t>
+  </si>
+  <si>
+    <t>見習槍騎兵之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習槍騎兵之路2</t>
+  </si>
+  <si>
+    <t>見習槍騎兵之路3</t>
+  </si>
+  <si>
+    <t>見習槍騎兵之路4</t>
+  </si>
+  <si>
+    <t>見習獵人之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習獵人之路2</t>
+  </si>
+  <si>
+    <t>見習獵人之路3</t>
+  </si>
+  <si>
+    <t>見習獵人之路4</t>
+  </si>
+  <si>
+    <t>見習僧侶之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習僧侶之路2</t>
+  </si>
+  <si>
+    <t>見習僧侶之路3</t>
+  </si>
+  <si>
+    <t>見習僧侶之路4</t>
+  </si>
+  <si>
+    <t>見習刺客之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習刺客之路2</t>
+  </si>
+  <si>
+    <t>見習刺客之路3</t>
+  </si>
+  <si>
+    <t>見習刺客之路4</t>
+  </si>
+  <si>
+    <t>見習打手之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見習打手之路2</t>
+  </si>
+  <si>
+    <t>見習打手之路3</t>
+  </si>
+  <si>
+    <t>見習打手之路4</t>
+  </si>
+  <si>
+    <t>槍騎兵;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍騎兵;40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>槍騎兵;50</t>
+  </si>
+  <si>
+    <t>槍騎兵;60</t>
+  </si>
+  <si>
+    <t>打手;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打手;40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打手;50</t>
+  </si>
+  <si>
+    <t>打手;60</t>
+  </si>
+  <si>
+    <t>刺客;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客;40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客;50</t>
+  </si>
+  <si>
+    <t>刺客;60</t>
+  </si>
+  <si>
+    <t>僧侶;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侶;40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僧侶;50</t>
+  </si>
+  <si>
+    <t>僧侶;60</t>
+  </si>
+  <si>
+    <t>獵人;30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵人;40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獵人;50</t>
+  </si>
+  <si>
+    <t>獵人;60</t>
+  </si>
+  <si>
+    <t>劍士;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法師;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盜賊;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盜;10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>劍士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手;20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法師;20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盜賊;20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盜;20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為品客繽項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為神龍項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為品客繽項鍊之神，稀有的品客繽項鍊，你應該擁有。請將，乾淨的品客繽項鍊，交給黑風。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為品客繽項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品客繽項鍊之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>試煉任務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑騎士的試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭神的試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教的試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜使者的試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳霸的試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑騎士;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭神;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主教;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳霸;70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般;100</t>
+  </si>
+  <si>
+    <t>一般;100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神。自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會(除非智慧之神對你降下憐憫)！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -760,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1015"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -822,30 +1083,30 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -864,30 +1125,30 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -908,22 +1169,22 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -950,22 +1211,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -992,22 +1253,22 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1034,22 +1295,22 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1076,22 +1337,22 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1118,22 +1379,22 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
+      <c r="F9" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1160,25 +1421,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>65</v>
+      <c r="F10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1205,13 +1466,13 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1219,8 +1480,8 @@
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1247,13 +1508,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1289,13 +1550,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1331,13 +1592,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>91</v>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1372,14 +1633,14 @@
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1387,8 +1648,8 @@
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>71</v>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1415,13 +1676,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -1430,7 +1691,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1457,13 +1718,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1472,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1499,13 +1760,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1514,7 +1775,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1541,13 +1802,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1556,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1583,13 +1844,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1598,7 +1859,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1625,13 +1886,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1640,7 +1901,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1667,13 +1928,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1682,7 +1943,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1709,13 +1970,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -1724,7 +1985,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1751,13 +2012,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -1766,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1790,25 +2051,25 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1834,23 +2095,23 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>53</v>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1876,23 +2137,23 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
+      <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1918,23 +2179,23 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
+      <c r="B28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1960,23 +2221,23 @@
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>53</v>
+      <c r="B29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2000,25 +2261,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2041,13 +2302,27 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2069,13 +2344,27 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2097,13 +2386,27 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2125,13 +2428,27 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2153,13 +2470,27 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2181,13 +2512,27 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2209,13 +2554,27 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2237,13 +2596,27 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2265,13 +2638,27 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2293,13 +2680,27 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2321,13 +2722,27 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2349,13 +2764,27 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2377,13 +2806,27 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2405,13 +2848,27 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2433,13 +2890,27 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2461,13 +2932,27 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2489,13 +2974,27 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2517,13 +3016,27 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2545,13 +3058,27 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2573,13 +3100,27 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2601,13 +3142,27 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2629,13 +3184,27 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2657,13 +3226,27 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2685,13 +3268,27 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2713,13 +3310,27 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2741,13 +3352,27 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2769,13 +3394,27 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="A57" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2797,13 +3436,27 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="A58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2825,13 +3478,27 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="A59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2853,13 +3520,27 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="A60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2881,13 +3562,27 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2909,13 +3604,27 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2937,13 +3646,27 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2965,13 +3688,27 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2993,13 +3730,27 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3021,13 +3772,27 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3049,13 +3814,27 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3077,13 +3856,27 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -3105,13 +3898,27 @@
       <c r="Z68" s="1"/>
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -3133,13 +3940,27 @@
       <c r="Z69" s="1"/>
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -3161,13 +3982,27 @@
       <c r="Z70" s="1"/>
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3189,13 +4024,27 @@
       <c r="Z71" s="1"/>
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3217,13 +4066,27 @@
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -29116,7 +29979,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    <row r="998" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -29124,27 +29987,8 @@
       <c r="E998" s="1"/>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-      <c r="X998" s="1"/>
-      <c r="Y998" s="1"/>
-      <c r="Z998" s="1"/>
-    </row>
-    <row r="999" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="999" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -29152,27 +29996,8 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-    </row>
-    <row r="1000" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1000" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -29180,27 +30005,8 @@
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1001" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -29208,27 +30014,8 @@
       <c r="E1001" s="1"/>
       <c r="F1001" s="1"/>
       <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1002" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
@@ -29236,27 +30023,8 @@
       <c r="E1002" s="1"/>
       <c r="F1002" s="1"/>
       <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-      <c r="Y1002" s="1"/>
-      <c r="Z1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1003" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
@@ -29264,27 +30032,8 @@
       <c r="E1003" s="1"/>
       <c r="F1003" s="1"/>
       <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
-      <c r="Y1003" s="1"/>
-      <c r="Z1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1004" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -29292,27 +30041,8 @@
       <c r="E1004" s="1"/>
       <c r="F1004" s="1"/>
       <c r="G1004" s="1"/>
-      <c r="H1004" s="1"/>
-      <c r="I1004" s="1"/>
-      <c r="J1004" s="1"/>
-      <c r="K1004" s="1"/>
-      <c r="L1004" s="1"/>
-      <c r="M1004" s="1"/>
-      <c r="N1004" s="1"/>
-      <c r="O1004" s="1"/>
-      <c r="P1004" s="1"/>
-      <c r="Q1004" s="1"/>
-      <c r="R1004" s="1"/>
-      <c r="S1004" s="1"/>
-      <c r="T1004" s="1"/>
-      <c r="U1004" s="1"/>
-      <c r="V1004" s="1"/>
-      <c r="W1004" s="1"/>
-      <c r="X1004" s="1"/>
-      <c r="Y1004" s="1"/>
-      <c r="Z1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1005" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -29320,27 +30050,8 @@
       <c r="E1005" s="1"/>
       <c r="F1005" s="1"/>
       <c r="G1005" s="1"/>
-      <c r="H1005" s="1"/>
-      <c r="I1005" s="1"/>
-      <c r="J1005" s="1"/>
-      <c r="K1005" s="1"/>
-      <c r="L1005" s="1"/>
-      <c r="M1005" s="1"/>
-      <c r="N1005" s="1"/>
-      <c r="O1005" s="1"/>
-      <c r="P1005" s="1"/>
-      <c r="Q1005" s="1"/>
-      <c r="R1005" s="1"/>
-      <c r="S1005" s="1"/>
-      <c r="T1005" s="1"/>
-      <c r="U1005" s="1"/>
-      <c r="V1005" s="1"/>
-      <c r="W1005" s="1"/>
-      <c r="X1005" s="1"/>
-      <c r="Y1005" s="1"/>
-      <c r="Z1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1006" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
@@ -29348,106 +30059,6 @@
       <c r="E1006" s="1"/>
       <c r="F1006" s="1"/>
       <c r="G1006" s="1"/>
-      <c r="H1006" s="1"/>
-      <c r="I1006" s="1"/>
-      <c r="J1006" s="1"/>
-      <c r="K1006" s="1"/>
-      <c r="L1006" s="1"/>
-      <c r="M1006" s="1"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
-      <c r="P1006" s="1"/>
-      <c r="Q1006" s="1"/>
-      <c r="R1006" s="1"/>
-      <c r="S1006" s="1"/>
-      <c r="T1006" s="1"/>
-      <c r="U1006" s="1"/>
-      <c r="V1006" s="1"/>
-      <c r="W1006" s="1"/>
-      <c r="X1006" s="1"/>
-      <c r="Y1006" s="1"/>
-      <c r="Z1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="1"/>
-      <c r="G1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:26" ht="15" customHeight="1" thickBot="1">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1"/>
-      <c r="F1008" s="1"/>
-      <c r="G1008" s="1"/>
-    </row>
-    <row r="1009" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1"/>
-      <c r="F1009" s="1"/>
-      <c r="G1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
-      <c r="F1010" s="1"/>
-      <c r="G1010" s="1"/>
-    </row>
-    <row r="1011" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
-      <c r="G1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="1"/>
-      <c r="G1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1"/>
-      <c r="F1013" s="1"/>
-      <c r="G1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1"/>
-      <c r="F1014" s="1"/>
-      <c r="G1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="1"/>
-      <c r="G1015" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -238,27 +238,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>獵人;70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>槍騎兵;70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僧侶;70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>夜使者;70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>打手;70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺客;70</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -718,6 +702,74 @@
     <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神。自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會(除非智慧之神對你降下憐憫)！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>槍騎兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;70</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>獵人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;70</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>僧侶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;70</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>刺客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;70</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1023,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1145,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1262,7 +1314,7 @@
         <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1346,7 +1398,7 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1382,19 +1434,19 @@
         <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1424,19 +1476,19 @@
         <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1640,7 +1692,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1886,10 +1938,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>66</v>
@@ -1901,7 +1953,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1928,10 +1980,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>67</v>
@@ -1943,7 +1995,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1970,10 +2022,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>65</v>
@@ -1985,7 +2037,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2012,10 +2064,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>65</v>
@@ -2027,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2054,10 +2106,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>65</v>
@@ -2069,7 +2121,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2096,13 +2148,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -2111,7 +2163,7 @@
         <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2138,13 +2190,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -2153,7 +2205,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2180,13 +2232,13 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -2195,7 +2247,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2222,13 +2274,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -2237,7 +2289,7 @@
         <v>27</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2264,13 +2316,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -2279,7 +2331,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2306,13 +2358,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -2321,7 +2373,7 @@
         <v>27</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2348,13 +2400,13 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -2363,7 +2415,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2390,13 +2442,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -2405,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2432,13 +2484,13 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2447,7 +2499,7 @@
         <v>27</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2474,13 +2526,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -2489,7 +2541,7 @@
         <v>27</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2516,13 +2568,13 @@
         <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -2531,7 +2583,7 @@
         <v>27</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2558,13 +2610,13 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -2573,7 +2625,7 @@
         <v>27</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2600,13 +2652,13 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -2615,7 +2667,7 @@
         <v>27</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2642,13 +2694,13 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -2657,7 +2709,7 @@
         <v>27</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2684,13 +2736,13 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -2699,7 +2751,7 @@
         <v>27</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2726,13 +2778,13 @@
         <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -2741,7 +2793,7 @@
         <v>27</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2768,13 +2820,13 @@
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
@@ -2783,7 +2835,7 @@
         <v>27</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2810,13 +2862,13 @@
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
@@ -2825,7 +2877,7 @@
         <v>27</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2852,13 +2904,13 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -2867,7 +2919,7 @@
         <v>27</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2894,13 +2946,13 @@
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -2909,7 +2961,7 @@
         <v>27</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2936,13 +2988,13 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -2951,7 +3003,7 @@
         <v>27</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2978,13 +3030,13 @@
         <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2993,7 +3045,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3020,13 +3072,13 @@
         <v>25</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -3035,7 +3087,7 @@
         <v>27</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3062,13 +3114,13 @@
         <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -3077,7 +3129,7 @@
         <v>27</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3104,13 +3156,13 @@
         <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -3119,7 +3171,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3146,13 +3198,13 @@
         <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -3161,7 +3213,7 @@
         <v>27</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3188,13 +3240,13 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -3203,7 +3255,7 @@
         <v>27</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3230,13 +3282,13 @@
         <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -3245,7 +3297,7 @@
         <v>27</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3272,13 +3324,13 @@
         <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -3287,7 +3339,7 @@
         <v>27</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3314,13 +3366,13 @@
         <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -3329,7 +3381,7 @@
         <v>27</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3353,16 +3405,16 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -3371,7 +3423,7 @@
         <v>27</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3395,16 +3447,16 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -3413,7 +3465,7 @@
         <v>27</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3437,16 +3489,16 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -3455,7 +3507,7 @@
         <v>27</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3479,16 +3531,16 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -3497,7 +3549,7 @@
         <v>27</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3521,16 +3573,16 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -3539,7 +3591,7 @@
         <v>27</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3566,22 +3618,22 @@
         <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3608,22 +3660,22 @@
         <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3650,22 +3702,22 @@
         <v>13</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3692,22 +3744,22 @@
         <v>13</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3734,22 +3786,22 @@
         <v>13</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3776,22 +3828,22 @@
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3818,22 +3870,22 @@
         <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3860,22 +3912,22 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3902,22 +3954,22 @@
         <v>13</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3944,22 +3996,22 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3986,22 +4038,22 @@
         <v>13</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4028,22 +4080,22 @@
         <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4070,22 +4122,22 @@
         <v>13</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="167">
   <si>
     <t>任務類型</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>擊敗雪山魔女</t>
-  </si>
-  <si>
-    <t>系統提示(升等序號</t>
   </si>
   <si>
     <t>為了成為楓之谷之王，需要擊敗???，在???，找到???。最後將???、???、???、???、???交給黑風。完成最後的加冕儀式。</t>
@@ -770,6 +767,14 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>恭喜你升級！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你通過試煉！成為最強職業者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1075,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1137,25 +1142,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1188,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -1197,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1227,10 +1232,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1263,22 +1268,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1305,22 +1310,22 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1347,22 +1352,22 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1389,22 +1394,22 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1431,22 +1436,22 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1473,22 +1478,22 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1524,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1533,7 +1538,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1566,7 +1571,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1608,7 +1613,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1650,7 +1655,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1692,7 +1697,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1728,13 +1733,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -1743,7 +1748,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1770,13 +1775,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1785,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1812,13 +1817,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1827,7 +1832,7 @@
         <v>19</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1854,13 +1859,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1869,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1896,13 +1901,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1911,7 +1916,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1938,13 +1943,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1953,7 +1958,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1980,13 +1985,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1995,7 +2000,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2022,13 +2027,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -2037,7 +2042,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2064,13 +2069,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -2079,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2106,13 +2111,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -2121,7 +2126,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2148,22 +2153,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
+      <c r="F26" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2190,22 +2195,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>27</v>
+      <c r="F27" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2232,22 +2237,22 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>27</v>
+      <c r="F28" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2274,22 +2279,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>27</v>
+      <c r="F29" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2316,22 +2321,22 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>27</v>
+      <c r="F30" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2358,22 +2363,22 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>27</v>
+      <c r="F31" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2400,22 +2405,22 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>27</v>
+      <c r="F32" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2442,22 +2447,22 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
+      <c r="F33" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2484,22 +2489,22 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>27</v>
+      <c r="F34" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2526,22 +2531,22 @@
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>27</v>
+      <c r="F35" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2568,22 +2573,22 @@
         <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>27</v>
+      <c r="F36" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2610,22 +2615,22 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>27</v>
+      <c r="F37" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2652,22 +2657,22 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>27</v>
+      <c r="F38" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2694,22 +2699,22 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>27</v>
+      <c r="F39" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2736,22 +2741,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
+      <c r="F40" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2778,22 +2783,22 @@
         <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>27</v>
+      <c r="F41" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2820,22 +2825,22 @@
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>27</v>
+      <c r="F42" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2862,22 +2867,22 @@
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>27</v>
+      <c r="F43" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2904,22 +2909,22 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>27</v>
+      <c r="F44" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2946,22 +2951,22 @@
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>27</v>
+      <c r="F45" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2988,22 +2993,22 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>27</v>
+      <c r="F46" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3030,22 +3035,22 @@
         <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>27</v>
+      <c r="F47" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3072,22 +3077,22 @@
         <v>25</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>27</v>
+      <c r="F48" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3114,22 +3119,22 @@
         <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>27</v>
+      <c r="F49" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3156,22 +3161,22 @@
         <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>27</v>
+      <c r="F50" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3198,22 +3203,22 @@
         <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>27</v>
+      <c r="F51" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3240,22 +3245,22 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>27</v>
+      <c r="F52" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3282,22 +3287,22 @@
         <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>27</v>
+      <c r="F53" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3324,22 +3329,22 @@
         <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>27</v>
+      <c r="F54" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3366,22 +3371,22 @@
         <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>27</v>
+      <c r="F55" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3405,25 +3410,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>27</v>
+      <c r="F56" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3447,25 +3452,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>27</v>
+      <c r="F57" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3489,25 +3494,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>27</v>
+      <c r="F58" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3531,25 +3536,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>27</v>
+      <c r="F59" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3573,25 +3578,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>27</v>
+      <c r="F60" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3618,22 +3623,22 @@
         <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3660,22 +3665,22 @@
         <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3702,22 +3707,22 @@
         <v>13</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3744,22 +3749,22 @@
         <v>13</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3786,22 +3791,22 @@
         <v>13</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3828,22 +3833,22 @@
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3870,22 +3875,22 @@
         <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3912,22 +3917,22 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3954,22 +3959,22 @@
         <v>13</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3996,22 +4001,22 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4038,22 +4043,22 @@
         <v>13</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4080,22 +4085,22 @@
         <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4122,22 +4127,22 @@
         <v>13</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="173">
   <si>
     <t>任務類型</t>
   </si>
@@ -221,17 +221,6 @@
   </si>
   <si>
     <t>海盜;30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！</t>
-  </si>
-  <si>
-    <t>擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -772,7 +761,38 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜你通過試煉！成為最強職業者</t>
+    <t>恭喜你通過試煉！你已經站在職業者之巔，顧盼四方無敵手，獨孤求敗！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你升級到30等！！可以接受第二階段的轉職任務了！</t>
+  </si>
+  <si>
+    <t>恭喜你升級到30等！！可以接受第二階段的轉職任務了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你升級到70等！！可以接受最終階段的轉職任務了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上6張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上7張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上8張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上9張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承。獲得傳承，你才能真正接觸主線任務！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1080,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1202,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1319,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1403,7 +1423,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1439,19 +1459,19 @@
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1481,19 +1501,19 @@
         <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1697,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1943,13 +1963,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1958,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1985,13 +2005,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -2000,7 +2020,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2027,13 +2047,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -2042,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2069,13 +2089,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -2084,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2111,13 +2131,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -2126,7 +2146,7 @@
         <v>19</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2153,22 +2173,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2195,13 +2215,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -2210,7 +2230,7 @@
         <v>165</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2237,22 +2257,22 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2279,22 +2299,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2321,22 +2341,22 @@
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2363,22 +2383,22 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2405,22 +2425,22 @@
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2447,22 +2467,22 @@
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2489,22 +2509,22 @@
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2531,22 +2551,22 @@
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2573,22 +2593,22 @@
         <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2615,22 +2635,22 @@
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2657,22 +2677,22 @@
         <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2699,22 +2719,22 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2741,22 +2761,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2783,22 +2803,22 @@
         <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2825,22 +2845,22 @@
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2867,22 +2887,22 @@
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2909,22 +2929,22 @@
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2951,22 +2971,22 @@
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2993,22 +3013,22 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3035,22 +3055,22 @@
         <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3077,22 +3097,22 @@
         <v>25</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3119,22 +3139,22 @@
         <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3161,22 +3181,22 @@
         <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3203,22 +3223,22 @@
         <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3245,22 +3265,22 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3287,22 +3307,22 @@
         <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3329,22 +3349,22 @@
         <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3371,22 +3391,22 @@
         <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3410,25 +3430,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3452,25 +3472,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3494,25 +3514,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3536,25 +3556,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3578,25 +3598,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3623,22 +3643,22 @@
         <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3665,22 +3685,22 @@
         <v>13</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3707,22 +3727,22 @@
         <v>13</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3749,22 +3769,22 @@
         <v>13</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3791,22 +3811,22 @@
         <v>13</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3833,22 +3853,22 @@
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3875,22 +3895,22 @@
         <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3917,22 +3937,22 @@
         <v>13</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3959,22 +3979,22 @@
         <v>13</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4001,22 +4021,22 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4043,22 +4063,22 @@
         <v>13</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4085,22 +4105,22 @@
         <v>13</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4127,22 +4147,22 @@
         <v>13</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="177">
   <si>
     <t>任務類型</t>
   </si>
@@ -795,6 +795,22 @@
     <t>通過這次試煉後，你將會接受最後傳承。獲得傳承，你才能真正接觸主線任務！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>支線任務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳之神第1階段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成跳跳任務其一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中一個，便能展示給黑風，讓黑風看看，你成為第1階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1100,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4185,10 +4201,18 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="A74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="223">
   <si>
     <t>任務類型</t>
   </si>
@@ -808,7 +808,289 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中一個，便能展示給黑風，讓黑風看看，你成為第1階段跳跳之神的實力。</t>
+    <t>跳跳之神第2階段</t>
+  </si>
+  <si>
+    <t>跳跳之神第3階段</t>
+  </si>
+  <si>
+    <t>跳跳之神第4階段</t>
+  </si>
+  <si>
+    <t>你已經獲得跳跳之神的第1階段權柄！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已經獲得跳跳之神的第2階段權柄！</t>
+  </si>
+  <si>
+    <t>你已經獲得跳跳之神的第3階段權柄！</t>
+  </si>
+  <si>
+    <t>你已經獲得跳跳之神的第4階段權柄！</t>
+  </si>
+  <si>
+    <t>你已經獲取所有跳跳之神權柄！你已經成為跳跳之神！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>待定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，便能展示給黑風，讓黑風看看，你成為第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>階段跳跳之神的實力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中2個，便能展示給黑風，讓黑風看看，你成為第2階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中3個，便能展示給黑風，讓黑風看看，你成為第3階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中4個，便能展示給黑風，讓黑風看看，你成為第4階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成跳跳任務其二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成跳跳任務其三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成跳跳任務其四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有跳跳任務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳之神最終階段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神出現了！時尚之神降臨人間，他只喜歡與自己相同的，又或是讓他徹底三官崩壞的造型。黑風將會在群組爆照，想辦法長得跟黑風一樣，或是放飛自我，讓他看看你的美感，時尚之神就有可能將你收為隨從！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神的奴僕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為時尚之神的隨從</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神第1階段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神第2階段</t>
+  </si>
+  <si>
+    <t>完成時尚任務其一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成時尚任務其二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有時尚任務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神最終階段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自認記憶力超群的你，想要與他人來一場頭腦廝殺。因此，你需要一個戰場來讓你的頭腦得已發揮。尋找30張怪物卡，交給黑風，他會製作出讓你酣戰的極品戰場。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>記憶之戰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>記憶之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你渴求一場記憶力之戰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>與記憶之神對戰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是記憶之神。自覺獨孤求敗的你，直接挑戰黑風，挑戰記憶之神，篡奪記憶力之權柄！。用記憶大考驗擊敗黑風吧！你只有一次機會(除非記憶之神對你降下憐憫)！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神第3階段</t>
+  </si>
+  <si>
+    <t>時尚之神第4階段</t>
+  </si>
+  <si>
+    <t>你已經通過時尚惡魔的第1階段考驗！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已經通過時尚惡魔的第2階段考驗！</t>
+  </si>
+  <si>
+    <t>你已經通過時尚惡魔的第3階段考驗！</t>
+  </si>
+  <si>
+    <t>你已經通過時尚惡魔的第4階段考驗！</t>
+  </si>
+  <si>
+    <t>你已經通過時尚惡魔的所有考驗！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成時尚任務其三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法長得跟其中1個黑大王一樣。身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成2種黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成3種黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成4種黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成所有黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成時尚任務其四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1114,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1218,30 +1500,30 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1260,30 +1542,30 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1304,22 +1586,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1346,25 +1628,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1388,25 +1670,25 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1430,25 +1712,25 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1472,25 +1754,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1514,25 +1796,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1556,25 +1838,25 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1598,25 +1880,25 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1640,25 +1922,25 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1682,25 +1964,25 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1724,25 +2006,25 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1766,25 +2048,25 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1808,25 +2090,25 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1850,25 +2132,25 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1892,25 +2174,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1933,26 +2215,26 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
+      <c r="A20" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>174</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1975,26 +2257,26 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>16</v>
+      <c r="A21" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2017,26 +2299,26 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
+      <c r="A22" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>190</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2059,26 +2341,26 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
+      <c r="A23" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>160</v>
+        <v>187</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2101,26 +2383,26 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
+      <c r="A24" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2143,26 +2425,26 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
+      <c r="A25" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>70</v>
+        <v>197</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2185,26 +2467,26 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>218</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>129</v>
+        <v>212</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2227,26 +2509,26 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
+        <v>219</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>134</v>
+        <v>213</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2269,26 +2551,26 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
+      <c r="A28" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>220</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>130</v>
+        <v>214</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2311,26 +2593,26 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>25</v>
+      <c r="A29" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>202</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>221</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>135</v>
+        <v>215</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2354,25 +2636,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>131</v>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2396,25 +2678,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>136</v>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2438,25 +2720,25 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>132</v>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2480,25 +2762,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>205</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>137</v>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2522,25 +2804,25 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>133</v>
+      <c r="F34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2564,25 +2846,25 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2606,25 +2888,25 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>109</v>
+        <v>140</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2648,25 +2930,25 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>162</v>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2690,25 +2972,25 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>111</v>
+      <c r="F38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2732,25 +3014,25 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>112</v>
+      <c r="F39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2774,25 +3056,25 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>125</v>
+      <c r="F40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2816,25 +3098,25 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>126</v>
+      <c r="F41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2858,25 +3140,25 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>162</v>
+      <c r="F42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2900,25 +3182,25 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>166</v>
+      <c r="F43" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2942,25 +3224,25 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>162</v>
+      <c r="F44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2984,25 +3266,25 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>78</v>
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>162</v>
+      <c r="F45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3026,25 +3308,25 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>162</v>
+      <c r="F46" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3068,25 +3350,25 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>166</v>
+      <c r="F47" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3110,25 +3392,25 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>162</v>
+      <c r="F48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3152,25 +3434,25 @@
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>162</v>
+      <c r="F49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3194,25 +3476,25 @@
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>162</v>
+      <c r="F50" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3236,25 +3518,25 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>166</v>
+      <c r="F51" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3281,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>78</v>
@@ -3296,7 +3578,7 @@
         <v>162</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3323,7 +3605,7 @@
         <v>25</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>78</v>
@@ -3335,10 +3617,10 @@
         <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3365,7 +3647,7 @@
         <v>25</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>78</v>
@@ -3380,7 +3662,7 @@
         <v>162</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3407,7 +3689,7 @@
         <v>25</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>78</v>
@@ -3419,10 +3701,10 @@
         <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3445,26 +3727,26 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A56" s="3" t="s">
-        <v>144</v>
+      <c r="A56" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3487,26 +3769,26 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A57" s="3" t="s">
-        <v>144</v>
+      <c r="A57" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3529,26 +3811,26 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A58" s="3" t="s">
-        <v>144</v>
+      <c r="A58" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3571,26 +3853,26 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A59" s="3" t="s">
-        <v>144</v>
+      <c r="A59" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3613,26 +3895,26 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A60" s="3" t="s">
-        <v>144</v>
+      <c r="A60" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3656,25 +3938,25 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3698,25 +3980,25 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3740,25 +4022,25 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3782,25 +4064,25 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3824,25 +4106,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3866,25 +4148,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3908,25 +4190,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3950,25 +4232,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3992,25 +4274,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4034,25 +4316,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4076,25 +4358,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4118,25 +4400,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4160,25 +4442,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>78</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4201,21 +4483,27 @@
       <c r="Z73" s="1"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A74" s="3" t="s">
-        <v>173</v>
+      <c r="A74" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4237,13 +4525,27 @@
       <c r="Z74" s="1"/>
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4265,13 +4567,27 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4293,13 +4609,27 @@
       <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4321,13 +4651,27 @@
       <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4349,13 +4693,27 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4377,13 +4735,27 @@
       <c r="Z79" s="1"/>
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4405,13 +4777,27 @@
       <c r="Z80" s="1"/>
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4433,13 +4819,27 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="A82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4461,13 +4861,27 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="A83" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -4489,13 +4903,27 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="A84" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4517,13 +4945,27 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="A85" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -4545,13 +4987,27 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="A86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -4573,12 +5029,12 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -4601,12 +5057,12 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4629,12 +5085,12 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4657,12 +5113,12 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4685,12 +5141,12 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -4714,12 +5170,12 @@
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="G92" s="3"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -4742,12 +5198,12 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="G93" s="3"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -4770,12 +5226,12 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="G94" s="3"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -4798,12 +5254,12 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="G95" s="3"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -4826,12 +5282,12 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="G96" s="3"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -4854,12 +5310,12 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="G97" s="3"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -4882,12 +5338,12 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="G98" s="3"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -4910,12 +5366,12 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="G99" s="3"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -4937,12 +5393,12 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -4965,12 +5421,12 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4993,12 +5449,12 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -5021,12 +5477,12 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -5049,12 +5505,12 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -30080,7 +30536,7 @@
       <c r="Y997" s="1"/>
       <c r="Z997" s="1"/>
     </row>
-    <row r="998" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="998" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -30088,8 +30544,27 @@
       <c r="E998" s="1"/>
       <c r="F998" s="1"/>
       <c r="G998" s="1"/>
-    </row>
-    <row r="999" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H998" s="1"/>
+      <c r="I998" s="1"/>
+      <c r="J998" s="1"/>
+      <c r="K998" s="1"/>
+      <c r="L998" s="1"/>
+      <c r="M998" s="1"/>
+      <c r="N998" s="1"/>
+      <c r="O998" s="1"/>
+      <c r="P998" s="1"/>
+      <c r="Q998" s="1"/>
+      <c r="R998" s="1"/>
+      <c r="S998" s="1"/>
+      <c r="T998" s="1"/>
+      <c r="U998" s="1"/>
+      <c r="V998" s="1"/>
+      <c r="W998" s="1"/>
+      <c r="X998" s="1"/>
+      <c r="Y998" s="1"/>
+      <c r="Z998" s="1"/>
+    </row>
+    <row r="999" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -30097,8 +30572,27 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-    </row>
-    <row r="1000" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H999" s="1"/>
+      <c r="I999" s="1"/>
+      <c r="J999" s="1"/>
+      <c r="K999" s="1"/>
+      <c r="L999" s="1"/>
+      <c r="M999" s="1"/>
+      <c r="N999" s="1"/>
+      <c r="O999" s="1"/>
+      <c r="P999" s="1"/>
+      <c r="Q999" s="1"/>
+      <c r="R999" s="1"/>
+      <c r="S999" s="1"/>
+      <c r="T999" s="1"/>
+      <c r="U999" s="1"/>
+      <c r="V999" s="1"/>
+      <c r="W999" s="1"/>
+      <c r="X999" s="1"/>
+      <c r="Y999" s="1"/>
+      <c r="Z999" s="1"/>
+    </row>
+    <row r="1000" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -30106,8 +30600,27 @@
       <c r="E1000" s="1"/>
       <c r="F1000" s="1"/>
       <c r="G1000" s="1"/>
-    </row>
-    <row r="1001" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1000" s="1"/>
+      <c r="I1000" s="1"/>
+      <c r="J1000" s="1"/>
+      <c r="K1000" s="1"/>
+      <c r="L1000" s="1"/>
+      <c r="M1000" s="1"/>
+      <c r="N1000" s="1"/>
+      <c r="O1000" s="1"/>
+      <c r="P1000" s="1"/>
+      <c r="Q1000" s="1"/>
+      <c r="R1000" s="1"/>
+      <c r="S1000" s="1"/>
+      <c r="T1000" s="1"/>
+      <c r="U1000" s="1"/>
+      <c r="V1000" s="1"/>
+      <c r="W1000" s="1"/>
+      <c r="X1000" s="1"/>
+      <c r="Y1000" s="1"/>
+      <c r="Z1000" s="1"/>
+    </row>
+    <row r="1001" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1001" s="1"/>
       <c r="B1001" s="1"/>
       <c r="C1001" s="1"/>
@@ -30115,8 +30628,27 @@
       <c r="E1001" s="1"/>
       <c r="F1001" s="1"/>
       <c r="G1001" s="1"/>
-    </row>
-    <row r="1002" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="1"/>
+      <c r="J1001" s="1"/>
+      <c r="K1001" s="1"/>
+      <c r="L1001" s="1"/>
+      <c r="M1001" s="1"/>
+      <c r="N1001" s="1"/>
+      <c r="O1001" s="1"/>
+      <c r="P1001" s="1"/>
+      <c r="Q1001" s="1"/>
+      <c r="R1001" s="1"/>
+      <c r="S1001" s="1"/>
+      <c r="T1001" s="1"/>
+      <c r="U1001" s="1"/>
+      <c r="V1001" s="1"/>
+      <c r="W1001" s="1"/>
+      <c r="X1001" s="1"/>
+      <c r="Y1001" s="1"/>
+      <c r="Z1001" s="1"/>
+    </row>
+    <row r="1002" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1002" s="1"/>
       <c r="B1002" s="1"/>
       <c r="C1002" s="1"/>
@@ -30124,8 +30656,27 @@
       <c r="E1002" s="1"/>
       <c r="F1002" s="1"/>
       <c r="G1002" s="1"/>
-    </row>
-    <row r="1003" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1002" s="1"/>
+      <c r="I1002" s="1"/>
+      <c r="J1002" s="1"/>
+      <c r="K1002" s="1"/>
+      <c r="L1002" s="1"/>
+      <c r="M1002" s="1"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
+    <row r="1003" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1003" s="1"/>
       <c r="B1003" s="1"/>
       <c r="C1003" s="1"/>
@@ -30133,8 +30684,27 @@
       <c r="E1003" s="1"/>
       <c r="F1003" s="1"/>
       <c r="G1003" s="1"/>
-    </row>
-    <row r="1004" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1003" s="1"/>
+      <c r="I1003" s="1"/>
+      <c r="J1003" s="1"/>
+      <c r="K1003" s="1"/>
+      <c r="L1003" s="1"/>
+      <c r="M1003" s="1"/>
+      <c r="N1003" s="1"/>
+      <c r="O1003" s="1"/>
+      <c r="P1003" s="1"/>
+      <c r="Q1003" s="1"/>
+      <c r="R1003" s="1"/>
+      <c r="S1003" s="1"/>
+      <c r="T1003" s="1"/>
+      <c r="U1003" s="1"/>
+      <c r="V1003" s="1"/>
+      <c r="W1003" s="1"/>
+      <c r="X1003" s="1"/>
+      <c r="Y1003" s="1"/>
+      <c r="Z1003" s="1"/>
+    </row>
+    <row r="1004" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1004" s="1"/>
       <c r="B1004" s="1"/>
       <c r="C1004" s="1"/>
@@ -30142,8 +30712,27 @@
       <c r="E1004" s="1"/>
       <c r="F1004" s="1"/>
       <c r="G1004" s="1"/>
-    </row>
-    <row r="1005" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1004" s="1"/>
+      <c r="I1004" s="1"/>
+      <c r="J1004" s="1"/>
+      <c r="K1004" s="1"/>
+      <c r="L1004" s="1"/>
+      <c r="M1004" s="1"/>
+      <c r="N1004" s="1"/>
+      <c r="O1004" s="1"/>
+      <c r="P1004" s="1"/>
+      <c r="Q1004" s="1"/>
+      <c r="R1004" s="1"/>
+      <c r="S1004" s="1"/>
+      <c r="T1004" s="1"/>
+      <c r="U1004" s="1"/>
+      <c r="V1004" s="1"/>
+      <c r="W1004" s="1"/>
+      <c r="X1004" s="1"/>
+      <c r="Y1004" s="1"/>
+      <c r="Z1004" s="1"/>
+    </row>
+    <row r="1005" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1005" s="1"/>
       <c r="B1005" s="1"/>
       <c r="C1005" s="1"/>
@@ -30151,8 +30740,27 @@
       <c r="E1005" s="1"/>
       <c r="F1005" s="1"/>
       <c r="G1005" s="1"/>
-    </row>
-    <row r="1006" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1005" s="1"/>
+      <c r="I1005" s="1"/>
+      <c r="J1005" s="1"/>
+      <c r="K1005" s="1"/>
+      <c r="L1005" s="1"/>
+      <c r="M1005" s="1"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
+    <row r="1006" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1006" s="1"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
@@ -30160,6 +30768,582 @@
       <c r="E1006" s="1"/>
       <c r="F1006" s="1"/>
       <c r="G1006" s="1"/>
+      <c r="H1006" s="1"/>
+      <c r="I1006" s="1"/>
+      <c r="J1006" s="1"/>
+      <c r="K1006" s="1"/>
+      <c r="L1006" s="1"/>
+      <c r="M1006" s="1"/>
+      <c r="N1006" s="1"/>
+      <c r="O1006" s="1"/>
+      <c r="P1006" s="1"/>
+      <c r="Q1006" s="1"/>
+      <c r="R1006" s="1"/>
+      <c r="S1006" s="1"/>
+      <c r="T1006" s="1"/>
+      <c r="U1006" s="1"/>
+      <c r="V1006" s="1"/>
+      <c r="W1006" s="1"/>
+      <c r="X1006" s="1"/>
+      <c r="Y1006" s="1"/>
+      <c r="Z1006" s="1"/>
+    </row>
+    <row r="1007" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1007" s="1"/>
+      <c r="B1007" s="1"/>
+      <c r="C1007" s="1"/>
+      <c r="D1007" s="1"/>
+      <c r="E1007" s="1"/>
+      <c r="F1007" s="1"/>
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="1"/>
+      <c r="I1007" s="1"/>
+      <c r="J1007" s="1"/>
+      <c r="K1007" s="1"/>
+      <c r="L1007" s="1"/>
+      <c r="M1007" s="1"/>
+      <c r="N1007" s="1"/>
+      <c r="O1007" s="1"/>
+      <c r="P1007" s="1"/>
+      <c r="Q1007" s="1"/>
+      <c r="R1007" s="1"/>
+      <c r="S1007" s="1"/>
+      <c r="T1007" s="1"/>
+      <c r="U1007" s="1"/>
+      <c r="V1007" s="1"/>
+      <c r="W1007" s="1"/>
+      <c r="X1007" s="1"/>
+      <c r="Y1007" s="1"/>
+      <c r="Z1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1008" s="1"/>
+      <c r="B1008" s="1"/>
+      <c r="C1008" s="1"/>
+      <c r="D1008" s="1"/>
+      <c r="E1008" s="1"/>
+      <c r="F1008" s="1"/>
+      <c r="G1008" s="1"/>
+      <c r="H1008" s="1"/>
+      <c r="I1008" s="1"/>
+      <c r="J1008" s="1"/>
+      <c r="K1008" s="1"/>
+      <c r="L1008" s="1"/>
+      <c r="M1008" s="1"/>
+      <c r="N1008" s="1"/>
+      <c r="O1008" s="1"/>
+      <c r="P1008" s="1"/>
+      <c r="Q1008" s="1"/>
+      <c r="R1008" s="1"/>
+      <c r="S1008" s="1"/>
+      <c r="T1008" s="1"/>
+      <c r="U1008" s="1"/>
+      <c r="V1008" s="1"/>
+      <c r="W1008" s="1"/>
+      <c r="X1008" s="1"/>
+      <c r="Y1008" s="1"/>
+      <c r="Z1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1009" s="1"/>
+      <c r="B1009" s="1"/>
+      <c r="C1009" s="1"/>
+      <c r="D1009" s="1"/>
+      <c r="E1009" s="1"/>
+      <c r="F1009" s="1"/>
+      <c r="G1009" s="1"/>
+      <c r="H1009" s="1"/>
+      <c r="I1009" s="1"/>
+      <c r="J1009" s="1"/>
+      <c r="K1009" s="1"/>
+      <c r="L1009" s="1"/>
+      <c r="M1009" s="1"/>
+      <c r="N1009" s="1"/>
+      <c r="O1009" s="1"/>
+      <c r="P1009" s="1"/>
+      <c r="Q1009" s="1"/>
+      <c r="R1009" s="1"/>
+      <c r="S1009" s="1"/>
+      <c r="T1009" s="1"/>
+      <c r="U1009" s="1"/>
+      <c r="V1009" s="1"/>
+      <c r="W1009" s="1"/>
+      <c r="X1009" s="1"/>
+      <c r="Y1009" s="1"/>
+      <c r="Z1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1010" s="1"/>
+      <c r="B1010" s="1"/>
+      <c r="C1010" s="1"/>
+      <c r="D1010" s="1"/>
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="1"/>
+      <c r="G1010" s="1"/>
+      <c r="H1010" s="1"/>
+      <c r="I1010" s="1"/>
+      <c r="J1010" s="1"/>
+      <c r="K1010" s="1"/>
+      <c r="L1010" s="1"/>
+      <c r="M1010" s="1"/>
+      <c r="N1010" s="1"/>
+      <c r="O1010" s="1"/>
+      <c r="P1010" s="1"/>
+      <c r="Q1010" s="1"/>
+      <c r="R1010" s="1"/>
+      <c r="S1010" s="1"/>
+      <c r="T1010" s="1"/>
+      <c r="U1010" s="1"/>
+      <c r="V1010" s="1"/>
+      <c r="W1010" s="1"/>
+      <c r="X1010" s="1"/>
+      <c r="Y1010" s="1"/>
+      <c r="Z1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
+      <c r="E1011" s="1"/>
+      <c r="F1011" s="1"/>
+      <c r="G1011" s="1"/>
+      <c r="H1011" s="1"/>
+      <c r="I1011" s="1"/>
+      <c r="J1011" s="1"/>
+      <c r="K1011" s="1"/>
+      <c r="L1011" s="1"/>
+      <c r="M1011" s="1"/>
+      <c r="N1011" s="1"/>
+      <c r="O1011" s="1"/>
+      <c r="P1011" s="1"/>
+      <c r="Q1011" s="1"/>
+      <c r="R1011" s="1"/>
+      <c r="S1011" s="1"/>
+      <c r="T1011" s="1"/>
+      <c r="U1011" s="1"/>
+      <c r="V1011" s="1"/>
+      <c r="W1011" s="1"/>
+      <c r="X1011" s="1"/>
+      <c r="Y1011" s="1"/>
+      <c r="Z1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
+      <c r="E1012" s="1"/>
+      <c r="F1012" s="1"/>
+      <c r="G1012" s="1"/>
+      <c r="H1012" s="1"/>
+      <c r="I1012" s="1"/>
+      <c r="J1012" s="1"/>
+      <c r="K1012" s="1"/>
+      <c r="L1012" s="1"/>
+      <c r="M1012" s="1"/>
+      <c r="N1012" s="1"/>
+      <c r="O1012" s="1"/>
+      <c r="P1012" s="1"/>
+      <c r="Q1012" s="1"/>
+      <c r="R1012" s="1"/>
+      <c r="S1012" s="1"/>
+      <c r="T1012" s="1"/>
+      <c r="U1012" s="1"/>
+      <c r="V1012" s="1"/>
+      <c r="W1012" s="1"/>
+      <c r="X1012" s="1"/>
+      <c r="Y1012" s="1"/>
+      <c r="Z1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="1"/>
+      <c r="E1013" s="1"/>
+      <c r="F1013" s="1"/>
+      <c r="G1013" s="1"/>
+      <c r="H1013" s="1"/>
+      <c r="I1013" s="1"/>
+      <c r="J1013" s="1"/>
+      <c r="K1013" s="1"/>
+      <c r="L1013" s="1"/>
+      <c r="M1013" s="1"/>
+      <c r="N1013" s="1"/>
+      <c r="O1013" s="1"/>
+      <c r="P1013" s="1"/>
+      <c r="Q1013" s="1"/>
+      <c r="R1013" s="1"/>
+      <c r="S1013" s="1"/>
+      <c r="T1013" s="1"/>
+      <c r="U1013" s="1"/>
+      <c r="V1013" s="1"/>
+      <c r="W1013" s="1"/>
+      <c r="X1013" s="1"/>
+      <c r="Y1013" s="1"/>
+      <c r="Z1013" s="1"/>
+    </row>
+    <row r="1014" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="1"/>
+      <c r="E1014" s="1"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
+      <c r="H1014" s="1"/>
+      <c r="I1014" s="1"/>
+      <c r="J1014" s="1"/>
+      <c r="K1014" s="1"/>
+      <c r="L1014" s="1"/>
+      <c r="M1014" s="1"/>
+      <c r="N1014" s="1"/>
+      <c r="O1014" s="1"/>
+      <c r="P1014" s="1"/>
+      <c r="Q1014" s="1"/>
+      <c r="R1014" s="1"/>
+      <c r="S1014" s="1"/>
+      <c r="T1014" s="1"/>
+      <c r="U1014" s="1"/>
+      <c r="V1014" s="1"/>
+      <c r="W1014" s="1"/>
+      <c r="X1014" s="1"/>
+      <c r="Y1014" s="1"/>
+      <c r="Z1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+      <c r="Z1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="1"/>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1"/>
+      <c r="I1016" s="1"/>
+      <c r="J1016" s="1"/>
+      <c r="K1016" s="1"/>
+      <c r="L1016" s="1"/>
+      <c r="M1016" s="1"/>
+      <c r="N1016" s="1"/>
+      <c r="O1016" s="1"/>
+      <c r="P1016" s="1"/>
+      <c r="Q1016" s="1"/>
+      <c r="R1016" s="1"/>
+      <c r="S1016" s="1"/>
+      <c r="T1016" s="1"/>
+      <c r="U1016" s="1"/>
+      <c r="V1016" s="1"/>
+      <c r="W1016" s="1"/>
+      <c r="X1016" s="1"/>
+      <c r="Y1016" s="1"/>
+      <c r="Z1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+      <c r="Z1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+      <c r="Z1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="1"/>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="1"/>
+      <c r="H1019" s="1"/>
+      <c r="I1019" s="1"/>
+      <c r="J1019" s="1"/>
+      <c r="K1019" s="1"/>
+      <c r="L1019" s="1"/>
+      <c r="M1019" s="1"/>
+      <c r="N1019" s="1"/>
+      <c r="O1019" s="1"/>
+      <c r="P1019" s="1"/>
+      <c r="Q1019" s="1"/>
+      <c r="R1019" s="1"/>
+      <c r="S1019" s="1"/>
+      <c r="T1019" s="1"/>
+      <c r="U1019" s="1"/>
+      <c r="V1019" s="1"/>
+      <c r="W1019" s="1"/>
+      <c r="X1019" s="1"/>
+      <c r="Y1019" s="1"/>
+      <c r="Z1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="1"/>
+      <c r="C1020" s="1"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="1"/>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1"/>
+      <c r="I1020" s="1"/>
+      <c r="J1020" s="1"/>
+      <c r="K1020" s="1"/>
+      <c r="L1020" s="1"/>
+      <c r="M1020" s="1"/>
+      <c r="N1020" s="1"/>
+      <c r="O1020" s="1"/>
+      <c r="P1020" s="1"/>
+      <c r="Q1020" s="1"/>
+      <c r="R1020" s="1"/>
+      <c r="S1020" s="1"/>
+      <c r="T1020" s="1"/>
+      <c r="U1020" s="1"/>
+      <c r="V1020" s="1"/>
+      <c r="W1020" s="1"/>
+      <c r="X1020" s="1"/>
+      <c r="Y1020" s="1"/>
+      <c r="Z1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1"/>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1"/>
+      <c r="I1021" s="1"/>
+      <c r="J1021" s="1"/>
+      <c r="K1021" s="1"/>
+      <c r="L1021" s="1"/>
+      <c r="M1021" s="1"/>
+      <c r="N1021" s="1"/>
+      <c r="O1021" s="1"/>
+      <c r="P1021" s="1"/>
+      <c r="Q1021" s="1"/>
+      <c r="R1021" s="1"/>
+      <c r="S1021" s="1"/>
+      <c r="T1021" s="1"/>
+      <c r="U1021" s="1"/>
+      <c r="V1021" s="1"/>
+      <c r="W1021" s="1"/>
+      <c r="X1021" s="1"/>
+      <c r="Y1021" s="1"/>
+      <c r="Z1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="1"/>
+      <c r="C1022" s="1"/>
+      <c r="D1022" s="1"/>
+      <c r="E1022" s="1"/>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
+      <c r="I1022" s="1"/>
+      <c r="J1022" s="1"/>
+      <c r="K1022" s="1"/>
+      <c r="L1022" s="1"/>
+      <c r="M1022" s="1"/>
+      <c r="N1022" s="1"/>
+      <c r="O1022" s="1"/>
+      <c r="P1022" s="1"/>
+      <c r="Q1022" s="1"/>
+      <c r="R1022" s="1"/>
+      <c r="S1022" s="1"/>
+      <c r="T1022" s="1"/>
+      <c r="U1022" s="1"/>
+      <c r="V1022" s="1"/>
+      <c r="W1022" s="1"/>
+      <c r="X1022" s="1"/>
+      <c r="Y1022" s="1"/>
+      <c r="Z1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
+      <c r="C1023" s="1"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="1"/>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
+      <c r="I1023" s="1"/>
+      <c r="J1023" s="1"/>
+      <c r="K1023" s="1"/>
+      <c r="L1023" s="1"/>
+      <c r="M1023" s="1"/>
+      <c r="N1023" s="1"/>
+      <c r="O1023" s="1"/>
+      <c r="P1023" s="1"/>
+      <c r="Q1023" s="1"/>
+      <c r="R1023" s="1"/>
+      <c r="S1023" s="1"/>
+      <c r="T1023" s="1"/>
+      <c r="U1023" s="1"/>
+      <c r="V1023" s="1"/>
+      <c r="W1023" s="1"/>
+      <c r="X1023" s="1"/>
+      <c r="Y1023" s="1"/>
+      <c r="Z1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1024" s="1"/>
+      <c r="B1024" s="1"/>
+      <c r="C1024" s="1"/>
+      <c r="D1024" s="1"/>
+      <c r="E1024" s="1"/>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1025" s="1"/>
+      <c r="B1025" s="1"/>
+      <c r="C1025" s="1"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="1"/>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1026" s="1"/>
+      <c r="B1026" s="1"/>
+      <c r="C1026" s="1"/>
+      <c r="D1026" s="1"/>
+      <c r="E1026" s="1"/>
+      <c r="F1026" s="1"/>
+      <c r="G1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1027" s="1"/>
+      <c r="B1027" s="1"/>
+      <c r="C1027" s="1"/>
+      <c r="D1027" s="1"/>
+      <c r="E1027" s="1"/>
+      <c r="F1027" s="1"/>
+      <c r="G1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1028" s="1"/>
+      <c r="B1028" s="1"/>
+      <c r="C1028" s="1"/>
+      <c r="D1028" s="1"/>
+      <c r="E1028" s="1"/>
+      <c r="F1028" s="1"/>
+      <c r="G1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1029" s="1"/>
+      <c r="B1029" s="1"/>
+      <c r="C1029" s="1"/>
+      <c r="D1029" s="1"/>
+      <c r="E1029" s="1"/>
+      <c r="F1029" s="1"/>
+      <c r="G1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1030" s="1"/>
+      <c r="B1030" s="1"/>
+      <c r="C1030" s="1"/>
+      <c r="D1030" s="1"/>
+      <c r="E1030" s="1"/>
+      <c r="F1030" s="1"/>
+      <c r="G1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1031" s="1"/>
+      <c r="B1031" s="1"/>
+      <c r="C1031" s="1"/>
+      <c r="D1031" s="1"/>
+      <c r="E1031" s="1"/>
+      <c r="F1031" s="1"/>
+      <c r="G1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+      <c r="C1032" s="1"/>
+      <c r="D1032" s="1"/>
+      <c r="E1032" s="1"/>
+      <c r="F1032" s="1"/>
+      <c r="G1032" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="247">
   <si>
     <t>任務類型</t>
   </si>
@@ -42,19 +42,7 @@
     <t>任務面向</t>
   </si>
   <si>
-    <t>終極任務</t>
-  </si>
-  <si>
-    <t>楓之谷之王</t>
-  </si>
-  <si>
-    <t>成為楓之谷之王</t>
-  </si>
-  <si>
     <t>待定</t>
-  </si>
-  <si>
-    <t>你已經成為楓之谷的神了！</t>
   </si>
   <si>
     <t>一般</t>
@@ -99,12 +87,6 @@
     <t>職業任務</t>
   </si>
   <si>
-    <t>擊敗雪山魔女</t>
-  </si>
-  <si>
-    <t>為了成為楓之谷之王，需要擊敗???，在???，找到???。最後將???、???、???、???、???交給黑風。完成最後的加冕儀式。</t>
-  </si>
-  <si>
     <t>解決公主莉莉安的煩惱</t>
   </si>
   <si>
@@ -145,9 +127,6 @@
   </si>
   <si>
     <t>擊敗藏在冰峰雪域的雪山魔女，獲得冰之淚。交給黑風證明你的能力</t>
-  </si>
-  <si>
-    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。交給黑風證明你的資質</t>
   </si>
   <si>
     <t>你想知道莉莉安，也就是黑風妹妹為什麼哀愁。找出原因解決他，能繼承黑王國的財富！</t>
@@ -252,15 +231,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一般</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>擊敗黑山老妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。交給黑風證明你的資質</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -685,10 +656,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神。自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會(除非智慧之神對你降下憐憫)！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>槍騎兵</t>
     </r>
@@ -790,10 +757,6 @@
   </si>
   <si>
     <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上9張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
-    <t>通過這次試煉後，你將會接受最後傳承。獲得傳承，你才能真正接觸主線任務！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>支線任務</t>
@@ -1041,10 +1004,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是記憶之神。自覺獨孤求敗的你，直接挑戰黑風，挑戰記憶之神，篡奪記憶力之權柄！。用記憶大考驗擊敗黑風吧！你只有一次機會(除非記憶之神對你降下憐憫)！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>時尚之神第3階段</t>
   </si>
   <si>
@@ -1091,6 +1050,230 @@
   </si>
   <si>
     <t>完成時尚任務其四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>籌措裝備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為魔法師，手握長杖，身披布衣，亟需訓練的你，朝綠水靈努力揮杖吧！。歷代強者都是打木制人偶出身的，而你打綠水靈，顯然比他們更勝一籌。蒐集80顆綠水靈掉落的綠水靈珠，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為弓箭手，手握短弓，身披布衣，亟需訓練的你，朝菇菇努力射箭吧！。歷代強者都是打木制準心出身的，而你打菇菇，顯然比他們更勝一籌。蒐集50個菇菇寶貝掉落的傘，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為劍士，手握長劍，身披布衣，亟需訓練的你，朝木妖努力揮劍吧！。歷代強者都是打木樁出身的，而你打木妖，顯然比他們更勝一籌。蒐集30片黑木妖掉落的樹葉，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上劍士之路的你，仍然身披布衣，手握長劍，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好7種部位的20~30等戰士裝備，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上弓箭手之路的你，仍然身披布衣，手握短弓，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等弓箭手"裝備"，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上魔法師之路的你，仍然身披布衣，手握長劍，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等魔法師裝備，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為盜賊，手握飛鏢，身披布衣，亟需訓練的你，朝三眼章魚努力丟標吧！。歷代強者都是丟木樁出身的，而你丟三眼章魚，顯然比他們更勝一籌。蒐集80個三眼章魚掉落的觸手，像黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上盜賊之路的你，仍然身披布衣，手握水星標，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等盜賊裝備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，朝緞帶肥肥努力揮拳吧！。歷代強者都是打木樁出身的，而你打緞帶肥肥，顯然比他們更勝一籌。蒐集30個緞帶肥肥掉落的緞帶，像黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上海盜之路的你，仍然身披布衣，手握指虎，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等海盜裝備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在天空之城的艾利杰，獲得幽靈魔法。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為香蕉之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉真的很棒，好吃好玩好方便，有用又有意思。大家都要香蕉，但是楓之谷生產的香蕉非常稀少，你找的到他嗎？。找到香蕉，並且找到黑風向她證明你對香蕉的熱愛！。挖哩蕉蕉~ (吃過的我們可是不要的喔~)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。或是取得200個蘑菇芽孢。交給黑風證明你的資質</t>
+  </si>
+  <si>
+    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。或是取得200個蘑菇芽孢。交給黑風證明你的資質</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。或是取得200個蘑菇芽孢。交給黑風證明你的資質</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是記憶之神！自覺獨孤求敗的你，直接挑戰黑風，挑戰記憶之神，篡奪記憶力之權柄！。用記憶大考驗擊敗黑風吧！你只有一次機會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或是獲得憐憫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神！自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會(或是獲得憐憫)！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在冰峰雪域的雪山魔女，獲得冰之淚。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗雪山魔女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗藏在天空之城的艾利杰，獲得幽靈魔法。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗艾利杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗雪山魔女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗艾利杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>擊敗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>隻怪貓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗30隻緞帶肥肥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗80隻三眼章魚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗80隻綠水靈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗5隻菇菇寶貝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗30隻黑木妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗月牙牛魔王及長槍牛魔王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗月光精靈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1398,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1032"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1460,25 +1643,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1502,25 +1685,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1542,30 +1725,30 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="24.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1586,25 +1769,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1628,25 +1811,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1670,25 +1853,25 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1712,25 +1895,25 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1754,25 +1937,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1796,25 +1979,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1838,25 +2021,25 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1880,25 +2063,25 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1922,25 +2105,25 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1964,25 +2147,25 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2006,25 +2189,25 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2048,25 +2231,25 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2090,25 +2273,25 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2132,25 +2315,25 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2174,25 +2357,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2216,25 +2399,25 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2258,25 +2441,25 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2300,25 +2483,25 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2342,25 +2525,25 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2384,25 +2567,25 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2426,25 +2609,25 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2468,25 +2651,25 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2510,25 +2693,25 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2552,25 +2735,25 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -2594,25 +2777,25 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2636,25 +2819,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2678,25 +2861,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2720,25 +2903,25 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2762,25 +2945,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2804,25 +2987,25 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2846,25 +3029,25 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2888,25 +3071,25 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2930,25 +3113,25 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2972,25 +3155,25 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3014,25 +3197,25 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3056,25 +3239,25 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3098,25 +3281,25 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3140,25 +3323,25 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3182,25 +3365,25 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3224,25 +3407,25 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3266,25 +3449,25 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3308,25 +3491,25 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3350,25 +3533,25 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3392,25 +3575,25 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3434,25 +3617,25 @@
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3476,25 +3659,25 @@
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3518,25 +3701,25 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3560,25 +3743,25 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3602,25 +3785,25 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3644,25 +3827,25 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3686,25 +3869,25 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3728,25 +3911,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3770,25 +3953,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3812,25 +3995,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3854,25 +4037,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -3896,25 +4079,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -3938,25 +4121,25 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3980,25 +4163,25 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4022,25 +4205,25 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4064,25 +4247,25 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4106,25 +4289,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4148,25 +4331,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>78</v>
+        <v>245</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4190,25 +4373,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4232,25 +4415,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4274,25 +4457,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4316,25 +4499,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4358,25 +4541,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4400,25 +4583,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4442,25 +4625,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4484,25 +4667,25 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4526,25 +4709,25 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4568,25 +4751,25 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4610,25 +4793,25 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4652,25 +4835,25 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4694,25 +4877,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4736,25 +4919,25 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4778,25 +4961,25 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4820,25 +5003,25 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -4862,25 +5045,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -4904,25 +5087,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -4946,25 +5129,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -4988,25 +5171,25 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="252">
   <si>
     <t>任務類型</t>
   </si>
@@ -1276,6 +1276,21 @@
     <t>擊敗月光精靈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>終極任務</t>
+  </si>
+  <si>
+    <t>楓之谷之王</t>
+  </si>
+  <si>
+    <t>成為楓之谷之王</t>
+  </si>
+  <si>
+    <t>為了成為楓之谷之王，需要擊敗???，在???，找到???。最後將???、???、???、???、???交給黑風。完成最後的加冕儀式。</t>
+  </si>
+  <si>
+    <t>你已經成為楓之谷的神了！</t>
+  </si>
 </sst>
 </file>
 
@@ -1579,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1032"/>
+  <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1769,24 +1784,24 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>248</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="1"/>
@@ -1813,23 +1828,23 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>145</v>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>147</v>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1913,7 +1928,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2357,25 +2372,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2398,23 +2413,23 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>168</v>
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>8</v>
@@ -2444,19 +2459,19 @@
         <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -2486,19 +2501,19 @@
         <v>162</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -2528,19 +2543,19 @@
         <v>162</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -2570,19 +2585,19 @@
         <v>162</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -2612,19 +2627,19 @@
         <v>162</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -2654,19 +2669,19 @@
         <v>162</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -2696,19 +2711,19 @@
         <v>162</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -2738,19 +2753,19 @@
         <v>162</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -2780,19 +2795,19 @@
         <v>162</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>145</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -2818,23 +2833,23 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>27</v>
+      <c r="A30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -2864,19 +2879,19 @@
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>231</v>
+        <v>25</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -2905,20 +2920,20 @@
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>195</v>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -2948,19 +2963,19 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
@@ -2989,20 +3004,20 @@
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
+      <c r="B34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3031,20 +3046,20 @@
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>133</v>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>130</v>
+      <c r="F35" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3074,19 +3089,19 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -3113,25 +3128,25 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>46</v>
+      <c r="F37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3158,13 +3173,13 @@
         <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -3172,8 +3187,8 @@
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
+      <c r="G38" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3200,13 +3215,13 @@
         <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
@@ -3242,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
@@ -3284,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
@@ -3325,14 +3340,14 @@
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>35</v>
+      <c r="B42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -3340,8 +3355,8 @@
       <c r="F42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>52</v>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3368,13 +3383,13 @@
         <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
@@ -3383,7 +3398,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3410,13 +3425,13 @@
         <v>12</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -3425,7 +3440,7 @@
         <v>15</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3452,13 +3467,13 @@
         <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>235</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -3467,7 +3482,7 @@
         <v>15</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3494,13 +3509,13 @@
         <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
@@ -3509,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3536,13 +3551,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -3551,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3578,13 +3593,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -3593,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3620,13 +3635,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -3635,7 +3650,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3662,13 +3677,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -3677,7 +3692,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3704,13 +3719,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
@@ -3719,7 +3734,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3743,25 +3758,25 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>152</v>
+      <c r="F52" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3788,22 +3803,22 @@
         <v>21</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3830,22 +3845,22 @@
         <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3872,22 +3887,22 @@
         <v>21</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3914,22 +3929,22 @@
         <v>21</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3956,22 +3971,22 @@
         <v>21</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3998,22 +4013,22 @@
         <v>21</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4040,22 +4055,22 @@
         <v>21</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4082,22 +4097,22 @@
         <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4124,22 +4139,22 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4166,22 +4181,22 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4208,10 +4223,10 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>69</v>
@@ -4223,7 +4238,7 @@
         <v>152</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4250,10 +4265,10 @@
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>69</v>
@@ -4265,7 +4280,7 @@
         <v>152</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4292,7 +4307,7 @@
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>69</v>
@@ -4304,10 +4319,10 @@
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4334,10 +4349,10 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>245</v>
+        <v>69</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>69</v>
@@ -4346,10 +4361,10 @@
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4376,10 +4391,10 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>69</v>
@@ -4391,7 +4406,7 @@
         <v>152</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4418,7 +4433,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>69</v>
@@ -4433,7 +4448,7 @@
         <v>152</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4460,7 +4475,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>69</v>
@@ -4472,10 +4487,10 @@
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4502,10 +4517,10 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>69</v>
@@ -4514,10 +4529,10 @@
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4544,10 +4559,10 @@
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>69</v>
@@ -4559,7 +4574,7 @@
         <v>152</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4586,7 +4601,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>69</v>
@@ -4601,7 +4616,7 @@
         <v>152</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4628,7 +4643,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>69</v>
@@ -4640,10 +4655,10 @@
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4670,7 +4685,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>69</v>
@@ -4682,10 +4697,10 @@
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4712,7 +4727,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>69</v>
@@ -4727,7 +4742,7 @@
         <v>152</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4754,7 +4769,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>69</v>
@@ -4769,7 +4784,7 @@
         <v>152</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4796,7 +4811,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>69</v>
@@ -4808,10 +4823,10 @@
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4838,7 +4853,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>69</v>
@@ -4850,10 +4865,10 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4880,7 +4895,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>69</v>
@@ -4895,7 +4910,7 @@
         <v>152</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4922,7 +4937,7 @@
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>69</v>
@@ -4937,7 +4952,7 @@
         <v>152</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4964,7 +4979,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>69</v>
@@ -4976,10 +4991,10 @@
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5002,26 +5017,26 @@
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A82" s="3" t="s">
-        <v>135</v>
+      <c r="A82" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5048,7 +5063,7 @@
         <v>135</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>69</v>
@@ -5063,7 +5078,7 @@
         <v>153</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5090,7 +5105,7 @@
         <v>135</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>69</v>
@@ -5105,7 +5120,7 @@
         <v>153</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5132,7 +5147,7 @@
         <v>135</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>69</v>
@@ -5147,7 +5162,7 @@
         <v>153</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5174,7 +5189,7 @@
         <v>135</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>69</v>
@@ -5189,7 +5204,7 @@
         <v>153</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5212,13 +5227,27 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="1"/>
+      <c r="A87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -5352,13 +5381,13 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A92" s="1"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -5576,13 +5605,13 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="3"/>
+      <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="3"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -5716,12 +5745,12 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -31447,7 +31476,7 @@
       <c r="Y1023" s="1"/>
       <c r="Z1023" s="1"/>
     </row>
-    <row r="1024" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1024" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1024" s="1"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
@@ -31455,6 +31484,25 @@
       <c r="E1024" s="1"/>
       <c r="F1024" s="1"/>
       <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+      <c r="I1024" s="1"/>
+      <c r="J1024" s="1"/>
+      <c r="K1024" s="1"/>
+      <c r="L1024" s="1"/>
+      <c r="M1024" s="1"/>
+      <c r="N1024" s="1"/>
+      <c r="O1024" s="1"/>
+      <c r="P1024" s="1"/>
+      <c r="Q1024" s="1"/>
+      <c r="R1024" s="1"/>
+      <c r="S1024" s="1"/>
+      <c r="T1024" s="1"/>
+      <c r="U1024" s="1"/>
+      <c r="V1024" s="1"/>
+      <c r="W1024" s="1"/>
+      <c r="X1024" s="1"/>
+      <c r="Y1024" s="1"/>
+      <c r="Z1024" s="1"/>
     </row>
     <row r="1025" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A1025" s="1"/>
@@ -31528,6 +31576,15 @@
       <c r="F1032" s="1"/>
       <c r="G1032" s="1"/>
     </row>
+    <row r="1033" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="1"/>
+      <c r="D1033" s="1"/>
+      <c r="E1033" s="1"/>
+      <c r="F1033" s="1"/>
+      <c r="G1033" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="258">
   <si>
     <t>任務類型</t>
   </si>
@@ -395,71 +395,6 @@
   </si>
   <si>
     <t>見習海盜之路2</t>
-  </si>
-  <si>
-    <t>見習槍騎兵之路1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>見習槍騎兵之路2</t>
-  </si>
-  <si>
-    <t>見習槍騎兵之路3</t>
-  </si>
-  <si>
-    <t>見習槍騎兵之路4</t>
-  </si>
-  <si>
-    <t>見習獵人之路1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>見習獵人之路2</t>
-  </si>
-  <si>
-    <t>見習獵人之路3</t>
-  </si>
-  <si>
-    <t>見習獵人之路4</t>
-  </si>
-  <si>
-    <t>見習僧侶之路1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>見習僧侶之路2</t>
-  </si>
-  <si>
-    <t>見習僧侶之路3</t>
-  </si>
-  <si>
-    <t>見習僧侶之路4</t>
-  </si>
-  <si>
-    <t>見習刺客之路1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>見習刺客之路2</t>
-  </si>
-  <si>
-    <t>見習刺客之路3</t>
-  </si>
-  <si>
-    <t>見習刺客之路4</t>
-  </si>
-  <si>
-    <t>見習打手之路1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>見習打手之路2</t>
-  </si>
-  <si>
-    <t>見習打手之路3</t>
-  </si>
-  <si>
-    <t>見習打手之路4</t>
   </si>
   <si>
     <t>槍騎兵;30</t>
@@ -1217,34 +1152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>擊敗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>隻怪貓</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>擊敗30隻緞帶肥肥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1262,10 +1169,6 @@
   </si>
   <si>
     <t>擊敗30隻黑木妖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1290,6 +1193,122 @@
   </si>
   <si>
     <t>你已經成為楓之谷的神了！</t>
+  </si>
+  <si>
+    <t>老練槍騎兵之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練槍騎兵之路2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練槍騎兵之路3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練槍騎兵之路4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練獵人之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練獵人之路2</t>
+  </si>
+  <si>
+    <t>老練獵人之路3</t>
+  </si>
+  <si>
+    <r>
+      <t>老練獵人之路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練僧侶之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練僧侶之路2</t>
+  </si>
+  <si>
+    <t>老練僧侶之路3</t>
+  </si>
+  <si>
+    <t>老練僧侶之路4</t>
+  </si>
+  <si>
+    <t>老練刺客之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練刺客之路2</t>
+  </si>
+  <si>
+    <t>老練刺客之路3</t>
+  </si>
+  <si>
+    <t>老練刺客之路4</t>
+  </si>
+  <si>
+    <t>老練打手之路1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老練打手之路2</t>
+  </si>
+  <si>
+    <t>老練打手之路3</t>
+  </si>
+  <si>
+    <t>老練打手之路4</t>
+  </si>
+  <si>
+    <t>擊敗200隻長槍牛魔王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，但這樣的裝備可稱不上真正的長槍大師。
+更精良的裝備不可或缺。
+準備好6種部位的40~60等劍士裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更強的裝備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰鬥補給</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為槍騎兵，手持長槍，身穿鎧甲，但還是要熟練自我槍法，跟長槍大師牛魔王一決高下吧！。 合格的槍騎兵都是以強者磨練槍法的，而你面對著長槍大師，顯然距離新世代槍術大師不遠了！ 。蒐集200個長槍牛魔王掉落的牛魔王角，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。在沙漠地區，獲得200瓶沙漠露水，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強之槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名槍騎兵，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之槍，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1596,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="D86" workbookViewId="0">
+      <selection sqref="A1:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1703,13 +1722,13 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -1745,13 +1764,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -1784,22 +1803,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
@@ -1871,22 +1890,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1913,22 +1932,22 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1955,22 +1974,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1997,22 +2016,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2039,22 +2058,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2081,22 +2100,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2123,22 +2142,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2165,22 +2184,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2207,22 +2226,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2249,22 +2268,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2291,22 +2310,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2333,22 +2352,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2375,22 +2394,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2456,22 +2475,22 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>8</v>
@@ -2498,22 +2517,22 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -2540,22 +2559,22 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -2582,22 +2601,22 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -2624,22 +2643,22 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -2666,22 +2685,22 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -2708,22 +2727,22 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -2750,22 +2769,22 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -2792,22 +2811,22 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -2834,22 +2853,22 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -2927,7 +2946,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
@@ -2963,13 +2982,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
@@ -3005,13 +3024,13 @@
         <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -3089,19 +3108,19 @@
         <v>23</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -3143,7 +3162,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -3179,7 +3198,7 @@
         <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>7</v>
@@ -3221,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>7</v>
@@ -3263,7 +3282,7 @@
         <v>14</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>7</v>
@@ -3305,7 +3324,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>7</v>
@@ -3347,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>7</v>
@@ -3386,7 +3405,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>35</v>
@@ -3428,10 +3447,10 @@
         <v>48</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>7</v>
@@ -3470,10 +3489,10 @@
         <v>49</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>7</v>
@@ -3512,7 +3531,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>35</v>
@@ -3554,10 +3573,10 @@
         <v>51</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -3599,7 +3618,7 @@
         <v>64</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -3608,7 +3627,7 @@
         <v>15</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3641,7 +3660,7 @@
         <v>64</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -3650,7 +3669,7 @@
         <v>15</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3683,7 +3702,7 @@
         <v>64</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -3692,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3725,7 +3744,7 @@
         <v>64</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
@@ -3734,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3767,7 +3786,7 @@
         <v>64</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
@@ -3806,19 +3825,19 @@
         <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3848,19 +3867,19 @@
         <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3890,19 +3909,19 @@
         <v>72</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3932,19 +3951,19 @@
         <v>73</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3974,19 +3993,19 @@
         <v>74</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4016,19 +4035,19 @@
         <v>75</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4058,19 +4077,19 @@
         <v>76</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4100,19 +4119,19 @@
         <v>77</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4142,19 +4161,19 @@
         <v>78</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4184,19 +4203,19 @@
         <v>79</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4223,22 +4242,22 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4265,22 +4284,22 @@
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4307,22 +4326,22 @@
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4349,22 +4368,22 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4391,10 +4410,10 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>69</v>
@@ -4403,10 +4422,10 @@
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4433,7 +4452,7 @@
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>69</v>
@@ -4445,10 +4464,10 @@
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4475,7 +4494,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>86</v>
+        <v>236</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>69</v>
@@ -4487,10 +4506,10 @@
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4517,7 +4536,7 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>69</v>
@@ -4529,10 +4548,10 @@
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4559,10 +4578,10 @@
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>69</v>
@@ -4571,10 +4590,10 @@
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4601,7 +4620,7 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>69</v>
@@ -4613,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4643,7 +4662,7 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>69</v>
@@ -4655,10 +4674,10 @@
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4685,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>69</v>
@@ -4697,10 +4716,10 @@
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4727,7 +4746,7 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>69</v>
@@ -4739,10 +4758,10 @@
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4769,7 +4788,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>69</v>
@@ -4781,10 +4800,10 @@
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4811,7 +4830,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>69</v>
@@ -4823,10 +4842,10 @@
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4853,7 +4872,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>69</v>
@@ -4865,10 +4884,10 @@
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4895,7 +4914,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>69</v>
@@ -4907,10 +4926,10 @@
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4937,7 +4956,7 @@
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>69</v>
@@ -4949,10 +4968,10 @@
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4979,7 +4998,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>69</v>
@@ -4991,10 +5010,10 @@
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5021,7 +5040,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>69</v>
@@ -5033,10 +5052,10 @@
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5060,25 +5079,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5102,25 +5121,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5144,25 +5163,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5186,22 +5205,22 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>57</v>
@@ -5228,25 +5247,25 @@
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="275">
   <si>
     <t>任務類型</t>
   </si>
@@ -1310,6 +1310,67 @@
     <t>完全具備技術、裝備、補給的一名槍騎兵，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之槍，獲得它！成為二階段最強冒險家。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支線任務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答題任務</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快問快答1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在開始快問快答！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作答完畢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快問快答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快問快答2</t>
+  </si>
+  <si>
+    <t>快問快答3</t>
+  </si>
+  <si>
+    <t>快問快答4</t>
+  </si>
+  <si>
+    <t>快問快答5</t>
+  </si>
+  <si>
+    <t>快問快答6</t>
+  </si>
+  <si>
+    <t>快問快答7</t>
+  </si>
+  <si>
+    <t>快問快答8</t>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1613,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1033"/>
+  <dimension ref="A1:Z1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D86" workbookViewId="0">
-      <selection sqref="A1:G88"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1655,7 +1716,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1760,28 +1823,30 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
+      <c r="A4" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1802,28 +1867,30 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1844,28 +1911,30 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1886,28 +1955,30 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+      <c r="A7" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1928,28 +1999,30 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1970,28 +2043,30 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2012,28 +2087,30 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2054,28 +2131,30 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2097,25 +2176,25 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>126</v>
+        <v>225</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2141,23 +2220,23 @@
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>125</v>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>126</v>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2199,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2241,7 +2320,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2433,25 +2512,25 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2474,26 +2553,26 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>142</v>
+      <c r="A21" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2516,26 +2595,26 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>142</v>
+      <c r="A22" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>8</v>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2558,26 +2637,26 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>142</v>
+      <c r="A23" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>8</v>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2600,26 +2679,26 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>142</v>
+      <c r="A24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>8</v>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2642,26 +2721,26 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>142</v>
+      <c r="A25" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>8</v>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2684,26 +2763,26 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A26" s="3" t="s">
-        <v>142</v>
+      <c r="A26" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2726,23 +2805,23 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>180</v>
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -2772,19 +2851,19 @@
         <v>142</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -2814,19 +2893,19 @@
         <v>142</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -2856,19 +2935,19 @@
         <v>142</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>125</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -2894,23 +2973,23 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>27</v>
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -2936,23 +3015,23 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
+      <c r="A32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>30</v>
+        <v>157</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -2978,23 +3057,23 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="1" t="s">
-        <v>23</v>
+      <c r="A33" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>185</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
@@ -3020,23 +3099,23 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
+      <c r="A34" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>30</v>
+        <v>186</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3062,23 +3141,23 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>38</v>
+      <c r="A35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>187</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3104,23 +3183,23 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="1" t="s">
-        <v>23</v>
+      <c r="A36" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>188</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -3146,23 +3225,23 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="1" t="s">
-        <v>23</v>
+      <c r="A37" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>189</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -3189,25 +3268,25 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3231,25 +3310,25 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3273,25 +3352,25 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3315,25 +3394,25 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3357,25 +3436,25 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3398,26 +3477,26 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="1" t="s">
-        <v>12</v>
+      <c r="A43" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3441,25 +3520,25 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>53</v>
+      <c r="F44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3483,25 +3562,25 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>54</v>
+      <c r="F45" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3527,14 +3606,14 @@
       <c r="A46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>7</v>
@@ -3543,7 +3622,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3569,14 +3648,14 @@
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>213</v>
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -3584,8 +3663,8 @@
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>56</v>
+      <c r="G47" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3611,14 +3690,14 @@
       <c r="A48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>64</v>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -3626,8 +3705,8 @@
       <c r="F48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>128</v>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3653,14 +3732,14 @@
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>64</v>
+      <c r="B49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -3668,8 +3747,8 @@
       <c r="F49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>129</v>
+      <c r="G49" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3695,14 +3774,14 @@
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>64</v>
+      <c r="B50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -3710,8 +3789,8 @@
       <c r="F50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>130</v>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -3738,13 +3817,13 @@
         <v>12</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>141</v>
+        <v>213</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
@@ -3753,7 +3832,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3780,13 +3859,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
@@ -3795,7 +3874,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3819,25 +3898,25 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>132</v>
+      <c r="F53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3861,25 +3940,25 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>195</v>
+        <v>216</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>135</v>
+      <c r="F54" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3903,25 +3982,25 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>132</v>
+      <c r="F55" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3945,25 +4024,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>134</v>
+      <c r="F56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3987,25 +4066,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>132</v>
+      <c r="F57" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4029,25 +4108,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>134</v>
+      <c r="F58" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4071,25 +4150,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>132</v>
+      <c r="F59" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4113,25 +4192,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>191</v>
+        <v>64</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>134</v>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4158,13 +4237,13 @@
         <v>21</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>7</v>
@@ -4173,7 +4252,7 @@
         <v>132</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4200,22 +4279,22 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4242,13 +4321,13 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
@@ -4257,7 +4336,7 @@
         <v>132</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4284,22 +4363,22 @@
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>231</v>
+        <v>73</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4326,13 +4405,13 @@
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>232</v>
+        <v>74</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>7</v>
@@ -4341,7 +4420,7 @@
         <v>132</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4368,22 +4447,22 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>256</v>
+        <v>191</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4410,13 +4489,13 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>7</v>
@@ -4425,7 +4504,7 @@
         <v>132</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4452,22 +4531,22 @@
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4494,13 +4573,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>69</v>
+        <v>200</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -4509,7 +4588,7 @@
         <v>132</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4536,22 +4615,22 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4578,13 +4657,13 @@
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>7</v>
@@ -4593,7 +4672,7 @@
         <v>132</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4620,13 +4699,13 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>7</v>
@@ -4635,7 +4714,7 @@
         <v>132</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4662,13 +4741,13 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>69</v>
+        <v>253</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -4677,7 +4756,7 @@
         <v>132</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4704,13 +4783,13 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>69</v>
+        <v>257</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>7</v>
@@ -4719,7 +4798,7 @@
         <v>136</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4746,10 +4825,10 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>69</v>
@@ -4761,7 +4840,7 @@
         <v>132</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4788,7 +4867,7 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>69</v>
@@ -4803,7 +4882,7 @@
         <v>132</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4830,7 +4909,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>69</v>
@@ -4845,7 +4924,7 @@
         <v>132</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4872,7 +4951,7 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>69</v>
@@ -4887,7 +4966,7 @@
         <v>136</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4914,10 +4993,10 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>69</v>
@@ -4929,7 +5008,7 @@
         <v>132</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -4956,7 +5035,7 @@
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>69</v>
@@ -4971,7 +5050,7 @@
         <v>132</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -4998,7 +5077,7 @@
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>69</v>
@@ -5013,7 +5092,7 @@
         <v>132</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5040,7 +5119,7 @@
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>69</v>
@@ -5055,7 +5134,7 @@
         <v>136</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5078,26 +5157,26 @@
       <c r="Z82" s="1"/>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A83" s="3" t="s">
-        <v>115</v>
+      <c r="A83" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5120,26 +5199,26 @@
       <c r="Z83" s="1"/>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A84" s="3" t="s">
-        <v>115</v>
+      <c r="A84" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5162,26 +5241,26 @@
       <c r="Z84" s="1"/>
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A85" s="3" t="s">
-        <v>115</v>
+      <c r="A85" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>118</v>
+        <v>244</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5204,26 +5283,26 @@
       <c r="Z85" s="1"/>
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A86" s="3" t="s">
-        <v>115</v>
+      <c r="A86" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5246,26 +5325,26 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A87" s="3" t="s">
-        <v>115</v>
+      <c r="A87" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5288,13 +5367,27 @@
       <c r="Z87" s="1"/>
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -5316,13 +5409,27 @@
       <c r="Z88" s="1"/>
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="1"/>
+      <c r="A89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -5344,13 +5451,27 @@
       <c r="Z89" s="1"/>
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="1"/>
+      <c r="A90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -5372,13 +5493,27 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="1"/>
+      <c r="A91" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -5400,13 +5535,27 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="1"/>
+      <c r="A92" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -5428,13 +5577,27 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A93" s="1"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="3"/>
+      <c r="A93" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -5456,13 +5619,27 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A94" s="1"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="3"/>
+      <c r="A94" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -5484,13 +5661,27 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A95" s="1"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="3"/>
+      <c r="A95" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -5512,13 +5703,13 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A96" s="1"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5540,13 +5731,13 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A97" s="1"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -5568,13 +5759,13 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A98" s="1"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -5596,13 +5787,13 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A99" s="1"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -5624,13 +5815,13 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="1"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -5652,13 +5843,13 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="3"/>
+      <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -5680,13 +5871,13 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A102" s="3"/>
+      <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="3"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -5708,13 +5899,13 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A103" s="3"/>
+      <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="3"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -5736,13 +5927,13 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A104" s="3"/>
+      <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="3"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -5764,13 +5955,13 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="3"/>
+      <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -5793,12 +5984,12 @@
     </row>
     <row r="106" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -5821,12 +6012,12 @@
     </row>
     <row r="107" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -5849,12 +6040,12 @@
     </row>
     <row r="108" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -5876,12 +6067,12 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -5904,12 +6095,12 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -5932,12 +6123,12 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -5960,12 +6151,12 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -5988,12 +6179,12 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -31523,7 +31714,7 @@
       <c r="Y1024" s="1"/>
       <c r="Z1024" s="1"/>
     </row>
-    <row r="1025" spans="1:7" ht="15" customHeight="1" thickBot="1">
+    <row r="1025" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1025" s="1"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
@@ -31531,8 +31722,27 @@
       <c r="E1025" s="1"/>
       <c r="F1025" s="1"/>
       <c r="G1025" s="1"/>
-    </row>
-    <row r="1026" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1025" s="1"/>
+      <c r="I1025" s="1"/>
+      <c r="J1025" s="1"/>
+      <c r="K1025" s="1"/>
+      <c r="L1025" s="1"/>
+      <c r="M1025" s="1"/>
+      <c r="N1025" s="1"/>
+      <c r="O1025" s="1"/>
+      <c r="P1025" s="1"/>
+      <c r="Q1025" s="1"/>
+      <c r="R1025" s="1"/>
+      <c r="S1025" s="1"/>
+      <c r="T1025" s="1"/>
+      <c r="U1025" s="1"/>
+      <c r="V1025" s="1"/>
+      <c r="W1025" s="1"/>
+      <c r="X1025" s="1"/>
+      <c r="Y1025" s="1"/>
+      <c r="Z1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1026" s="1"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
@@ -31540,8 +31750,27 @@
       <c r="E1026" s="1"/>
       <c r="F1026" s="1"/>
       <c r="G1026" s="1"/>
-    </row>
-    <row r="1027" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1026" s="1"/>
+      <c r="I1026" s="1"/>
+      <c r="J1026" s="1"/>
+      <c r="K1026" s="1"/>
+      <c r="L1026" s="1"/>
+      <c r="M1026" s="1"/>
+      <c r="N1026" s="1"/>
+      <c r="O1026" s="1"/>
+      <c r="P1026" s="1"/>
+      <c r="Q1026" s="1"/>
+      <c r="R1026" s="1"/>
+      <c r="S1026" s="1"/>
+      <c r="T1026" s="1"/>
+      <c r="U1026" s="1"/>
+      <c r="V1026" s="1"/>
+      <c r="W1026" s="1"/>
+      <c r="X1026" s="1"/>
+      <c r="Y1026" s="1"/>
+      <c r="Z1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1027" s="1"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
@@ -31549,8 +31778,27 @@
       <c r="E1027" s="1"/>
       <c r="F1027" s="1"/>
       <c r="G1027" s="1"/>
-    </row>
-    <row r="1028" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1027" s="1"/>
+      <c r="I1027" s="1"/>
+      <c r="J1027" s="1"/>
+      <c r="K1027" s="1"/>
+      <c r="L1027" s="1"/>
+      <c r="M1027" s="1"/>
+      <c r="N1027" s="1"/>
+      <c r="O1027" s="1"/>
+      <c r="P1027" s="1"/>
+      <c r="Q1027" s="1"/>
+      <c r="R1027" s="1"/>
+      <c r="S1027" s="1"/>
+      <c r="T1027" s="1"/>
+      <c r="U1027" s="1"/>
+      <c r="V1027" s="1"/>
+      <c r="W1027" s="1"/>
+      <c r="X1027" s="1"/>
+      <c r="Y1027" s="1"/>
+      <c r="Z1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1028" s="1"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
@@ -31558,8 +31806,27 @@
       <c r="E1028" s="1"/>
       <c r="F1028" s="1"/>
       <c r="G1028" s="1"/>
-    </row>
-    <row r="1029" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1028" s="1"/>
+      <c r="I1028" s="1"/>
+      <c r="J1028" s="1"/>
+      <c r="K1028" s="1"/>
+      <c r="L1028" s="1"/>
+      <c r="M1028" s="1"/>
+      <c r="N1028" s="1"/>
+      <c r="O1028" s="1"/>
+      <c r="P1028" s="1"/>
+      <c r="Q1028" s="1"/>
+      <c r="R1028" s="1"/>
+      <c r="S1028" s="1"/>
+      <c r="T1028" s="1"/>
+      <c r="U1028" s="1"/>
+      <c r="V1028" s="1"/>
+      <c r="W1028" s="1"/>
+      <c r="X1028" s="1"/>
+      <c r="Y1028" s="1"/>
+      <c r="Z1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1029" s="1"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
@@ -31567,8 +31834,27 @@
       <c r="E1029" s="1"/>
       <c r="F1029" s="1"/>
       <c r="G1029" s="1"/>
-    </row>
-    <row r="1030" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1029" s="1"/>
+      <c r="I1029" s="1"/>
+      <c r="J1029" s="1"/>
+      <c r="K1029" s="1"/>
+      <c r="L1029" s="1"/>
+      <c r="M1029" s="1"/>
+      <c r="N1029" s="1"/>
+      <c r="O1029" s="1"/>
+      <c r="P1029" s="1"/>
+      <c r="Q1029" s="1"/>
+      <c r="R1029" s="1"/>
+      <c r="S1029" s="1"/>
+      <c r="T1029" s="1"/>
+      <c r="U1029" s="1"/>
+      <c r="V1029" s="1"/>
+      <c r="W1029" s="1"/>
+      <c r="X1029" s="1"/>
+      <c r="Y1029" s="1"/>
+      <c r="Z1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1030" s="1"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
@@ -31576,8 +31862,27 @@
       <c r="E1030" s="1"/>
       <c r="F1030" s="1"/>
       <c r="G1030" s="1"/>
-    </row>
-    <row r="1031" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1030" s="1"/>
+      <c r="I1030" s="1"/>
+      <c r="J1030" s="1"/>
+      <c r="K1030" s="1"/>
+      <c r="L1030" s="1"/>
+      <c r="M1030" s="1"/>
+      <c r="N1030" s="1"/>
+      <c r="O1030" s="1"/>
+      <c r="P1030" s="1"/>
+      <c r="Q1030" s="1"/>
+      <c r="R1030" s="1"/>
+      <c r="S1030" s="1"/>
+      <c r="T1030" s="1"/>
+      <c r="U1030" s="1"/>
+      <c r="V1030" s="1"/>
+      <c r="W1030" s="1"/>
+      <c r="X1030" s="1"/>
+      <c r="Y1030" s="1"/>
+      <c r="Z1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1031" s="1"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
@@ -31585,8 +31890,27 @@
       <c r="E1031" s="1"/>
       <c r="F1031" s="1"/>
       <c r="G1031" s="1"/>
-    </row>
-    <row r="1032" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1031" s="1"/>
+      <c r="I1031" s="1"/>
+      <c r="J1031" s="1"/>
+      <c r="K1031" s="1"/>
+      <c r="L1031" s="1"/>
+      <c r="M1031" s="1"/>
+      <c r="N1031" s="1"/>
+      <c r="O1031" s="1"/>
+      <c r="P1031" s="1"/>
+      <c r="Q1031" s="1"/>
+      <c r="R1031" s="1"/>
+      <c r="S1031" s="1"/>
+      <c r="T1031" s="1"/>
+      <c r="U1031" s="1"/>
+      <c r="V1031" s="1"/>
+      <c r="W1031" s="1"/>
+      <c r="X1031" s="1"/>
+      <c r="Y1031" s="1"/>
+      <c r="Z1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1032" s="1"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
@@ -31594,8 +31918,27 @@
       <c r="E1032" s="1"/>
       <c r="F1032" s="1"/>
       <c r="G1032" s="1"/>
-    </row>
-    <row r="1033" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1032" s="1"/>
+      <c r="I1032" s="1"/>
+      <c r="J1032" s="1"/>
+      <c r="K1032" s="1"/>
+      <c r="L1032" s="1"/>
+      <c r="M1032" s="1"/>
+      <c r="N1032" s="1"/>
+      <c r="O1032" s="1"/>
+      <c r="P1032" s="1"/>
+      <c r="Q1032" s="1"/>
+      <c r="R1032" s="1"/>
+      <c r="S1032" s="1"/>
+      <c r="T1032" s="1"/>
+      <c r="U1032" s="1"/>
+      <c r="V1032" s="1"/>
+      <c r="W1032" s="1"/>
+      <c r="X1032" s="1"/>
+      <c r="Y1032" s="1"/>
+      <c r="Z1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -31604,6 +31947,78 @@
       <c r="F1033" s="1"/>
       <c r="G1033" s="1"/>
     </row>
+    <row r="1034" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+      <c r="D1034" s="1"/>
+      <c r="E1034" s="1"/>
+      <c r="F1034" s="1"/>
+      <c r="G1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+      <c r="D1035" s="1"/>
+      <c r="E1035" s="1"/>
+      <c r="F1035" s="1"/>
+      <c r="G1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1036" s="1"/>
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
+      <c r="D1036" s="1"/>
+      <c r="E1036" s="1"/>
+      <c r="F1036" s="1"/>
+      <c r="G1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1037" s="1"/>
+      <c r="B1037" s="1"/>
+      <c r="C1037" s="1"/>
+      <c r="D1037" s="1"/>
+      <c r="E1037" s="1"/>
+      <c r="F1037" s="1"/>
+      <c r="G1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1038" s="1"/>
+      <c r="B1038" s="1"/>
+      <c r="C1038" s="1"/>
+      <c r="D1038" s="1"/>
+      <c r="E1038" s="1"/>
+      <c r="F1038" s="1"/>
+      <c r="G1038" s="1"/>
+    </row>
+    <row r="1039" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1039" s="1"/>
+      <c r="B1039" s="1"/>
+      <c r="C1039" s="1"/>
+      <c r="D1039" s="1"/>
+      <c r="E1039" s="1"/>
+      <c r="F1039" s="1"/>
+      <c r="G1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1040" s="1"/>
+      <c r="B1040" s="1"/>
+      <c r="C1040" s="1"/>
+      <c r="D1040" s="1"/>
+      <c r="E1040" s="1"/>
+      <c r="F1040" s="1"/>
+      <c r="G1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1041" s="1"/>
+      <c r="B1041" s="1"/>
+      <c r="C1041" s="1"/>
+      <c r="D1041" s="1"/>
+      <c r="E1041" s="1"/>
+      <c r="F1041" s="1"/>
+      <c r="G1041" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="274">
   <si>
     <t>任務類型</t>
   </si>
@@ -1343,10 +1343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快問快答</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>快問快答2</t>
   </si>
   <si>
@@ -1676,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1717,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1841,8 +1837,8 @@
       <c r="F4" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>266</v>
+      <c r="G4" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1871,7 +1867,7 @@
         <v>260</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>262</v>
@@ -1885,8 +1881,8 @@
       <c r="F5" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>266</v>
+      <c r="G5" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -1915,7 +1911,7 @@
         <v>260</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>262</v>
@@ -1929,8 +1925,8 @@
       <c r="F6" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>266</v>
+      <c r="G6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1959,7 +1955,7 @@
         <v>260</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>262</v>
@@ -1973,8 +1969,8 @@
       <c r="F7" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>266</v>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H7" s="1">
         <v>4</v>
@@ -2003,7 +1999,7 @@
         <v>260</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>262</v>
@@ -2017,8 +2013,8 @@
       <c r="F8" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>266</v>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -2047,7 +2043,7 @@
         <v>260</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>262</v>
@@ -2061,8 +2057,8 @@
       <c r="F9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>266</v>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2091,7 +2087,7 @@
         <v>260</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>262</v>
@@ -2105,8 +2101,8 @@
       <c r="F10" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>266</v>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -2135,7 +2131,7 @@
         <v>260</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>262</v>
@@ -2149,8 +2145,8 @@
       <c r="F11" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>266</v>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="301">
   <si>
     <t>任務類型</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>成為鑄造之神</t>
-  </si>
-  <si>
-    <t>你已成為鍛造之神</t>
   </si>
   <si>
     <t>隱藏任務</t>
@@ -520,14 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你已成為品客繽項鍊之神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已成為神龍項鍊之神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>身為品客繽項鍊之神，稀有的品客繽項鍊，你應該擁有。請將，乾淨的品客繽項鍊，交給黑風。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -732,138 +721,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>待定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個，便能展示給黑風，讓黑風看看，你成為第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>階段跳跳之神的實力。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中2個，便能展示給黑風，讓黑風看看，你成為第2階段跳跳之神的實力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中3個，便能展示給黑風，讓黑風看看，你成為第3階段跳跳之神的實力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到其中4個，便能展示給黑風，讓黑風看看，你成為第4階段跳跳之神的實力。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。目前在(待定)中，成功達標，將獲得五種不同殭屍圖騰中的一種。拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成跳跳任務其二</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1020,10 +877,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剛準備踏上盜賊之路的你，仍然身披布衣，手握水星標，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等盜賊裝備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，朝緞帶肥肥努力揮拳吧！。歷代強者都是打木樁出身的，而你打緞帶肥肥，顯然比他們更勝一籌。蒐集30個緞帶肥肥掉落的緞帶，像黑風證明你的努力！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1172,14 +1025,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擊敗月牙牛魔王及長槍牛魔王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗月光精靈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>終極任務</t>
   </si>
   <si>
@@ -1281,12 +1126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，但這樣的裝備可稱不上真正的長槍大師。
-更精良的裝備不可或缺。
-準備好6種部位的40~60等劍士裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>更強的裝備</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1299,15 +1138,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。在沙漠地區，獲得200瓶沙漠露水，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>最強之槍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全具備技術、裝備、補給的一名槍騎兵，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之槍，獲得它！成為二階段最強冒險家。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1365,6 +1196,407 @@
   </si>
   <si>
     <t>答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強之弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強之杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強之短刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強之指虎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名槍騎兵，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之槍，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格獵人，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200個紅豆刨冰，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格僧侶，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200個清晨之露，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格打手，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200瓶馴鹿奶，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名獵人，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之弓，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格獵人的你，雖然身穿品質不錯的皮甲，手持長弓，但這樣的裝備可稱不上真正的獵人宗師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等獵人裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為獵人，手持長弓，身穿皮甲，但還是要熟練自我箭術，去狩獵血腥哈維吧！。 合格的獵人都是能夠不傷害獵物的皮毛，而你要成為獵人宗師，掉落的血腥哈維的王冠遠遠不能顯示你的技術！ 。蒐集200個血腥哈維掉落的小火花羽毛，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200瓶礦泉水，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為進階魔法師，手持法杖，身穿布甲，更是要熟練各類魔法！。 合格的僧侶需要磨練高級魔法，而高級魔法往往需要媒介，你當前需要大量召回石來熟悉高階魔法！ 。蒐集100個召回石，向黑風證明你的魔法水平！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格僧侶的你，雖然身穿品質不錯的布甲，手持法杖，但這樣的裝備可稱不上真正的法術大師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等法師裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名僧侶，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之杖，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格刺客的你，雖然身穿品質不錯的皮甲，手持短刀，但這樣的裝備可稱不上真正的刺客宗師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等盜賊裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名刺客，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強短刀，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名打手，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強指虎，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗200隻黑飛龍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒐集100顆召回石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒐集血腥哈維的皮毛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為技能之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>統御所有技能的技能之神，不僅自身全能，更可以賦予他人全能。技能書是技能之神權柄的重要體現。蒐集擁有特定技能的技能書，得到其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本技能書即可篡奪技能神位！。交給黑風</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本擁有特定技能的技能書。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格打手的你，雖然身穿品質不錯的戰甲，手持指虎，但這樣的裝備可稱不上真正的拳聖宗師。
+更精良的裝備不可或缺。
+準備好7種部位的40~70等海盜裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>剛準備踏上盜賊之路的你，仍然身披布衣，手握水星標，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>種部位的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20~30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等盜賊裝備</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，但這樣的裝備可稱不上真正的長槍大師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等劍士裝備(武器只能使用雙手武器)，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成為刺客，手持短刀，身穿皮甲，但還是要熟練自我刀術。古之宗師法天地自然，去學習自然之靈、進化演變的自然刀術，觀摩飛龍之利爪！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。蒐集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個黑飛龍掉落的飛龍的指甲，向黑風證明你的技巧！</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身為合格刺客，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個黃昏之露，讓黑風看看你的專業。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒐集龍鱗龍魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！。 古之宗師法天地自然，去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！ 。蒐集5個藍色雙角龍的靈魂、5個藍色雙角龍的鱗片，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你獲得了技能神位！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為鍛造之神！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為品客繽項鍊之神！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為神龍項鍊之神！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第2階段跳跳之神的實力。</t>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第3階段跳跳之神的實力。</t>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第4階段跳跳之神的實力。</t>
+  </si>
+  <si>
+    <r>
+      <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，便能展示給黑風，讓黑風看看，你成為第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>階段跳跳之神的實力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1670,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1041"/>
+  <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1713,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1736,25 +1968,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1778,25 +2010,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1820,25 +2052,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1864,25 +2096,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -1908,25 +2140,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -1952,25 +2184,25 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="1">
         <v>4</v>
@@ -1996,25 +2228,25 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -2040,25 +2272,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2084,25 +2316,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -2128,25 +2360,25 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -2172,22 +2404,22 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -2259,22 +2491,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2301,22 +2533,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2343,22 +2575,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2385,22 +2617,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2427,22 +2659,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2469,22 +2701,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2511,22 +2743,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2553,22 +2785,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2595,22 +2827,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2637,22 +2869,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2679,22 +2911,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2721,22 +2953,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2763,22 +2995,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2844,22 +3076,22 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>153</v>
+        <v>299</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -2886,22 +3118,22 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C29" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>154</v>
+        <v>296</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -2928,22 +3160,22 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -2970,22 +3202,22 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -3012,22 +3244,22 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -3054,22 +3286,22 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>8</v>
@@ -3096,22 +3328,22 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3138,22 +3370,22 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3180,22 +3412,22 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -3222,22 +3454,22 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -3315,7 +3547,7 @@
         <v>29</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
@@ -3351,13 +3583,13 @@
         <v>23</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -3393,13 +3625,13 @@
         <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
@@ -3441,13 +3673,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>39</v>
+      <c r="F42" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
@@ -3473,26 +3705,26 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="3" t="s">
-        <v>259</v>
+      <c r="A43" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>204</v>
+        <v>281</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>205</v>
+        <v>282</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>258</v>
+      <c r="F43" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3515,26 +3747,26 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="1" t="s">
-        <v>23</v>
+      <c r="A44" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
+      <c r="F44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3561,19 +3793,19 @@
         <v>23</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>111</v>
+        <v>293</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>8</v>
@@ -3600,25 +3832,25 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>46</v>
+      <c r="F46" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3645,13 +3877,13 @@
         <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -3659,8 +3891,8 @@
       <c r="F47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>16</v>
+      <c r="G47" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3687,13 +3919,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -3729,13 +3961,13 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -3771,13 +4003,13 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -3812,14 +4044,14 @@
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>35</v>
+      <c r="B51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
@@ -3827,8 +4059,8 @@
       <c r="F51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>52</v>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -3855,13 +4087,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>7</v>
@@ -3870,7 +4102,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3897,13 +4129,13 @@
         <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -3912,7 +4144,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -3939,13 +4171,13 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>35</v>
+        <v>206</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
@@ -3954,7 +4186,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -3981,13 +4213,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
@@ -3996,7 +4228,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4023,13 +4255,13 @@
         <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
@@ -4038,7 +4270,7 @@
         <v>15</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4065,13 +4297,13 @@
         <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
@@ -4080,7 +4312,7 @@
         <v>15</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4107,13 +4339,13 @@
         <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
@@ -4122,7 +4354,7 @@
         <v>15</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4149,13 +4381,13 @@
         <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
@@ -4164,7 +4396,7 @@
         <v>15</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4191,13 +4423,13 @@
         <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>7</v>
@@ -4206,7 +4438,7 @@
         <v>15</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4230,25 +4462,25 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>132</v>
+      <c r="F61" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4275,22 +4507,22 @@
         <v>21</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4317,13 +4549,13 @@
         <v>21</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
@@ -4332,7 +4564,7 @@
         <v>132</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4359,22 +4591,22 @@
         <v>21</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4401,22 +4633,22 @@
         <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4443,22 +4675,22 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4485,22 +4717,22 @@
         <v>21</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4527,22 +4759,22 @@
         <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4569,22 +4801,22 @@
         <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4611,22 +4843,22 @@
         <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4653,22 +4885,22 @@
         <v>21</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4695,22 +4927,22 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4737,22 +4969,22 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -4779,22 +5011,22 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -4821,22 +5053,22 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>69</v>
+        <v>264</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -4863,22 +5095,22 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>69</v>
+        <v>270</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -4905,22 +5137,22 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -4947,22 +5179,22 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -4989,22 +5221,22 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>69</v>
+        <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5031,22 +5263,22 @@
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5073,22 +5305,22 @@
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D81" s="3" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5115,22 +5347,22 @@
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5157,22 +5389,22 @@
         <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>69</v>
+        <v>261</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>69</v>
+        <v>274</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5199,22 +5431,22 @@
         <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5241,22 +5473,22 @@
         <v>21</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5283,22 +5515,22 @@
         <v>21</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5325,22 +5557,22 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>69</v>
+        <v>276</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5367,22 +5599,22 @@
         <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>69</v>
+        <v>289</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>69</v>
+        <v>290</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5409,22 +5641,22 @@
         <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5451,22 +5683,22 @@
         <v>21</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5489,17 +5721,17 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A91" s="3" t="s">
-        <v>115</v>
+      <c r="A91" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>69</v>
+        <v>263</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>7</v>
@@ -5508,7 +5740,7 @@
         <v>133</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5532,25 +5764,25 @@
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5574,25 +5806,25 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5616,25 +5848,25 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5658,25 +5890,25 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5699,13 +5931,27 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="1"/>
+      <c r="A96" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -5839,13 +6085,13 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="1"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -6063,13 +6309,13 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A109" s="3"/>
+      <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -6203,12 +6449,12 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -31934,7 +32180,7 @@
       <c r="Y1032" s="1"/>
       <c r="Z1032" s="1"/>
     </row>
-    <row r="1033" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1033" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1033" s="1"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
@@ -31942,6 +32188,25 @@
       <c r="E1033" s="1"/>
       <c r="F1033" s="1"/>
       <c r="G1033" s="1"/>
+      <c r="H1033" s="1"/>
+      <c r="I1033" s="1"/>
+      <c r="J1033" s="1"/>
+      <c r="K1033" s="1"/>
+      <c r="L1033" s="1"/>
+      <c r="M1033" s="1"/>
+      <c r="N1033" s="1"/>
+      <c r="O1033" s="1"/>
+      <c r="P1033" s="1"/>
+      <c r="Q1033" s="1"/>
+      <c r="R1033" s="1"/>
+      <c r="S1033" s="1"/>
+      <c r="T1033" s="1"/>
+      <c r="U1033" s="1"/>
+      <c r="V1033" s="1"/>
+      <c r="W1033" s="1"/>
+      <c r="X1033" s="1"/>
+      <c r="Y1033" s="1"/>
+      <c r="Z1033" s="1"/>
     </row>
     <row r="1034" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1034" s="1"/>
@@ -32015,6 +32280,15 @@
       <c r="F1041" s="1"/>
       <c r="G1041" s="1"/>
     </row>
+    <row r="1042" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1042" s="1"/>
+      <c r="B1042" s="1"/>
+      <c r="C1042" s="1"/>
+      <c r="D1042" s="1"/>
+      <c r="E1042" s="1"/>
+      <c r="F1042" s="1"/>
+      <c r="G1042" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="299">
   <si>
     <t>任務類型</t>
   </si>
@@ -671,18 +671,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上6張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上7張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上8張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上9張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
     <t>支線任務</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1146,10 +1134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支線任務</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>答題任務</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1599,6 +1583,17 @@
     <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1904,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1945,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2013,13 +2008,13 @@
         <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -2052,22 +2047,22 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>44</v>
@@ -2096,22 +2091,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>44</v>
@@ -2140,22 +2135,22 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>44</v>
@@ -2184,22 +2179,22 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>44</v>
@@ -2228,22 +2223,22 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>44</v>
@@ -2272,22 +2267,22 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>44</v>
@@ -2316,22 +2311,22 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -2360,22 +2355,22 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>44</v>
@@ -2404,22 +2399,22 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -3037,19 +3032,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3075,23 +3070,23 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A28" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>141</v>
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>145</v>
+        <v>198</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -3117,23 +3112,23 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A29" s="3" t="s">
-        <v>139</v>
+      <c r="A29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -3159,23 +3154,23 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>139</v>
+      <c r="A30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>147</v>
+        <v>197</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -3201,23 +3196,23 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A31" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>152</v>
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>122</v>
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>148</v>
+        <v>287</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -3243,23 +3238,23 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="3" t="s">
-        <v>139</v>
+      <c r="A32" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>122</v>
+        <v>278</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -3286,25 +3281,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>8</v>
+        <v>193</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3327,23 +3322,23 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="3" t="s">
-        <v>139</v>
+      <c r="A34" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3369,23 +3364,23 @@
       <c r="Z34" s="1"/>
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="3" t="s">
-        <v>139</v>
+      <c r="A35" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>122</v>
+        <v>67</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3411,23 +3406,23 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>174</v>
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -3454,22 +3449,22 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -3495,23 +3490,23 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>27</v>
+      <c r="A38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
@@ -3537,23 +3532,23 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>29</v>
+      <c r="A39" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>30</v>
+        <v>292</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
@@ -3579,23 +3574,23 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
+      <c r="A40" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
@@ -3621,23 +3616,23 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
+      <c r="A41" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>30</v>
+        <v>295</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
@@ -3663,23 +3658,23 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>38</v>
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
+        <v>173</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
@@ -3705,23 +3700,23 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="1" t="s">
-        <v>23</v>
+      <c r="A43" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>282</v>
+        <v>157</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>174</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>8</v>
@@ -3748,25 +3743,25 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>244</v>
+        <v>175</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3789,23 +3784,23 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="1" t="s">
-        <v>23</v>
+      <c r="A45" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>176</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>293</v>
+        <v>170</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>8</v>
@@ -3831,23 +3826,23 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A46" s="1" t="s">
-        <v>23</v>
+      <c r="A46" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>8</v>
@@ -3883,7 +3878,7 @@
         <v>14</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>7</v>
@@ -3925,7 +3920,7 @@
         <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>7</v>
@@ -3967,7 +3962,7 @@
         <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>7</v>
@@ -4009,7 +4004,7 @@
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>7</v>
@@ -4051,7 +4046,7 @@
         <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>7</v>
@@ -4090,7 +4085,7 @@
         <v>46</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>35</v>
@@ -4132,10 +4127,10 @@
         <v>47</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>7</v>
@@ -4174,10 +4169,10 @@
         <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>7</v>
@@ -4216,7 +4211,7 @@
         <v>49</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>35</v>
@@ -4258,10 +4253,10 @@
         <v>50</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>7</v>
@@ -4303,7 +4298,7 @@
         <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>7</v>
@@ -4345,7 +4340,7 @@
         <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>136</v>
+        <v>296</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
@@ -4387,7 +4382,7 @@
         <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>7</v>
@@ -4429,7 +4424,7 @@
         <v>63</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>7</v>
@@ -4510,10 +4505,10 @@
         <v>69</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>7</v>
@@ -4552,10 +4547,10 @@
         <v>70</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>7</v>
@@ -4594,10 +4589,10 @@
         <v>71</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>7</v>
@@ -4636,10 +4631,10 @@
         <v>72</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>7</v>
@@ -4678,10 +4673,10 @@
         <v>73</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>7</v>
@@ -4720,10 +4715,10 @@
         <v>74</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>7</v>
@@ -4762,10 +4757,10 @@
         <v>75</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>7</v>
@@ -4804,10 +4799,10 @@
         <v>76</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>7</v>
@@ -4846,10 +4841,10 @@
         <v>77</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>7</v>
@@ -4888,10 +4883,10 @@
         <v>78</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>7</v>
@@ -4927,13 +4922,13 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>7</v>
@@ -4969,13 +4964,13 @@
         <v>21</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>7</v>
@@ -5011,13 +5006,13 @@
         <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>7</v>
@@ -5053,13 +5048,13 @@
         <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>7</v>
@@ -5095,13 +5090,13 @@
         <v>21</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -5137,13 +5132,13 @@
         <v>21</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>7</v>
@@ -5179,13 +5174,13 @@
         <v>21</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>7</v>
@@ -5221,13 +5216,13 @@
         <v>21</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>7</v>
@@ -5263,13 +5258,13 @@
         <v>21</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>7</v>
@@ -5305,13 +5300,13 @@
         <v>21</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>7</v>
@@ -5347,13 +5342,13 @@
         <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>7</v>
@@ -5389,13 +5384,13 @@
         <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>7</v>
@@ -5431,13 +5426,13 @@
         <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>7</v>
@@ -5473,13 +5468,13 @@
         <v>21</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>7</v>
@@ -5515,13 +5510,13 @@
         <v>21</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>7</v>
@@ -5557,13 +5552,13 @@
         <v>21</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>7</v>
@@ -5599,13 +5594,13 @@
         <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>7</v>
@@ -5641,13 +5636,13 @@
         <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>7</v>
@@ -5683,13 +5678,13 @@
         <v>21</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>241</v>
-      </c>
       <c r="D90" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>7</v>
@@ -5725,13 +5720,13 @@
         <v>21</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>7</v>
@@ -5773,7 +5768,7 @@
         <v>68</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>7</v>
@@ -5815,7 +5810,7 @@
         <v>68</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>7</v>
@@ -5857,7 +5852,7 @@
         <v>68</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>7</v>
@@ -5899,7 +5894,7 @@
         <v>68</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>7</v>
@@ -5941,7 +5936,7 @@
         <v>68</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>7</v>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -1150,10 +1150,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>作答完畢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1495,10 +1491,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第2階段跳跳之神的實力。</t>
   </si>
   <si>
@@ -1588,6 +1580,14 @@
   </si>
   <si>
     <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰雪的認可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2058,11 +2058,11 @@
       <c r="D4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>44</v>
@@ -2094,7 +2094,7 @@
         <v>241</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>243</v>
@@ -2102,11 +2102,11 @@
       <c r="D5" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>44</v>
@@ -2138,7 +2138,7 @@
         <v>241</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>243</v>
@@ -2146,11 +2146,11 @@
       <c r="D6" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>44</v>
@@ -2182,7 +2182,7 @@
         <v>241</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>243</v>
@@ -2190,11 +2190,11 @@
       <c r="D7" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>44</v>
@@ -2226,7 +2226,7 @@
         <v>241</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>243</v>
@@ -2234,11 +2234,11 @@
       <c r="D8" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>44</v>
@@ -2270,7 +2270,7 @@
         <v>241</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>243</v>
@@ -2278,11 +2278,11 @@
       <c r="D9" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>44</v>
@@ -2314,7 +2314,7 @@
         <v>241</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>243</v>
@@ -2322,11 +2322,11 @@
       <c r="D10" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -2358,7 +2358,7 @@
         <v>241</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>243</v>
@@ -2366,11 +2366,11 @@
       <c r="D11" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>44</v>
@@ -2410,7 +2410,7 @@
       <c r="D12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -2452,7 +2452,7 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2494,8 +2494,8 @@
       <c r="D14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>122</v>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>11</v>
@@ -2536,8 +2536,8 @@
       <c r="D15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>122</v>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>11</v>
@@ -2578,8 +2578,8 @@
       <c r="D16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>122</v>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>11</v>
@@ -2620,8 +2620,8 @@
       <c r="D17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>122</v>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>11</v>
@@ -2662,8 +2662,8 @@
       <c r="D18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>122</v>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
@@ -2704,8 +2704,8 @@
       <c r="D19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>122</v>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>11</v>
@@ -2746,8 +2746,8 @@
       <c r="D20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>122</v>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>11</v>
@@ -2788,8 +2788,8 @@
       <c r="D21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>122</v>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>11</v>
@@ -2830,8 +2830,8 @@
       <c r="D22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>122</v>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>11</v>
@@ -2872,8 +2872,8 @@
       <c r="D23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>122</v>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>11</v>
@@ -2914,8 +2914,8 @@
       <c r="D24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>122</v>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -2956,8 +2956,8 @@
       <c r="D25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>122</v>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -2998,8 +2998,8 @@
       <c r="D26" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>122</v>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
@@ -3212,7 +3212,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -3242,19 +3242,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -3338,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3380,7 +3380,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3458,10 +3458,10 @@
         <v>137</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>122</v>
+        <v>292</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>141</v>
@@ -3500,10 +3500,10 @@
         <v>146</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>289</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>142</v>
@@ -3542,10 +3542,10 @@
         <v>147</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>122</v>
+        <v>290</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>143</v>
@@ -3584,10 +3584,10 @@
         <v>148</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>122</v>
+        <v>291</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>144</v>
@@ -3626,10 +3626,10 @@
         <v>149</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>122</v>
+        <v>293</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>145</v>
@@ -3670,8 +3670,8 @@
       <c r="D42" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>122</v>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>167</v>
@@ -3712,8 +3712,8 @@
       <c r="D43" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>122</v>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>168</v>
@@ -3754,8 +3754,8 @@
       <c r="D44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>122</v>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>169</v>
@@ -3796,8 +3796,8 @@
       <c r="D45" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>122</v>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>170</v>
@@ -3838,8 +3838,8 @@
       <c r="D46" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>122</v>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>171</v>
@@ -3880,7 +3880,7 @@
       <c r="D47" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
@@ -3922,7 +3922,7 @@
       <c r="D48" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -3964,7 +3964,7 @@
       <c r="D49" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4006,7 +4006,7 @@
       <c r="D50" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
@@ -4048,7 +4048,7 @@
       <c r="D51" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
@@ -4090,7 +4090,7 @@
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4132,7 +4132,7 @@
       <c r="D53" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -4174,7 +4174,7 @@
       <c r="D54" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -4216,7 +4216,7 @@
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -4258,7 +4258,7 @@
       <c r="D56" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -4298,9 +4298,9 @@
         <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E57" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -4340,9 +4340,9 @@
         <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E58" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
@@ -4382,9 +4382,9 @@
         <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -4424,9 +4424,9 @@
         <v>63</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E60" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
@@ -4468,7 +4468,7 @@
       <c r="D61" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -4510,7 +4510,7 @@
       <c r="D62" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -4552,7 +4552,7 @@
       <c r="D63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -4594,7 +4594,7 @@
       <c r="D64" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -4636,7 +4636,7 @@
       <c r="D65" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -4678,7 +4678,7 @@
       <c r="D66" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -4720,7 +4720,7 @@
       <c r="D67" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -4762,7 +4762,7 @@
       <c r="D68" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -4802,9 +4802,9 @@
         <v>179</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -4846,7 +4846,7 @@
       <c r="D70" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -4888,7 +4888,7 @@
       <c r="D71" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -4930,7 +4930,7 @@
       <c r="D72" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -4970,9 +4970,9 @@
         <v>236</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E73" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -5012,9 +5012,9 @@
         <v>237</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E74" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -5054,9 +5054,9 @@
         <v>239</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -5093,12 +5093,12 @@
         <v>219</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E76" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
@@ -5138,9 +5138,9 @@
         <v>236</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E77" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -5180,9 +5180,9 @@
         <v>237</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E78" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
@@ -5219,12 +5219,12 @@
         <v>222</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -5261,12 +5261,12 @@
         <v>223</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -5306,9 +5306,9 @@
         <v>236</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E81" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -5348,9 +5348,9 @@
         <v>237</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E82" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -5387,12 +5387,12 @@
         <v>226</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -5429,12 +5429,12 @@
         <v>227</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E84" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -5474,9 +5474,9 @@
         <v>236</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -5516,9 +5516,9 @@
         <v>237</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E86" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -5555,12 +5555,12 @@
         <v>230</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E87" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -5597,12 +5597,12 @@
         <v>231</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -5642,9 +5642,9 @@
         <v>236</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -5684,9 +5684,9 @@
         <v>237</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E90" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -5723,12 +5723,12 @@
         <v>234</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="3" t="s">
@@ -5765,12 +5765,12 @@
         <v>113</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E92" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="3" t="s">
@@ -5812,7 +5812,7 @@
       <c r="D93" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -5854,7 +5854,7 @@
       <c r="D94" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
@@ -5894,9 +5894,9 @@
         <v>68</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -5936,9 +5936,9 @@
         <v>68</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="294">
   <si>
     <t>任務類型</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>劍士轉職</t>
-  </si>
-  <si>
-    <t>擊敗蘑菇王</t>
   </si>
   <si>
     <t>系統提示(轉職序號</t>
@@ -124,9 +121,6 @@
   </si>
   <si>
     <t>你已成為忍耐之神！</t>
-  </si>
-  <si>
-    <t>擊敗藏在冰峰雪域的雪山魔女，獲得冰之淚。交給黑風證明你的能力</t>
   </si>
   <si>
     <t>你想知道莉莉安，也就是黑風妹妹為什麼哀愁。找出原因解決他，能繼承黑王國的財富！</t>
@@ -225,10 +219,6 @@
   </si>
   <si>
     <t>拳霸轉職</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗黑山老妖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -667,10 +657,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>支線任務</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -877,10 +863,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擊敗藏在天空之城的艾利杰，獲得幽靈魔法。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>香蕉之神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -890,17 +872,6 @@
   </si>
   <si>
     <t>香蕉真的很棒，好吃好玩好方便，有用又有意思。大家都要香蕉，但是楓之谷生產的香蕉非常稀少，你找的到他嗎？。找到香蕉，並且找到黑風向她證明你對香蕉的熱愛！。挖哩蕉蕉~ (吃過的我們可是不要的喔~)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。或是取得200個蘑菇芽孢。交給黑風證明你的資質</t>
-  </si>
-  <si>
-    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。或是取得200個蘑菇芽孢。交給黑風證明你的資質</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗藏在森林深處的蘑菇王，獲得蘑菇王的芽孢。或是取得200個蘑菇芽孢。交給黑風證明你的資質</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -969,30 +940,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擊敗藏在冰峰雪域的雪山魔女，獲得冰之淚。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗雪山魔女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗藏在天空之城的艾利杰，獲得幽靈魔法。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗艾利杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗雪山魔女</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗艾利杰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>擊敗30隻緞帶肥肥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1002,10 +949,6 @@
   </si>
   <si>
     <t>擊敗80隻綠水靈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗5隻菇菇寶貝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1576,14 +1519,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在死亡之林的黑山老妖，獲得墮落者的聖經，加上10張殭屍符。交給黑風證明你的強大！獲取職業最終傳承</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰雪的認可</t>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1591,7 +1527,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
+    <t>第一階段轉職試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二階段轉職試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三階段轉職試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在亡者密林的妖怪，獲得他的黑暗的聖經，加上10張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在亡者密林的妖怪，獲得他的黑暗的聖經，加上10張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在亡者密林的妖怪，獲得他的黑暗的聖經，加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊敗50隻菇菇寶貝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在天之巔的黑暗之獸，獲得幽靈魔法。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在天之巔的黑暗之獸，獲得幽靈魔法。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天分是你的朋友，缺少的只是經驗。擊敗藏在森林深處的王者，獲得他的的芽孢。或是取得300個蘑菇芽孢。交給黑風證明你的資質</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1899,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C88" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1940,7 +1947,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1963,25 +1970,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2005,25 +2012,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2047,25 +2054,25 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -2091,25 +2098,25 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -2135,25 +2142,25 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
@@ -2179,25 +2186,25 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1">
         <v>4</v>
@@ -2223,25 +2230,25 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1">
         <v>5</v>
@@ -2267,25 +2274,25 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2311,25 +2318,25 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
@@ -2355,25 +2362,25 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -2399,22 +2406,22 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -2447,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -2486,13 +2493,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
@@ -2501,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2528,13 +2535,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
@@ -2543,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2570,13 +2577,13 @@
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -2585,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2612,13 +2619,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
@@ -2627,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2654,13 +2661,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
@@ -2669,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2696,13 +2703,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
@@ -2711,7 +2718,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2738,13 +2745,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
@@ -2753,7 +2760,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2780,13 +2787,13 @@
         <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
@@ -2795,7 +2802,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2822,13 +2829,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -2837,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2864,13 +2871,13 @@
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
@@ -2879,7 +2886,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2906,13 +2913,13 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
@@ -2921,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2948,13 +2955,13 @@
         <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
@@ -2963,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2990,13 +2997,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
@@ -3005,7 +3012,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3029,22 +3036,22 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -3071,22 +3078,22 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -3113,22 +3120,22 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -3155,22 +3162,22 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -3197,22 +3204,22 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -3239,22 +3246,22 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -3281,25 +3288,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3323,22 +3330,22 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3365,22 +3372,22 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3407,22 +3414,22 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>8</v>
@@ -3449,22 +3456,22 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>8</v>
@@ -3491,22 +3498,22 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>8</v>
@@ -3533,22 +3540,22 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>8</v>
@@ -3575,22 +3582,22 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>8</v>
@@ -3617,22 +3624,22 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>8</v>
@@ -3659,22 +3666,22 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>8</v>
@@ -3701,22 +3708,22 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>8</v>
@@ -3743,22 +3750,22 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>8</v>
@@ -3785,22 +3792,22 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>8</v>
@@ -3827,22 +3834,22 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>8</v>
@@ -3874,20 +3881,20 @@
       <c r="B47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
+      <c r="C47" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3914,22 +3921,22 @@
         <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -3956,22 +3963,22 @@
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -3998,22 +4005,22 @@
         <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4040,22 +4047,22 @@
         <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4082,22 +4089,22 @@
         <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>35</v>
+        <v>282</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>292</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4124,22 +4131,22 @@
         <v>12</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>291</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4166,22 +4173,22 @@
         <v>12</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4208,22 +4215,22 @@
         <v>12</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>282</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4250,22 +4257,22 @@
         <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4292,22 +4299,22 @@
         <v>12</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4334,22 +4341,22 @@
         <v>12</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4376,22 +4383,22 @@
         <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4418,22 +4425,22 @@
         <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4460,22 +4467,22 @@
         <v>12</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4499,25 +4506,25 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4541,25 +4548,25 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4583,25 +4590,25 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4625,25 +4632,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4667,25 +4674,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4709,25 +4716,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4751,25 +4758,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4793,25 +4800,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4835,25 +4842,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4877,25 +4884,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4919,25 +4926,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -4961,25 +4968,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5003,25 +5010,25 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5045,25 +5052,25 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5087,25 +5094,25 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5129,25 +5136,25 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5171,25 +5178,25 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5213,25 +5220,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5255,25 +5262,25 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5297,25 +5304,25 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5339,25 +5346,25 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5381,25 +5388,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5423,25 +5430,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5465,25 +5472,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5507,25 +5514,25 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5549,25 +5556,25 @@
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5591,25 +5598,25 @@
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5633,25 +5640,25 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5675,25 +5682,25 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5717,25 +5724,25 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5759,25 +5766,25 @@
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5801,25 +5808,25 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5843,25 +5850,25 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C94" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5885,25 +5892,25 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5927,25 +5934,25 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="292">
   <si>
     <t>任務類型</t>
   </si>
@@ -1539,41 +1539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在亡者密林的妖怪，獲得他的黑暗的聖經，加上10張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
-  </si>
-  <si>
-    <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在亡者密林的妖怪，獲得他的黑暗的聖經，加上10張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天資聰穎的你，不必窠臼於傳統的轉職系統，你就是職業者之王。擊敗藏在亡者密林的妖怪，獲得他的黑暗的聖經，加上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>擊敗50隻菇菇寶貝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1599,6 +1564,34 @@
   </si>
   <si>
     <t>天分是你的朋友，缺少的只是經驗。擊敗藏在森林深處的王者，獲得他的的芽孢。或是取得300個蘑菇芽孢。交給黑風證明你的資質</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天資聰穎的你，不必窠臼於傳統的轉職，你是職業者之王。擊敗亡者密林的妖怪，獲得他的黑暗聖經，加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1907,7 +1900,7 @@
   <dimension ref="A1:Z1042"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3885,7 +3878,7 @@
         <v>281</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -3927,7 +3920,7 @@
         <v>281</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
@@ -3969,7 +3962,7 @@
         <v>281</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -4011,7 +4004,7 @@
         <v>281</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
@@ -4053,7 +4046,7 @@
         <v>281</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
@@ -4095,7 +4088,7 @@
         <v>282</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -4137,7 +4130,7 @@
         <v>282</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
@@ -4179,7 +4172,7 @@
         <v>282</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
@@ -4221,7 +4214,7 @@
         <v>282</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -4263,7 +4256,7 @@
         <v>282</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -4305,7 +4298,7 @@
         <v>283</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
@@ -4347,7 +4340,7 @@
         <v>283</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -4389,7 +4382,7 @@
         <v>283</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
@@ -4431,7 +4424,7 @@
         <v>283</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
@@ -4473,7 +4466,7 @@
         <v>283</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -4596,7 +4589,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>177</v>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -823,18 +823,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剛剛成為魔法師，手握長杖，身披布衣，亟需訓練的你，朝綠水靈努力揮杖吧！。歷代強者都是打木制人偶出身的，而你打綠水靈，顯然比他們更勝一籌。蒐集80顆綠水靈掉落的綠水靈珠，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為弓箭手，手握短弓，身披布衣，亟需訓練的你，朝菇菇努力射箭吧！。歷代強者都是打木制準心出身的，而你打菇菇，顯然比他們更勝一籌。蒐集50個菇菇寶貝掉落的傘，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為劍士，手握長劍，身披布衣，亟需訓練的你，朝木妖努力揮劍吧！。歷代強者都是打木樁出身的，而你打木妖，顯然比他們更勝一籌。蒐集30片黑木妖掉落的樹葉，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>剛準備踏上劍士之路的你，仍然身披布衣，手握長劍，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好7種部位的20~30等戰士裝備，向黑風展示你做足的準備</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -844,14 +832,6 @@
   </si>
   <si>
     <t>剛準備踏上魔法師之路的你，仍然身披布衣，手握長劍，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等魔法師裝備，向黑風展示你做足的準備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為盜賊，手握飛鏢，身披布衣，亟需訓練的你，朝三眼章魚努力丟標吧！。歷代強者都是丟木樁出身的，而你丟三眼章魚，顯然比他們更勝一籌。蒐集80個三眼章魚掉落的觸手，像黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，朝緞帶肥肥努力揮拳吧！。歷代強者都是打木樁出身的，而你打緞帶肥肥，顯然比他們更勝一籌。蒐集30個緞帶肥肥掉落的緞帶，像黑風證明你的努力！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -937,22 +917,6 @@
   </si>
   <si>
     <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神！自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會(或是獲得憐憫)！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗30隻緞帶肥肥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗80隻三眼章魚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗80隻綠水靈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗30隻黑木妖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1130,10 +1094,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最強之短刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>最強之指虎</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1183,16 +1143,6 @@
   </si>
   <si>
     <t>完全具備技術、裝備、補給的一名僧侶，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之杖，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱得上是個合格刺客的你，雖然身穿品質不錯的皮甲，手持短刀，但這樣的裝備可稱不上真正的刺客宗師。
-更精良的裝備不可或缺。
-準備好6種部位的40~70等盜賊裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全具備技術、裝備、補給的一名刺客，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強短刀，獲得它！成為二階段最強冒險家。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1329,56 +1279,6 @@
     <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，但這樣的裝備可稱不上真正的長槍大師。
 更精良的裝備不可或缺。
 準備好6種部位的40~70等劍士裝備(武器只能使用雙手武器)，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>成為刺客，手持短刀，身穿皮甲，但還是要熟練自我刀術。古之宗師法天地自然，去學習自然之靈、進化演變的自然刀術，觀摩飛龍之利爪！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。蒐集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個黑飛龍掉落的飛龍的指甲，向黑風證明你的技巧！</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1539,10 +1439,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>擊敗50隻菇菇寶貝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1592,6 +1488,64 @@
       </rPr>
       <t>張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為劍士，手握長劍，身披布衣，亟需訓練的你，努力揮劍吧！。歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。蒐集30片象徵努力的樹葉，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為弓箭手，手握短弓，身披布衣，亟需訓練的你，努力射箭吧！。歷代強者都是打木制準心出身的，而你顯然比他們更勝一籌。蒐集50個網孢盤菌，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練劍術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練箭術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練法術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練拳術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強之拳套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名刺客，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強拳套，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格刺客的你，雖然身穿品質不錯的皮甲，手持手裡劍，但這樣的裝備可稱不上真正的刺客宗師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等盜賊裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。古之宗師法天地自然，去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！  。蒐集200個黑飛龍掉落的飛龍的指甲，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>訓練鏢術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為魔法師，手握長杖，身披布衣，亟需訓練的你，努力訓練魔法吧！。歷代強者都是打木制人偶出身的，而你顯然比他們更勝一籌。從巨木樹林蒐集80顆綠色珍珠，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為盜賊，手握飛鏢，身披布衣，亟需訓練的你，努力丟標吧！。歷代強者都是丟木樁出身的，而你顯然比他們更勝一籌。蒐集80個極度弱化克蘇魯的觸手，像黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，努力揮拳吧！。歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。拳打白蹢，蒐集掉落的索帶，像黑風證明你的努力！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1899,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1940,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2047,22 +2001,22 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>42</v>
@@ -2091,22 +2045,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>42</v>
@@ -2135,22 +2089,22 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
@@ -2179,22 +2133,22 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
@@ -2223,22 +2177,22 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
@@ -2267,22 +2221,22 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
@@ -2311,22 +2265,22 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -2355,22 +2309,22 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -2399,22 +2353,22 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
@@ -3080,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -3164,7 +3118,7 @@
         <v>160</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
@@ -3212,7 +3166,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -3242,19 +3196,19 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -3284,13 +3238,13 @@
         <v>131</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
@@ -3299,7 +3253,7 @@
         <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3338,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3380,7 +3334,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3458,7 +3412,7 @@
         <v>133</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
@@ -3500,7 +3454,7 @@
         <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
@@ -3542,7 +3496,7 @@
         <v>143</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
@@ -3584,7 +3538,7 @@
         <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -3626,7 +3580,7 @@
         <v>145</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
@@ -3875,10 +3829,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -3917,10 +3871,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
@@ -3959,10 +3913,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -4001,10 +3955,10 @@
         <v>18</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
@@ -4043,10 +3997,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
@@ -4085,10 +4039,10 @@
         <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -4127,10 +4081,10 @@
         <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
@@ -4169,10 +4123,10 @@
         <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
@@ -4211,10 +4165,10 @@
         <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -4253,10 +4207,10 @@
         <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -4295,10 +4249,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
@@ -4337,10 +4291,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -4379,10 +4333,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
@@ -4421,10 +4375,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
@@ -4463,10 +4417,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -4505,10 +4459,10 @@
         <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>7</v>
@@ -4550,7 +4504,7 @@
         <v>175</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>7</v>
@@ -4589,10 +4543,10 @@
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>177</v>
+        <v>279</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -4634,7 +4588,7 @@
         <v>175</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>7</v>
@@ -4673,10 +4627,10 @@
         <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>7</v>
@@ -4718,7 +4672,7 @@
         <v>175</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -4757,10 +4711,10 @@
         <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>192</v>
+        <v>288</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>7</v>
@@ -4802,7 +4756,7 @@
         <v>175</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>7</v>
@@ -4841,10 +4795,10 @@
         <v>74</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
@@ -4886,7 +4840,7 @@
         <v>175</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>7</v>
@@ -4922,13 +4876,13 @@
         <v>20</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>7</v>
@@ -4964,13 +4918,13 @@
         <v>20</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
@@ -5006,13 +4960,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
@@ -5048,13 +5002,13 @@
         <v>20</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
@@ -5090,13 +5044,13 @@
         <v>20</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
@@ -5132,13 +5086,13 @@
         <v>20</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>7</v>
@@ -5174,13 +5128,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>7</v>
@@ -5216,13 +5170,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>7</v>
@@ -5258,13 +5212,13 @@
         <v>20</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>7</v>
@@ -5300,13 +5254,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>7</v>
@@ -5342,13 +5296,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>7</v>
@@ -5384,13 +5338,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
@@ -5426,13 +5380,13 @@
         <v>20</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>7</v>
@@ -5468,13 +5422,13 @@
         <v>20</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
@@ -5510,13 +5464,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>7</v>
@@ -5552,13 +5506,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>7</v>
@@ -5594,13 +5548,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
@@ -5636,13 +5590,13 @@
         <v>20</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>7</v>
@@ -5678,13 +5632,13 @@
         <v>20</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>7</v>
@@ -5720,13 +5674,13 @@
         <v>20</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
@@ -5768,7 +5722,7 @@
         <v>119</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>7</v>
@@ -5810,7 +5764,7 @@
         <v>65</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>7</v>
@@ -5852,7 +5806,7 @@
         <v>65</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
@@ -5894,7 +5848,7 @@
         <v>65</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>7</v>
@@ -5936,7 +5890,7 @@
         <v>65</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>7</v>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -1017,19 +1017,11 @@
     <t>老練打手之路4</t>
   </si>
   <si>
-    <t>擊敗200隻長槍牛魔王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>更強的裝備</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>戰鬥補給</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為槍騎兵，手持長槍，身穿鎧甲，但還是要熟練自我槍法，跟長槍大師牛魔王一決高下吧！。 合格的槍騎兵都是以強者磨練槍法的，而你面對著長槍大師，顯然距離新世代槍術大師不遠了！ 。蒐集200個長槍牛魔王掉落的牛魔王角，向黑風證明你的技巧！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1102,18 +1094,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身為合格獵人，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200個紅豆刨冰，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為合格僧侶，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200個清晨之露，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為合格打手，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200瓶馴鹿奶，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完全具備技術、裝備、補給的一名獵人，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之弓，獲得它！成為二階段最強冒險家。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1121,18 +1101,6 @@
     <t>稱得上是個合格獵人的你，雖然身穿品質不錯的皮甲，手持長弓，但這樣的裝備可稱不上真正的獵人宗師。
 更精良的裝備不可或缺。
 準備好6種部位的40~70等獵人裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為獵人，手持長弓，身穿皮甲，但還是要熟練自我箭術，去狩獵血腥哈維吧！。 合格的獵人都是能夠不傷害獵物的皮毛，而你要成為獵人宗師，掉落的血腥哈維的王冠遠遠不能顯示你的技術！ 。蒐集200個血腥哈維掉落的小火花羽毛，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200瓶礦泉水，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為進階魔法師，手持法杖，身穿布甲，更是要熟練各類魔法！。 合格的僧侶需要磨練高級魔法，而高級魔法往往需要媒介，你當前需要大量召回石來熟悉高階魔法！ 。蒐集100個召回石，向黑風證明你的魔法水平！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1147,18 +1115,6 @@
   </si>
   <si>
     <t>完全具備技術、裝備、補給的一名打手，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強指虎，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>擊敗200隻黑飛龍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒐集100顆召回石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒐集血腥哈維的皮毛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1279,42 +1235,6 @@
     <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，但這樣的裝備可稱不上真正的長槍大師。
 更精良的裝備不可或缺。
 準備好6種部位的40~70等劍士裝備(武器只能使用雙手武器)，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身為合格刺客，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個黃昏之露，讓黑風看看你的專業。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒐集龍鱗龍魂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！。 古之宗師法天地自然，去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！ 。蒐集5個藍色雙角龍的靈魂、5個藍色雙角龍的鱗片，向黑風證明你的技巧！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1529,10 +1449,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。古之宗師法天地自然，去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！  。蒐集200個黑飛龍掉落的飛龍的指甲，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>訓練鏢術</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1545,7 +1461,205 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，努力揮拳吧！。歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。拳打白蹢，蒐集掉落的索帶，像黑風證明你的努力！</t>
+    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，努力揮拳吧！。歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。拳打白蹢，蒐集30個掉落的索帶，像黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為槍術大師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為獵人宗師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟練高級魔法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>感悟自然刀術</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龍的意志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為槍騎兵，手持長槍，身穿鎧甲，但還是要熟練自我槍法，跟長槍大師一決高下吧！。 合格的槍騎兵都是以強者磨練槍法的，面對長槍大師，向槍術大師邁步！ 。搜集你斬斷的200個槍術大師的稜角，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。取得200瓶VODKA，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為獵人，手持長弓，身穿皮甲，但還是要熟練自我箭術，去狩獵吧！。 合格的獵人都是能夠不傷害獵物的皮毛，而你要成為獵人宗師，取得冒險島特有種藍紋吸蜜鸚鵡的王冠遠遠不能顯示你的技術！ 。蒐集200個冒險島特有種藍紋吸蜜鸚鵡掉落的羽毛，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格獵人，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200個ABC冰，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為進階魔法師，手持法杖，身穿布甲，更是要熟練各類魔法！。 合格的僧侶需要磨練高級魔法，而高級魔法往往需要媒介，你當前需要大量召回石來熟悉高階魔法！ 。蒐集150個召回石，向黑風證明你的魔法水平！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。古之宗師法天地自然，去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！。蒐集200個龍的銳意，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身為合格刺客，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個萬葉集之美，讓黑風看看你的專業。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身為合格僧侶，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個黃藥師獨門靈丹，讓黑風看看你的專業。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格打手，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200瓶魯道夫之奶，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>古之宗師法天地自然，去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。蒐集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個藍色雙角龍的靈魂、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個藍色雙角龍的鱗片，向黑風證明你的技巧！</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1853,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1894,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2001,22 +2115,22 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>42</v>
@@ -2045,22 +2159,22 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>42</v>
@@ -2089,22 +2203,22 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
@@ -2133,22 +2247,22 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>42</v>
@@ -2177,22 +2291,22 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
@@ -2221,22 +2335,22 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>42</v>
@@ -2265,22 +2379,22 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -2309,22 +2423,22 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>42</v>
@@ -3166,7 +3280,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -3196,19 +3310,19 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>8</v>
@@ -3253,7 +3367,7 @@
         <v>41</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3292,7 +3406,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>8</v>
@@ -3334,7 +3448,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>8</v>
@@ -3412,7 +3526,7 @@
         <v>133</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
@@ -3454,7 +3568,7 @@
         <v>142</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
@@ -3496,7 +3610,7 @@
         <v>143</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
@@ -3538,7 +3652,7 @@
         <v>144</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -3580,7 +3694,7 @@
         <v>145</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
@@ -3829,10 +3943,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
@@ -3871,10 +3985,10 @@
         <v>16</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
@@ -3913,10 +4027,10 @@
         <v>17</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -3955,10 +4069,10 @@
         <v>18</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
@@ -3997,10 +4111,10 @@
         <v>19</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
@@ -4039,10 +4153,10 @@
         <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -4081,10 +4195,10 @@
         <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
@@ -4123,10 +4237,10 @@
         <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
@@ -4165,10 +4279,10 @@
         <v>47</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -4207,10 +4321,10 @@
         <v>48</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>7</v>
@@ -4249,10 +4363,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
@@ -4291,10 +4405,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -4333,10 +4447,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>7</v>
@@ -4375,10 +4489,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>7</v>
@@ -4417,10 +4531,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -4459,10 +4573,10 @@
         <v>66</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>7</v>
@@ -4543,10 +4657,10 @@
         <v>68</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -4627,10 +4741,10 @@
         <v>70</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>7</v>
@@ -4711,10 +4825,10 @@
         <v>72</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>7</v>
@@ -4756,7 +4870,7 @@
         <v>175</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>7</v>
@@ -4795,10 +4909,10 @@
         <v>74</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
@@ -4879,10 +4993,10 @@
         <v>191</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>7</v>
@@ -4921,10 +5035,10 @@
         <v>192</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
@@ -4963,10 +5077,10 @@
         <v>193</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>7</v>
@@ -5005,10 +5119,10 @@
         <v>194</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>7</v>
@@ -5047,10 +5161,10 @@
         <v>195</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
@@ -5089,10 +5203,10 @@
         <v>196</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>7</v>
@@ -5131,10 +5245,10 @@
         <v>197</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>7</v>
@@ -5173,10 +5287,10 @@
         <v>198</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>7</v>
@@ -5215,10 +5329,10 @@
         <v>199</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>7</v>
@@ -5257,10 +5371,10 @@
         <v>200</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>7</v>
@@ -5299,10 +5413,10 @@
         <v>201</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>7</v>
@@ -5341,10 +5455,10 @@
         <v>202</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>7</v>
@@ -5383,7 +5497,7 @@
         <v>203</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>287</v>
@@ -5425,10 +5539,10 @@
         <v>204</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
@@ -5467,10 +5581,10 @@
         <v>205</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>7</v>
@@ -5509,10 +5623,10 @@
         <v>206</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>7</v>
@@ -5551,10 +5665,10 @@
         <v>207</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
@@ -5593,10 +5707,10 @@
         <v>208</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>7</v>
@@ -5635,10 +5749,10 @@
         <v>209</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>7</v>
@@ -5677,10 +5791,10 @@
         <v>210</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
@@ -5722,7 +5836,7 @@
         <v>119</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>7</v>
@@ -5848,7 +5962,7 @@
         <v>65</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>7</v>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -1967,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1042"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="292">
-  <si>
-    <t>任務類型</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="327">
   <si>
     <t>任務名稱</t>
   </si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>成為速度之神</t>
-  </si>
-  <si>
-    <t>速度之神的神位出現了，與其神位名稱相同，速度的權柄稍縱即逝。盡快取得速度藥水，並且找到黑風向她證明你的速度！</t>
   </si>
   <si>
     <t>你已成為速度之神！</t>
@@ -715,10 +709,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>時尚之神出現了！時尚之神降臨人間，他只喜歡與自己相同的，又或是讓他徹底三官崩壞的造型。黑風將會在群組爆照，想辦法長得跟黑風一樣，或是放飛自我，讓他看看你的美感，時尚之神就有可能將你收為隨從！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>時尚之神的奴僕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1042,10 +1032,6 @@
   </si>
   <si>
     <t>現在開始快問快答！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1662,6 +1648,353 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>任務類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神出現了！
+時尚之神降臨人間，他只喜歡與自己相同的，又或是讓他徹底三官崩壞的造型。
+黑風將會在群組爆照，想辦法長得跟黑風一樣，或是放飛自我，讓他看看你的美感，時尚之神就有可能將你收為隨從！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度之神的神位出現了！
+與其神位名稱相同，速度的權柄稍縱即逝。
+盡快取得速度藥水，並且找到黑風向她證明你的速度！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 自由轉職功能需要（ ）X3000，黃金豬豬X（ ），（ ）X10，（ ）X30？
+ A 火焰羽毛，1500，10週年紀念幣，絕對味覺幣
+ B 羽毛，1500，絕對味覺幣，10週年紀念幣
+ C 火焰羽毛，1000，10週年紀念幣，絕對味覺幣
+ D 火焰羽毛，1000，絕對味覺幣，10週年紀念幣
+ E 羽毛，1000，10週年紀念幣，絕對味覺幣
+ F 火焰羽毛，1500，10週年紀念幣，絕對味覺幣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 下列物品中不屬於在線700分鐘獎勵的是（ ）。
+A 選擇型原初徽章交換券X2
+B 絕對味覺幣X1
+C 突破百萬之石X1
+D 太初精髓X10
+E 大冒險幣X20
+F 國慶紀念幣X8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快問快答9</t>
+  </si>
+  <si>
+    <t>快問快答10</t>
+  </si>
+  <si>
+    <t>快問快答11</t>
+  </si>
+  <si>
+    <t>快問快答12</t>
+  </si>
+  <si>
+    <t>快問快答13</t>
+  </si>
+  <si>
+    <t>快問快答14</t>
+  </si>
+  <si>
+    <t>快問快答15</t>
+  </si>
+  <si>
+    <t>3. 下列不是躲猫猫的地圖是（ ）。
+A 林中之城
+B 魔法師協會
+C 彩雲公園V
+D 動物園
+E 赫麗奧斯塔圖書館
+F 白色之矛1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 貝勒德高级卷轴所有属性+（ ），物魔攻+（ ），成功率（ ）。
+A 3，3，100%
+B 3，4，60%
+C 4，4，60%
+D 4，5，50%
+E 5，5，100%
+F 5，6，50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 以下道具要求等级和攻击力正確的是（ ）
+A 回旋镖，10，+15
+B 鋼鐵子彈，100，+22
+C 雪花镖，15，+21
+D 楓葉镖，10，+25
+E 平衡之怒，70，+30
+F 無限飛镖，50，+27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 下列怪物中级别最高的是（ ）。
+A 綠蘑菇
+B 花蘑菇
+C 藍水靈
+D 刺蘑菇
+E 三眼章鱼
+F 斧木妖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 下列職業的戰地角色卡中不能增加力量属性的是（）
+A 英雄
+B 影魂異人
+C 黑風騎士
+D 阿戴爾
+E 奇襲者
+F 聖騎士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 雪花幣不可以兌換的道具是（ ）。
+A 傳說黑龍指環
+B 10周年紀念幣
+C 突破百万之石
+D 涅槃火焰160级
+E 复仇女神的水
+F 150级武器箱子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 制作法芙娜武器需要（ ）火焰羽毛，（ ）雪花币（ ）絕對味覺幣。
+A 5000，2000，15
+B 5000，3000，15
+C 6000，4000，20
+D 6000，2000，20
+E 4000，3000，30
+F 4000，4000，30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 奇怪的狐狸面具全属性+（ ）物魔双攻+（ ）。
+A 15，15
+B 15，20
+C 20，15
+D 20，20
+E 25，20
+F 25，15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 橘子楓之谷最强的黑騎士是（）？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑風;黑大王;小黑;天下第一槍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C;c;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B;b;2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F;f;6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C;c;3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F;f;6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E;e;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B;b;2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E;e;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D;d;4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,1;+30,+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>165W;165w;165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1650000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%;5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1W,5000W;1w,5000w;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>萬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;10000;50000000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 無損高级装备强化卷轴11以上的成功率为（）
+（只需輸入數值）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 水晶楓葉徽章每天可以領取（）抵用券（）冒險幣
+（只需輸入數值並以"半形,"分隔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 分解10件暴君和5件法芙娜武器可以獲得多少點券（）。
+（只需輸入數值）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 寵物飢餓時投餵寵物食品，可以增加飽滿感（）好感度（）。
+（只需輸入數值並以"半形,"分隔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1739,7 +2072,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1748,6 +2081,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1965,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1042"/>
+  <dimension ref="A1:Z1049"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1986,29 +2325,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2031,25 +2370,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2073,25 +2412,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2115,28 +2454,28 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2159,28 +2498,28 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2203,28 +2542,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2247,28 +2586,28 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2291,28 +2630,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>315</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2335,28 +2674,28 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>314</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2379,28 +2718,28 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2423,28 +2762,28 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2466,28 +2805,30 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>189</v>
+      <c r="A12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2508,28 +2849,30 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
+      <c r="A13" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2550,28 +2893,30 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
+      <c r="A14" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2592,28 +2937,30 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
+      <c r="A15" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>325</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2634,28 +2981,30 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
+      <c r="A16" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>297</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2676,28 +3025,30 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
+      <c r="A17" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2718,28 +3069,30 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
+      <c r="A18" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>309</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2761,25 +3114,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>183</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -2803,25 +3156,25 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>119</v>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2845,25 +3198,25 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2887,25 +3240,25 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2929,25 +3282,25 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2971,25 +3324,25 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3013,25 +3366,25 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3055,25 +3408,25 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3097,25 +3450,25 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3139,25 +3492,25 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3181,25 +3534,25 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3223,25 +3576,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3265,25 +3618,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3307,25 +3660,25 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>239</v>
+        <v>117</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3348,26 +3701,26 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="3" t="s">
-        <v>131</v>
+      <c r="A33" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>182</v>
+        <v>117</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3391,25 +3744,25 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>106</v>
+      <c r="C34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3433,25 +3786,25 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3475,25 +3828,25 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3516,26 +3869,26 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="3" t="s">
-        <v>131</v>
+      <c r="A37" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -3558,26 +3911,26 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A38" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>142</v>
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -3600,26 +3953,26 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A39" s="3" t="s">
-        <v>131</v>
+      <c r="A39" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -3643,25 +3996,25 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3684,26 +4037,26 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>131</v>
+      <c r="A41" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3726,26 +4079,26 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="3" t="s">
-        <v>131</v>
+      <c r="A42" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3768,26 +4121,26 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>170</v>
+      <c r="A43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3811,25 +4164,25 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3853,25 +4206,25 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3895,25 +4248,25 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>173</v>
+        <v>244</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -3936,26 +4289,26 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
+      <c r="A47" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -3978,26 +4331,26 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>16</v>
+      <c r="A48" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -4020,26 +4373,26 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
+      <c r="A49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -4062,26 +4415,26 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>18</v>
+      <c r="A50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4104,26 +4457,26 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>19</v>
+      <c r="A51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>254</v>
+        <v>165</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4146,26 +4499,26 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
+      <c r="A52" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4188,26 +4541,26 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="1" t="s">
-        <v>12</v>
+      <c r="A53" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>260</v>
+        <v>170</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4231,25 +4584,25 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4273,25 +4626,25 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>258</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4315,25 +4668,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4357,25 +4710,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4399,25 +4752,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4441,25 +4794,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4483,25 +4836,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4525,25 +4878,25 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4567,25 +4920,25 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4609,25 +4962,25 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -4651,25 +5004,25 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -4693,25 +5046,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>128</v>
+        <v>6</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -4735,25 +5088,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -4777,25 +5130,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>128</v>
+        <v>6</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -4819,25 +5172,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -4861,25 +5214,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -4903,25 +5256,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -4945,25 +5298,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -4987,25 +5340,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5029,25 +5382,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5071,25 +5424,25 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5113,25 +5466,25 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5155,25 +5508,25 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5197,25 +5550,25 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5239,25 +5592,25 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>285</v>
+        <v>176</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>126</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5281,25 +5634,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5323,25 +5676,25 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5365,25 +5718,25 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>234</v>
+        <v>279</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5407,25 +5760,25 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5449,25 +5802,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5491,25 +5844,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5533,25 +5886,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5575,25 +5928,25 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5617,25 +5970,25 @@
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -5659,25 +6012,25 @@
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>281</v>
+        <v>208</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -5701,25 +6054,25 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -5743,25 +6096,25 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -5785,25 +6138,25 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A91" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -5826,26 +6179,26 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A92" s="3" t="s">
-        <v>109</v>
+      <c r="A92" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -5868,26 +6221,26 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A93" s="3" t="s">
-        <v>109</v>
+      <c r="A93" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>180</v>
+        <v>284</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -5910,26 +6263,26 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A94" s="3" t="s">
-        <v>109</v>
+      <c r="A94" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -5952,26 +6305,26 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A95" s="3" t="s">
-        <v>109</v>
+      <c r="A95" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -5994,26 +6347,26 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A96" s="3" t="s">
-        <v>109</v>
+      <c r="A96" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6036,13 +6389,27 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="1"/>
+      <c r="A97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -6064,13 +6431,27 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="1"/>
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -6092,13 +6473,27 @@
       <c r="Z98" s="1"/>
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="1"/>
+      <c r="A99" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -6120,13 +6515,27 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="1"/>
+      <c r="A100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -6148,13 +6557,27 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="1"/>
+      <c r="A101" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -6176,13 +6599,27 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A102" s="1"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="3"/>
+      <c r="A102" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -6204,13 +6641,27 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A103" s="1"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="3"/>
+      <c r="A103" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -6232,13 +6683,13 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A104" s="1"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -6260,13 +6711,13 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="1"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -6288,13 +6739,13 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A106" s="1"/>
+      <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -6316,13 +6767,13 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A107" s="1"/>
+      <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -6344,13 +6795,13 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A108" s="1"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -6400,13 +6851,13 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A110" s="3"/>
+      <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -6428,13 +6879,13 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A111" s="3"/>
+      <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="3"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -6456,13 +6907,13 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A112" s="3"/>
+      <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="3"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -6484,13 +6935,13 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A113" s="3"/>
+      <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -6512,13 +6963,13 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A114" s="3"/>
+      <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -6541,12 +6992,12 @@
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -6569,12 +7020,12 @@
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -6596,12 +7047,12 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -6624,12 +7075,12 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -6652,12 +7103,12 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -6680,12 +7131,12 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -6708,12 +7159,12 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -32271,7 +32722,7 @@
       <c r="Y1033" s="1"/>
       <c r="Z1033" s="1"/>
     </row>
-    <row r="1034" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1034" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1034" s="1"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
@@ -32279,8 +32730,27 @@
       <c r="E1034" s="1"/>
       <c r="F1034" s="1"/>
       <c r="G1034" s="1"/>
-    </row>
-    <row r="1035" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1034" s="1"/>
+      <c r="I1034" s="1"/>
+      <c r="J1034" s="1"/>
+      <c r="K1034" s="1"/>
+      <c r="L1034" s="1"/>
+      <c r="M1034" s="1"/>
+      <c r="N1034" s="1"/>
+      <c r="O1034" s="1"/>
+      <c r="P1034" s="1"/>
+      <c r="Q1034" s="1"/>
+      <c r="R1034" s="1"/>
+      <c r="S1034" s="1"/>
+      <c r="T1034" s="1"/>
+      <c r="U1034" s="1"/>
+      <c r="V1034" s="1"/>
+      <c r="W1034" s="1"/>
+      <c r="X1034" s="1"/>
+      <c r="Y1034" s="1"/>
+      <c r="Z1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1035" s="1"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
@@ -32288,8 +32758,27 @@
       <c r="E1035" s="1"/>
       <c r="F1035" s="1"/>
       <c r="G1035" s="1"/>
-    </row>
-    <row r="1036" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1035" s="1"/>
+      <c r="I1035" s="1"/>
+      <c r="J1035" s="1"/>
+      <c r="K1035" s="1"/>
+      <c r="L1035" s="1"/>
+      <c r="M1035" s="1"/>
+      <c r="N1035" s="1"/>
+      <c r="O1035" s="1"/>
+      <c r="P1035" s="1"/>
+      <c r="Q1035" s="1"/>
+      <c r="R1035" s="1"/>
+      <c r="S1035" s="1"/>
+      <c r="T1035" s="1"/>
+      <c r="U1035" s="1"/>
+      <c r="V1035" s="1"/>
+      <c r="W1035" s="1"/>
+      <c r="X1035" s="1"/>
+      <c r="Y1035" s="1"/>
+      <c r="Z1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1036" s="1"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
@@ -32297,8 +32786,27 @@
       <c r="E1036" s="1"/>
       <c r="F1036" s="1"/>
       <c r="G1036" s="1"/>
-    </row>
-    <row r="1037" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1036" s="1"/>
+      <c r="I1036" s="1"/>
+      <c r="J1036" s="1"/>
+      <c r="K1036" s="1"/>
+      <c r="L1036" s="1"/>
+      <c r="M1036" s="1"/>
+      <c r="N1036" s="1"/>
+      <c r="O1036" s="1"/>
+      <c r="P1036" s="1"/>
+      <c r="Q1036" s="1"/>
+      <c r="R1036" s="1"/>
+      <c r="S1036" s="1"/>
+      <c r="T1036" s="1"/>
+      <c r="U1036" s="1"/>
+      <c r="V1036" s="1"/>
+      <c r="W1036" s="1"/>
+      <c r="X1036" s="1"/>
+      <c r="Y1036" s="1"/>
+      <c r="Z1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -32306,8 +32814,27 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
       <c r="G1037" s="1"/>
-    </row>
-    <row r="1038" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1037" s="1"/>
+      <c r="I1037" s="1"/>
+      <c r="J1037" s="1"/>
+      <c r="K1037" s="1"/>
+      <c r="L1037" s="1"/>
+      <c r="M1037" s="1"/>
+      <c r="N1037" s="1"/>
+      <c r="O1037" s="1"/>
+      <c r="P1037" s="1"/>
+      <c r="Q1037" s="1"/>
+      <c r="R1037" s="1"/>
+      <c r="S1037" s="1"/>
+      <c r="T1037" s="1"/>
+      <c r="U1037" s="1"/>
+      <c r="V1037" s="1"/>
+      <c r="W1037" s="1"/>
+      <c r="X1037" s="1"/>
+      <c r="Y1037" s="1"/>
+      <c r="Z1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -32315,8 +32842,27 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
       <c r="G1038" s="1"/>
-    </row>
-    <row r="1039" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1038" s="1"/>
+      <c r="I1038" s="1"/>
+      <c r="J1038" s="1"/>
+      <c r="K1038" s="1"/>
+      <c r="L1038" s="1"/>
+      <c r="M1038" s="1"/>
+      <c r="N1038" s="1"/>
+      <c r="O1038" s="1"/>
+      <c r="P1038" s="1"/>
+      <c r="Q1038" s="1"/>
+      <c r="R1038" s="1"/>
+      <c r="S1038" s="1"/>
+      <c r="T1038" s="1"/>
+      <c r="U1038" s="1"/>
+      <c r="V1038" s="1"/>
+      <c r="W1038" s="1"/>
+      <c r="X1038" s="1"/>
+      <c r="Y1038" s="1"/>
+      <c r="Z1038" s="1"/>
+    </row>
+    <row r="1039" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -32324,8 +32870,27 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
       <c r="G1039" s="1"/>
-    </row>
-    <row r="1040" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1039" s="1"/>
+      <c r="I1039" s="1"/>
+      <c r="J1039" s="1"/>
+      <c r="K1039" s="1"/>
+      <c r="L1039" s="1"/>
+      <c r="M1039" s="1"/>
+      <c r="N1039" s="1"/>
+      <c r="O1039" s="1"/>
+      <c r="P1039" s="1"/>
+      <c r="Q1039" s="1"/>
+      <c r="R1039" s="1"/>
+      <c r="S1039" s="1"/>
+      <c r="T1039" s="1"/>
+      <c r="U1039" s="1"/>
+      <c r="V1039" s="1"/>
+      <c r="W1039" s="1"/>
+      <c r="X1039" s="1"/>
+      <c r="Y1039" s="1"/>
+      <c r="Z1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -32333,6 +32898,25 @@
       <c r="E1040" s="1"/>
       <c r="F1040" s="1"/>
       <c r="G1040" s="1"/>
+      <c r="H1040" s="1"/>
+      <c r="I1040" s="1"/>
+      <c r="J1040" s="1"/>
+      <c r="K1040" s="1"/>
+      <c r="L1040" s="1"/>
+      <c r="M1040" s="1"/>
+      <c r="N1040" s="1"/>
+      <c r="O1040" s="1"/>
+      <c r="P1040" s="1"/>
+      <c r="Q1040" s="1"/>
+      <c r="R1040" s="1"/>
+      <c r="S1040" s="1"/>
+      <c r="T1040" s="1"/>
+      <c r="U1040" s="1"/>
+      <c r="V1040" s="1"/>
+      <c r="W1040" s="1"/>
+      <c r="X1040" s="1"/>
+      <c r="Y1040" s="1"/>
+      <c r="Z1040" s="1"/>
     </row>
     <row r="1041" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A1041" s="1"/>
@@ -32352,6 +32936,69 @@
       <c r="F1042" s="1"/>
       <c r="G1042" s="1"/>
     </row>
+    <row r="1043" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1043" s="1"/>
+      <c r="B1043" s="1"/>
+      <c r="C1043" s="1"/>
+      <c r="D1043" s="1"/>
+      <c r="E1043" s="1"/>
+      <c r="F1043" s="1"/>
+      <c r="G1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1044" s="1"/>
+      <c r="B1044" s="1"/>
+      <c r="C1044" s="1"/>
+      <c r="D1044" s="1"/>
+      <c r="E1044" s="1"/>
+      <c r="F1044" s="1"/>
+      <c r="G1044" s="1"/>
+    </row>
+    <row r="1045" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1045" s="1"/>
+      <c r="B1045" s="1"/>
+      <c r="C1045" s="1"/>
+      <c r="D1045" s="1"/>
+      <c r="E1045" s="1"/>
+      <c r="F1045" s="1"/>
+      <c r="G1045" s="1"/>
+    </row>
+    <row r="1046" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1046" s="1"/>
+      <c r="B1046" s="1"/>
+      <c r="C1046" s="1"/>
+      <c r="D1046" s="1"/>
+      <c r="E1046" s="1"/>
+      <c r="F1046" s="1"/>
+      <c r="G1046" s="1"/>
+    </row>
+    <row r="1047" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1047" s="1"/>
+      <c r="B1047" s="1"/>
+      <c r="C1047" s="1"/>
+      <c r="D1047" s="1"/>
+      <c r="E1047" s="1"/>
+      <c r="F1047" s="1"/>
+      <c r="G1047" s="1"/>
+    </row>
+    <row r="1048" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1048" s="1"/>
+      <c r="B1048" s="1"/>
+      <c r="C1048" s="1"/>
+      <c r="D1048" s="1"/>
+      <c r="E1048" s="1"/>
+      <c r="F1048" s="1"/>
+      <c r="G1048" s="1"/>
+    </row>
+    <row r="1049" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1049" s="1"/>
+      <c r="B1049" s="1"/>
+      <c r="C1049" s="1"/>
+      <c r="D1049" s="1"/>
+      <c r="E1049" s="1"/>
+      <c r="F1049" s="1"/>
+      <c r="G1049" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="354">
   <si>
     <t>任務名稱</t>
   </si>
@@ -919,9 +919,6 @@
     <t>成為楓之谷之王</t>
   </si>
   <si>
-    <t>為了成為楓之谷之王，需要擊敗???，在???，找到???。最後將???、???、???、???、???交給黑風。完成最後的加冕儀式。</t>
-  </si>
-  <si>
     <t>你已經成為楓之谷的神了！</t>
   </si>
   <si>
@@ -1706,16 +1703,6 @@
     <t>快問快答15</t>
   </si>
   <si>
-    <t>3. 下列不是躲猫猫的地圖是（ ）。
-A 林中之城
-B 魔法師協會
-C 彩雲公園V
-D 動物園
-E 赫麗奧斯塔圖書館
-F 白色之矛1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 貝勒德高级卷轴所有属性+（ ），物魔攻+（ ），成功率（ ）。
 A 3，3，100%
 B 3，4，60%
@@ -1993,6 +1980,328 @@
   <si>
     <t>11. 寵物飢餓時投餵寵物食品，可以增加飽滿感（）好感度（）。
 （只需輸入數值並以"半形,"分隔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下列不是躲猫猫的地圖是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">林中之城
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">魔法師協會
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>彩雲公園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">V
+D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">動物園
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">赫麗奧斯塔圖書館
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白色之矛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無信仰者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消滅地獄邊緣的徘徊者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抑制慾望的面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消滅慾望的受控制者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邁入第三重磨難。
+地獄的主人已經發現你的到來了，清除祂的守衛。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥府之門的守衛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戰勝面前的守衛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普魯托斯的罪人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>度化貪念的罪人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨過冥府守衛，繼續淨化這處罪孽。
+受刑於此之人，為揮霍與吝嗇所苦，背負這份慾念受難。
+解放這裡的罪人，他們的悔悟為你的王冠增添更複雜的色彩。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>憤怒之城</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平息那份憤怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>來到第五層的悔恨之河。
+城牆上的憤怒使他們眼中冒著光。
+使他們重歸寧靜，他們的答謝讓你的王座多了份重量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狄斯之城的受刑人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>終結理念而生的暴力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>來到第六層的狄斯之城。
+手裡握著教中重器，身上因為酷刑而變了色。
+使他們重歸故土，他們的安息讓你的王國多了片土地。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林中的施刑官</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收去這一份為暴力而生的權責</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>來到第七層。
+殺掉第二圈的處刑官，收回這一份權柄。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>獻詐者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打壓卑劣的獻詐者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>來到馬勒博爾格。
+這些卑劣者身著盔甲，為自己的內心上了層防護。
+打破他們的虛假，他們的真誠為你的王民多了份意志。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除鏡中的刺客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安忒諾耳界</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>進入第二層苦難。
+這裡的人們為慾望所擺布，隨之起舞，不得寧靜之日，此樂非彼之樂乎？
+讓他們不再為慾望起念，他們的感謝能使你的王國上下一心。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛接觸世界真相，身處關鍵的轉捩點。
+地獄的邊緣徘徊著靈，他們無希望亦無絕望、寡歡亦無痛苦。
+給予他們所求，他們的回報能使你王冠附上一份靈魂。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>來到安忒諾耳界。
+這些刺客帶著項圈，為自己的主人執行意志。
+消滅他們，他們的消失為你的王城多了份安穩。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>為了成為楓之谷之王，你踏過山河，從山巔俯瞰雲海！你踏過幽都，遍歷靈魂與軼事！
+如今手握九樣國之重器。
+1. 王國土地 2.王國守衛 3.王國重量
+4. 王國權柄 5.王國同心 6.王國意志
+7. 王國靈魂 8.王國色彩 9.王國安穩
+請將國之重器按照上述排列，找到黑風，完成儀式，開啟最終 神之試煉！！
+完成試煉後，再找到黑風，即可完成任務。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2304,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1049"/>
+  <dimension ref="A1:Z1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2326,7 +2635,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2347,7 +2656,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2379,7 +2688,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -2421,7 +2730,7 @@
         <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -2454,28 +2763,28 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2498,28 +2807,28 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2542,28 +2851,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2586,28 +2895,28 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2630,28 +2939,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2674,28 +2983,28 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -2718,28 +3027,28 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -2762,28 +3071,28 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2806,28 +3115,28 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2850,28 +3159,28 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2894,28 +3203,28 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2938,28 +3247,28 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2982,28 +3291,28 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3026,28 +3335,28 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3070,28 +3379,28 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3123,13 +3432,13 @@
         <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>353</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -3201,13 +3510,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -3243,13 +3552,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>117</v>
+        <v>329</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -3285,13 +3594,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>330</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -3327,13 +3636,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>117</v>
+        <v>334</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -3369,13 +3678,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>117</v>
+        <v>337</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -3411,13 +3720,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>117</v>
+        <v>341</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -3453,13 +3762,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>117</v>
+        <v>342</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
@@ -3495,13 +3804,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>117</v>
+        <v>345</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>117</v>
+        <v>346</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>117</v>
+        <v>347</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
@@ -3537,13 +3846,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>117</v>
+        <v>349</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>117</v>
+        <v>348</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>117</v>
+        <v>352</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -3576,25 +3885,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>117</v>
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3618,25 +3927,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>117</v>
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>118</v>
+        <v>28</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3660,25 +3969,25 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>118</v>
+        <v>25</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3702,25 +4011,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>118</v>
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3747,19 +4056,19 @@
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>25</v>
+      <c r="F34" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>7</v>
@@ -3788,20 +4097,20 @@
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>27</v>
+      <c r="B35" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>28</v>
+      <c r="F35" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>7</v>
@@ -3827,26 +4136,26 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
+      <c r="A36" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3873,19 +4182,19 @@
         <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>28</v>
+      <c r="F37" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>7</v>
@@ -3914,20 +4223,20 @@
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>7</v>
@@ -3956,20 +4265,20 @@
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>235</v>
+      <c r="B39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>239</v>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -3999,22 +4308,22 @@
         <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>211</v>
+      <c r="F40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -4037,23 +4346,23 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A41" s="1" t="s">
-        <v>21</v>
+      <c r="A41" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>7</v>
@@ -4079,23 +4388,23 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>21</v>
+      <c r="A42" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>242</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>7</v>
@@ -4121,23 +4430,23 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>31</v>
+      <c r="A43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
+      <c r="F43" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>7</v>
@@ -4167,10 +4476,10 @@
         <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>246</v>
@@ -4179,7 +4488,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>7</v>
@@ -4209,19 +4518,19 @@
         <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -4251,19 +4560,19 @@
         <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>7</v>
@@ -4293,19 +4602,19 @@
         <v>129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>7</v>
@@ -4335,19 +4644,19 @@
         <v>129</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>247</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
@@ -4377,19 +4686,19 @@
         <v>129</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>7</v>
@@ -4415,26 +4724,26 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>148</v>
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
+      <c r="F50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4457,26 +4766,26 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>158</v>
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>162</v>
+      <c r="F51" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4499,26 +4808,26 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>159</v>
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>163</v>
+      <c r="F52" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4541,26 +4850,26 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A53" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>152</v>
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>170</v>
+        <v>257</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>164</v>
+      <c r="F53" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4587,13 +4896,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4601,8 +4910,8 @@
       <c r="F54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>41</v>
+      <c r="G54" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4628,14 +4937,14 @@
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>15</v>
+      <c r="B55" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4643,8 +4952,8 @@
       <c r="F55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
+      <c r="G55" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4670,14 +4979,14 @@
       <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>16</v>
+      <c r="B56" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4685,8 +4994,8 @@
       <c r="F56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
+      <c r="G56" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4712,14 +5021,14 @@
       <c r="A57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>17</v>
+      <c r="B57" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -4727,8 +5036,8 @@
       <c r="F57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>14</v>
+      <c r="G57" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -4754,14 +5063,14 @@
       <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>18</v>
+      <c r="B58" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -4769,8 +5078,8 @@
       <c r="F58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
+      <c r="G58" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -4797,13 +5106,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -4812,7 +5121,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -4839,13 +5148,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>251</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -4854,7 +5163,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -4881,13 +5190,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>251</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -4896,7 +5205,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -4923,13 +5232,13 @@
         <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>251</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -4938,7 +5247,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -4965,13 +5274,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>251</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -4980,7 +5289,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5007,13 +5316,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5022,7 +5331,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5046,13 +5355,13 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>259</v>
@@ -5060,11 +5369,11 @@
       <c r="E65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>13</v>
+      <c r="F65" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5088,25 +5397,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>13</v>
+      <c r="F66" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5130,25 +5439,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>13</v>
+      <c r="F67" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5172,25 +5481,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>13</v>
+      <c r="F68" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5217,13 +5526,13 @@
         <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>6</v>
@@ -5232,7 +5541,7 @@
         <v>124</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5259,22 +5568,22 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5301,13 +5610,13 @@
         <v>19</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
@@ -5316,7 +5625,7 @@
         <v>124</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5343,13 +5652,13 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>6</v>
@@ -5358,7 +5667,7 @@
         <v>126</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5385,13 +5694,13 @@
         <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>264</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>6</v>
@@ -5400,7 +5709,7 @@
         <v>124</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5427,13 +5736,13 @@
         <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
@@ -5442,7 +5751,7 @@
         <v>126</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5469,13 +5778,13 @@
         <v>19</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6</v>
@@ -5484,7 +5793,7 @@
         <v>124</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5511,10 +5820,10 @@
         <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>71</v>
+        <v>188</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>237</v>
@@ -5523,10 +5832,10 @@
         <v>6</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5553,13 +5862,13 @@
         <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
@@ -5568,7 +5877,7 @@
         <v>124</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5595,22 +5904,22 @@
         <v>19</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5637,13 +5946,13 @@
         <v>19</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>273</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>6</v>
@@ -5652,7 +5961,7 @@
         <v>124</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5679,13 +5988,13 @@
         <v>19</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
@@ -5694,7 +6003,7 @@
         <v>124</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -5721,13 +6030,13 @@
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>6</v>
@@ -5736,7 +6045,7 @@
         <v>124</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -5763,10 +6072,10 @@
         <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>227</v>
@@ -5778,7 +6087,7 @@
         <v>128</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -5805,13 +6114,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>274</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
@@ -5820,7 +6129,7 @@
         <v>124</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -5847,10 +6156,10 @@
         <v>19</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>229</v>
@@ -5862,7 +6171,7 @@
         <v>124</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -5889,13 +6198,13 @@
         <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>6</v>
@@ -5904,7 +6213,7 @@
         <v>124</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -5931,13 +6240,13 @@
         <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
@@ -5946,7 +6255,7 @@
         <v>128</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -5973,7 +6282,7 @@
         <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>275</v>
@@ -5988,7 +6297,7 @@
         <v>124</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6015,13 +6324,13 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>6</v>
@@ -6030,7 +6339,7 @@
         <v>124</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6057,13 +6366,13 @@
         <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
@@ -6072,7 +6381,7 @@
         <v>124</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6099,13 +6408,13 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>6</v>
@@ -6114,7 +6423,7 @@
         <v>128</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6141,13 +6450,13 @@
         <v>19</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>276</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
@@ -6156,7 +6465,7 @@
         <v>124</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6183,13 +6492,13 @@
         <v>19</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
@@ -6198,7 +6507,7 @@
         <v>124</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6225,13 +6534,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
@@ -6240,7 +6549,7 @@
         <v>124</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6267,13 +6576,13 @@
         <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>6</v>
@@ -6282,7 +6591,7 @@
         <v>128</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6305,26 +6614,26 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A95" s="1" t="s">
-        <v>19</v>
+      <c r="A95" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>277</v>
+        <v>117</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6347,26 +6656,26 @@
       <c r="Z95" s="1"/>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A96" s="1" t="s">
-        <v>19</v>
+      <c r="A96" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6389,26 +6698,26 @@
       <c r="Z96" s="1"/>
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A97" s="1" t="s">
-        <v>19</v>
+      <c r="A97" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>286</v>
+        <v>177</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6431,26 +6740,26 @@
       <c r="Z97" s="1"/>
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A98" s="1" t="s">
-        <v>19</v>
+      <c r="A98" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6477,13 +6786,13 @@
         <v>107</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6</v>
@@ -6492,7 +6801,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6515,27 +6824,13 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -6557,27 +6852,13 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -6599,27 +6880,13 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A102" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -6641,27 +6908,13 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A103" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -6711,13 +6964,13 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="3"/>
+      <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="3"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -6739,13 +6992,13 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A106" s="3"/>
+      <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="3"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -6767,13 +7020,13 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A107" s="3"/>
+      <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="3"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -6795,13 +7048,13 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A108" s="3"/>
+      <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="3"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -6935,13 +7188,13 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A113" s="1"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -6963,13 +7216,13 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A114" s="1"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -6991,13 +7244,13 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A115" s="1"/>
+      <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -7019,13 +7272,13 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A116" s="1"/>
+      <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -7075,12 +7328,12 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -7103,12 +7356,12 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -7131,12 +7384,12 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -7159,12 +7412,12 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -32806,7 +33059,7 @@
       <c r="Y1036" s="1"/>
       <c r="Z1036" s="1"/>
     </row>
-    <row r="1037" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    <row r="1037" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -32814,27 +33067,8 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
       <c r="G1037" s="1"/>
-      <c r="H1037" s="1"/>
-      <c r="I1037" s="1"/>
-      <c r="J1037" s="1"/>
-      <c r="K1037" s="1"/>
-      <c r="L1037" s="1"/>
-      <c r="M1037" s="1"/>
-      <c r="N1037" s="1"/>
-      <c r="O1037" s="1"/>
-      <c r="P1037" s="1"/>
-      <c r="Q1037" s="1"/>
-      <c r="R1037" s="1"/>
-      <c r="S1037" s="1"/>
-      <c r="T1037" s="1"/>
-      <c r="U1037" s="1"/>
-      <c r="V1037" s="1"/>
-      <c r="W1037" s="1"/>
-      <c r="X1037" s="1"/>
-      <c r="Y1037" s="1"/>
-      <c r="Z1037" s="1"/>
-    </row>
-    <row r="1038" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1038" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -32842,27 +33076,8 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
       <c r="G1038" s="1"/>
-      <c r="H1038" s="1"/>
-      <c r="I1038" s="1"/>
-      <c r="J1038" s="1"/>
-      <c r="K1038" s="1"/>
-      <c r="L1038" s="1"/>
-      <c r="M1038" s="1"/>
-      <c r="N1038" s="1"/>
-      <c r="O1038" s="1"/>
-      <c r="P1038" s="1"/>
-      <c r="Q1038" s="1"/>
-      <c r="R1038" s="1"/>
-      <c r="S1038" s="1"/>
-      <c r="T1038" s="1"/>
-      <c r="U1038" s="1"/>
-      <c r="V1038" s="1"/>
-      <c r="W1038" s="1"/>
-      <c r="X1038" s="1"/>
-      <c r="Y1038" s="1"/>
-      <c r="Z1038" s="1"/>
-    </row>
-    <row r="1039" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1039" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -32870,27 +33085,8 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
       <c r="G1039" s="1"/>
-      <c r="H1039" s="1"/>
-      <c r="I1039" s="1"/>
-      <c r="J1039" s="1"/>
-      <c r="K1039" s="1"/>
-      <c r="L1039" s="1"/>
-      <c r="M1039" s="1"/>
-      <c r="N1039" s="1"/>
-      <c r="O1039" s="1"/>
-      <c r="P1039" s="1"/>
-      <c r="Q1039" s="1"/>
-      <c r="R1039" s="1"/>
-      <c r="S1039" s="1"/>
-      <c r="T1039" s="1"/>
-      <c r="U1039" s="1"/>
-      <c r="V1039" s="1"/>
-      <c r="W1039" s="1"/>
-      <c r="X1039" s="1"/>
-      <c r="Y1039" s="1"/>
-      <c r="Z1039" s="1"/>
-    </row>
-    <row r="1040" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+    </row>
+    <row r="1040" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -32898,25 +33094,6 @@
       <c r="E1040" s="1"/>
       <c r="F1040" s="1"/>
       <c r="G1040" s="1"/>
-      <c r="H1040" s="1"/>
-      <c r="I1040" s="1"/>
-      <c r="J1040" s="1"/>
-      <c r="K1040" s="1"/>
-      <c r="L1040" s="1"/>
-      <c r="M1040" s="1"/>
-      <c r="N1040" s="1"/>
-      <c r="O1040" s="1"/>
-      <c r="P1040" s="1"/>
-      <c r="Q1040" s="1"/>
-      <c r="R1040" s="1"/>
-      <c r="S1040" s="1"/>
-      <c r="T1040" s="1"/>
-      <c r="U1040" s="1"/>
-      <c r="V1040" s="1"/>
-      <c r="W1040" s="1"/>
-      <c r="X1040" s="1"/>
-      <c r="Y1040" s="1"/>
-      <c r="Z1040" s="1"/>
     </row>
     <row r="1041" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A1041" s="1"/>
@@ -32963,42 +33140,6 @@
       <c r="F1045" s="1"/>
       <c r="G1045" s="1"/>
     </row>
-    <row r="1046" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1046" s="1"/>
-      <c r="B1046" s="1"/>
-      <c r="C1046" s="1"/>
-      <c r="D1046" s="1"/>
-      <c r="E1046" s="1"/>
-      <c r="F1046" s="1"/>
-      <c r="G1046" s="1"/>
-    </row>
-    <row r="1047" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1047" s="1"/>
-      <c r="B1047" s="1"/>
-      <c r="C1047" s="1"/>
-      <c r="D1047" s="1"/>
-      <c r="E1047" s="1"/>
-      <c r="F1047" s="1"/>
-      <c r="G1047" s="1"/>
-    </row>
-    <row r="1048" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1048" s="1"/>
-      <c r="B1048" s="1"/>
-      <c r="C1048" s="1"/>
-      <c r="D1048" s="1"/>
-      <c r="E1048" s="1"/>
-      <c r="F1048" s="1"/>
-      <c r="G1048" s="1"/>
-    </row>
-    <row r="1049" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A1049" s="1"/>
-      <c r="B1049" s="1"/>
-      <c r="C1049" s="1"/>
-      <c r="D1049" s="1"/>
-      <c r="E1049" s="1"/>
-      <c r="F1049" s="1"/>
-      <c r="G1049" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="358">
   <si>
     <t>任務名稱</t>
   </si>
@@ -2302,6 +2302,24 @@
 7. 王國靈魂 8.王國色彩 9.王國安穩
 請將國之重器按照上述排列，找到黑風，完成儀式，開啟最終 神之試煉！！
 完成試煉後，再找到黑風，即可完成任務。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奪取自由之神的王座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由市場的頂端只能有一人屹立其上。
+他即是神，自由之神！
+向黑風了解任務目標，第一個站在自由之巔的將獲得自由權柄！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為自由之神！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2613,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1045"/>
+  <dimension ref="A1:Z1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4055,20 +4073,20 @@
       <c r="A34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
+      <c r="B34" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>59</v>
+        <v>356</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>7</v>
@@ -4097,20 +4115,20 @@
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>233</v>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>7</v>
@@ -4136,26 +4154,26 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A36" s="3" t="s">
-        <v>129</v>
+      <c r="A36" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>210</v>
+      <c r="F36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -4178,26 +4196,26 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
+      <c r="A37" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4224,19 +4242,19 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>7</v>
@@ -4265,20 +4283,20 @@
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>31</v>
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>32</v>
+      <c r="F39" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -4304,23 +4322,23 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>245</v>
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>135</v>
+      <c r="F40" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>7</v>
@@ -4350,19 +4368,19 @@
         <v>129</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>7</v>
@@ -4392,19 +4410,19 @@
         <v>129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>7</v>
@@ -4434,19 +4452,19 @@
         <v>129</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>7</v>
@@ -4476,19 +4494,19 @@
         <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>7</v>
@@ -4518,19 +4536,19 @@
         <v>129</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -4560,19 +4578,19 @@
         <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>7</v>
@@ -4602,19 +4620,19 @@
         <v>129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>7</v>
@@ -4644,19 +4662,19 @@
         <v>129</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
@@ -4686,19 +4704,19 @@
         <v>129</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>7</v>
@@ -4724,26 +4742,26 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>12</v>
+      <c r="A50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>41</v>
+      <c r="F50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4770,7 +4788,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>249</v>
@@ -4784,8 +4802,8 @@
       <c r="F51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
+      <c r="G51" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4812,7 +4830,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>249</v>
@@ -4854,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>249</v>
@@ -4896,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>249</v>
@@ -4937,14 +4955,14 @@
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>42</v>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -4952,8 +4970,8 @@
       <c r="F55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>47</v>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4980,13 +4998,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -4995,7 +5013,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5022,13 +5040,13 @@
         <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -5037,7 +5055,7 @@
         <v>13</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5064,13 +5082,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -5079,7 +5097,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5106,13 +5124,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>250</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -5121,7 +5139,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5148,13 +5166,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -5163,7 +5181,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5190,7 +5208,7 @@
         <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>251</v>
@@ -5205,7 +5223,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5232,7 +5250,7 @@
         <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>251</v>
@@ -5247,7 +5265,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5274,7 +5292,7 @@
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>251</v>
@@ -5289,7 +5307,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5316,7 +5334,7 @@
         <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>251</v>
@@ -5331,7 +5349,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5355,25 +5373,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>124</v>
+      <c r="F65" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5400,22 +5418,22 @@
         <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5442,22 +5460,22 @@
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5484,22 +5502,22 @@
         <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5526,22 +5544,22 @@
         <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5568,22 +5586,22 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5610,22 +5628,22 @@
         <v>19</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5652,22 +5670,22 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5694,22 +5712,22 @@
         <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5736,22 +5754,22 @@
         <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5778,22 +5796,22 @@
         <v>19</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5820,13 +5838,13 @@
         <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>6</v>
@@ -5835,7 +5853,7 @@
         <v>124</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5862,13 +5880,13 @@
         <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
@@ -5877,7 +5895,7 @@
         <v>124</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5904,22 +5922,22 @@
         <v>19</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5946,22 +5964,22 @@
         <v>19</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>273</v>
+        <v>209</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5988,13 +6006,13 @@
         <v>19</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
@@ -6003,7 +6021,7 @@
         <v>124</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6030,13 +6048,13 @@
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>6</v>
@@ -6045,7 +6063,7 @@
         <v>124</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6072,22 +6090,22 @@
         <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6114,22 +6132,22 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6156,13 +6174,13 @@
         <v>19</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>6</v>
@@ -6171,7 +6189,7 @@
         <v>124</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6198,13 +6216,13 @@
         <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>6</v>
@@ -6213,7 +6231,7 @@
         <v>124</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6240,22 +6258,22 @@
         <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6282,22 +6300,22 @@
         <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6324,13 +6342,13 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>207</v>
+        <v>275</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>6</v>
@@ -6339,7 +6357,7 @@
         <v>124</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6366,13 +6384,13 @@
         <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
@@ -6381,7 +6399,7 @@
         <v>124</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6408,22 +6426,22 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6450,22 +6468,22 @@
         <v>19</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6492,13 +6510,13 @@
         <v>19</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
@@ -6507,7 +6525,7 @@
         <v>124</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6534,13 +6552,13 @@
         <v>19</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
@@ -6549,7 +6567,7 @@
         <v>124</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6576,22 +6594,22 @@
         <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6614,26 +6632,26 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A95" s="3" t="s">
-        <v>107</v>
+      <c r="A95" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6660,13 +6678,13 @@
         <v>107</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
@@ -6675,7 +6693,7 @@
         <v>125</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6702,7 +6720,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>63</v>
@@ -6717,7 +6735,7 @@
         <v>125</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6744,13 +6762,13 @@
         <v>107</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>247</v>
+        <v>177</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -6759,7 +6777,7 @@
         <v>125</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6786,13 +6804,13 @@
         <v>107</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6</v>
@@ -6801,7 +6819,7 @@
         <v>125</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6824,13 +6842,27 @@
       <c r="Z99" s="1"/>
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="1"/>
+      <c r="A100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -6964,13 +6996,13 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="1"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -7188,13 +7220,13 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A113" s="3"/>
+      <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="3"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -7328,12 +7360,12 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -33059,7 +33091,7 @@
       <c r="Y1036" s="1"/>
       <c r="Z1036" s="1"/>
     </row>
-    <row r="1037" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1037" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1037" s="1"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
@@ -33067,6 +33099,25 @@
       <c r="E1037" s="1"/>
       <c r="F1037" s="1"/>
       <c r="G1037" s="1"/>
+      <c r="H1037" s="1"/>
+      <c r="I1037" s="1"/>
+      <c r="J1037" s="1"/>
+      <c r="K1037" s="1"/>
+      <c r="L1037" s="1"/>
+      <c r="M1037" s="1"/>
+      <c r="N1037" s="1"/>
+      <c r="O1037" s="1"/>
+      <c r="P1037" s="1"/>
+      <c r="Q1037" s="1"/>
+      <c r="R1037" s="1"/>
+      <c r="S1037" s="1"/>
+      <c r="T1037" s="1"/>
+      <c r="U1037" s="1"/>
+      <c r="V1037" s="1"/>
+      <c r="W1037" s="1"/>
+      <c r="X1037" s="1"/>
+      <c r="Y1037" s="1"/>
+      <c r="Z1037" s="1"/>
     </row>
     <row r="1038" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A1038" s="1"/>
@@ -33140,6 +33191,15 @@
       <c r="F1045" s="1"/>
       <c r="G1045" s="1"/>
     </row>
+    <row r="1046" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1046" s="1"/>
+      <c r="B1046" s="1"/>
+      <c r="C1046" s="1"/>
+      <c r="D1046" s="1"/>
+      <c r="E1046" s="1"/>
+      <c r="F1046" s="1"/>
+      <c r="G1046" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="360">
   <si>
     <t>任務名稱</t>
   </si>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>見習劍士之路1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -553,10 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>待定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一般;100</t>
   </si>
   <si>
@@ -826,10 +818,6 @@
   </si>
   <si>
     <t>剛準備踏上海盜之路的你，仍然身披布衣，手握指虎，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等海盜裝備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1319,14 +1307,6 @@
   </si>
   <si>
     <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2320,6 +2300,43 @@
   </si>
   <si>
     <t>你已成為自由之神！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+擊敗另一時空的梅格耐斯，獲得他掉落的傳承道具。
+交給黑風，完成全部職業任務線！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+擊敗另一時空的哈維酋長，獲得他掉落的傳承道具。
+交給黑風，完成全部職業任務線！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+擊敗另一時空的弱化希拉，獲得他掉落的傳承道具。
+交給黑風，完成全部職業任務線！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+擊敗另一時空的暴力熊，獲得他掉落的傳承道具。
+交給黑風，完成全部職業任務線！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+擊敗另一時空的大海獸，獲得他掉落的傳承道具。
+交給黑風，完成全部職業任務線！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終試煉</t>
+  </si>
+  <si>
+    <t>最終試煉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2633,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2653,7 +2670,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2674,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2706,7 +2723,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -2742,13 +2759,13 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -2781,28 +2798,28 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2825,28 +2842,28 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2869,28 +2886,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2913,28 +2930,28 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2957,28 +2974,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3001,28 +3018,28 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3045,28 +3062,28 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3089,28 +3106,28 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3133,28 +3150,28 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3177,28 +3194,28 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3221,28 +3238,28 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3265,28 +3282,28 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3309,28 +3326,28 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3353,28 +3370,28 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3397,28 +3414,28 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3441,22 +3458,22 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -3485,14 +3502,14 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
+      <c r="B20" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -3500,8 +3517,8 @@
       <c r="F20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
+      <c r="G20" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3528,13 +3545,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -3543,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3570,13 +3587,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -3585,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3612,10 +3629,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>330</v>
@@ -3627,7 +3644,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3654,13 +3671,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -3669,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3696,13 +3713,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -3711,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3738,13 +3755,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -3753,7 +3770,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3780,13 +3797,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
@@ -3795,7 +3812,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3822,10 +3839,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>347</v>
@@ -3837,7 +3854,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3863,14 +3880,14 @@
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>352</v>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -3878,8 +3895,8 @@
       <c r="F29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>118</v>
+      <c r="G29" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3954,7 +3971,7 @@
         <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
@@ -3990,13 +4007,13 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -4032,13 +4049,13 @@
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
@@ -4074,19 +4091,19 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>7</v>
@@ -4128,7 +4145,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>7</v>
@@ -4158,19 +4175,19 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>7</v>
@@ -4197,16 +4214,16 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
@@ -4215,7 +4232,7 @@
         <v>39</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4242,19 +4259,19 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>7</v>
@@ -4296,7 +4313,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -4365,22 +4382,22 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>7</v>
@@ -4407,22 +4424,22 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>7</v>
@@ -4449,22 +4466,22 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>7</v>
@@ -4491,22 +4508,22 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>7</v>
@@ -4533,22 +4550,22 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -4575,22 +4592,22 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>7</v>
@@ -4617,22 +4634,22 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>7</v>
@@ -4659,22 +4676,22 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
@@ -4701,22 +4718,22 @@
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>7</v>
@@ -4743,22 +4760,22 @@
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>7</v>
@@ -4791,10 +4808,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4833,10 +4850,10 @@
         <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4875,10 +4892,10 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4917,10 +4934,10 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4959,10 +4976,10 @@
         <v>18</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -5001,10 +5018,10 @@
         <v>42</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -5043,10 +5060,10 @@
         <v>43</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -5085,10 +5102,10 @@
         <v>44</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -5127,10 +5144,10 @@
         <v>45</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -5169,10 +5186,10 @@
         <v>46</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -5211,10 +5228,10 @@
         <v>54</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -5223,7 +5240,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5253,10 +5270,10 @@
         <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -5265,7 +5282,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5295,10 +5312,10 @@
         <v>56</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -5307,7 +5324,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5337,10 +5354,10 @@
         <v>57</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5349,7 +5366,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5379,10 +5396,10 @@
         <v>58</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -5418,22 +5435,22 @@
         <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5460,22 +5477,22 @@
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5502,22 +5519,22 @@
         <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5544,22 +5561,22 @@
         <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5586,22 +5603,22 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5628,22 +5645,22 @@
         <v>19</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5670,22 +5687,22 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5712,22 +5729,22 @@
         <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5754,22 +5771,22 @@
         <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5796,22 +5813,22 @@
         <v>19</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5838,22 +5855,22 @@
         <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5880,22 +5897,22 @@
         <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5922,22 +5939,22 @@
         <v>19</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5964,22 +5981,22 @@
         <v>19</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -6006,22 +6023,22 @@
         <v>19</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6048,22 +6065,22 @@
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6090,22 +6107,22 @@
         <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6132,22 +6149,22 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6174,22 +6191,22 @@
         <v>19</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6216,22 +6233,22 @@
         <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6258,22 +6275,22 @@
         <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6300,22 +6317,22 @@
         <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6342,22 +6359,22 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6384,22 +6401,22 @@
         <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6426,22 +6443,22 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6468,22 +6485,22 @@
         <v>19</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6510,22 +6527,22 @@
         <v>19</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6552,22 +6569,22 @@
         <v>19</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="D93" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6594,22 +6611,22 @@
         <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D94" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6636,22 +6653,22 @@
         <v>19</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6675,25 +6692,25 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="C96" s="3" t="s">
-        <v>117</v>
+        <v>359</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6717,25 +6734,25 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6759,25 +6776,25 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6801,22 +6818,22 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>52</v>
@@ -6843,25 +6860,25 @@
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>63</v>
+        <v>358</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="357">
   <si>
     <t>任務名稱</t>
   </si>
@@ -93,9 +93,6 @@
     <t>你渴求一場智慧之戰</t>
   </si>
   <si>
-    <t>自認智慧的你，想要與他人來一場頭腦廝殺。因此，你需要一個戰場來讓你的頭腦得已發揮。尋找20顆五子棋的棋子，交給黑風，他會製作出讓你酣戰的極品戰場。</t>
-  </si>
-  <si>
     <t>恭喜你完成任務</t>
   </si>
   <si>
@@ -114,13 +111,7 @@
     <t>成為忍耐之神</t>
   </si>
   <si>
-    <t>自認忍功一流的你，知道真正的忍耐之神，需要有能力忍住對智慧之果的慾望及衝動。為了成為忍耐之神，在黑風面前吃下智慧果實，成為第二個亞當／夏娃吧！。在向高地忍耐任務中取得蘋果，並在黑風面前變成蘋果樹。</t>
-  </si>
-  <si>
     <t>你已成為忍耐之神！</t>
-  </si>
-  <si>
-    <t>你想知道莉莉安，也就是黑風妹妹為什麼哀愁。找出原因解決他，能繼承黑王國的財富！</t>
   </si>
   <si>
     <t>鑄造之神</t>
@@ -216,126 +207,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>身為鍛造之神，有關鍛造的物品，理應應有盡有。請將，任意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>種製作防具的催化劑各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個，任意兩種一般礦石各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個，任意兩種屬性母礦各</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個，以及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>顆匠人之心，交給黑風。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>神龍項鍊之神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成為神龍項鍊之神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為神龍項鍊之神，稀有的神龍項鍊，你應該擁有。請將，乾淨的神龍項鍊，交給黑風。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -497,10 +373,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>身為品客繽項鍊之神，稀有的品客繽項鍊，你應該擁有。請將，乾淨的品客繽項鍊，交給黑風。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成為品客繽項鍊之神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -732,10 +604,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自認記憶力超群的你，想要與他人來一場頭腦廝殺。因此，你需要一個戰場來讓你的頭腦得已發揮。尋找30張怪物卡，交給黑風，他會製作出讓你酣戰的極品戰場。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>記憶之戰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -779,24 +647,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法長得跟其中1個黑大王一樣。身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成2種黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成3種黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成4種黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。黑大王將會在群組爆照，五組圖片，想辦法完成所有黑大王的造型。身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成時尚任務其四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -805,96 +655,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剛準備踏上劍士之路的你，仍然身披布衣，手握長劍，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好7種部位的20~30等戰士裝備，向黑風展示你做足的準備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛準備踏上弓箭手之路的你，仍然身披布衣，手握短弓，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等弓箭手"裝備"，向黑風展示你做足的準備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛準備踏上魔法師之路的你，仍然身披布衣，手握長劍，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等魔法師裝備，向黑風展示你做足的準備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛準備踏上海盜之路的你，仍然身披布衣，手握指虎，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好6種部位的20~30等海盜裝備</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>香蕉之神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成為香蕉之神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>香蕉真的很棒，好吃好玩好方便，有用又有意思。大家都要香蕉，但是楓之谷生產的香蕉非常稀少，你找的到他嗎？。找到香蕉，並且找到黑風向她證明你對香蕉的熱愛！。挖哩蕉蕉~ (吃過的我們可是不要的喔~)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是記憶之神！自覺獨孤求敗的你，直接挑戰黑風，挑戰記憶之神，篡奪記憶力之權柄！。用記憶大考驗擊敗黑風吧！你只有一次機會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>或是獲得憐憫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已經擁有戰場的你，正當左右顧視之時，你竟發現眼前之人就是智慧之神！自覺獨孤求敗的你，直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！。用五子棋擊敗黑風吧！你只有一次機會(或是獲得憐憫)！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1061,34 +826,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完全具備技術、裝備、補給的一名槍騎兵，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之槍，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全具備技術、裝備、補給的一名獵人，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之弓，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱得上是個合格獵人的你，雖然身穿品質不錯的皮甲，手持長弓，但這樣的裝備可稱不上真正的獵人宗師。
-更精良的裝備不可或缺。
-準備好6種部位的40~70等獵人裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱得上是個合格僧侶的你，雖然身穿品質不錯的布甲，手持法杖，但這樣的裝備可稱不上真正的法術大師。
-更精良的裝備不可或缺。
-準備好6種部位的40~70等法師裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全具備技術、裝備、補給的一名僧侶，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強之杖，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全具備技術、裝備、補給的一名打手，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強指虎，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>技能之神</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1097,118 +834,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>統御所有技能的技能之神，不僅自身全能，更可以賦予他人全能。技能書是技能之神權柄的重要體現。蒐集擁有特定技能的技能書，得到其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本技能書即可篡奪技能神位！。交給黑風</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>本擁有特定技能的技能書。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱得上是個合格打手的你，雖然身穿品質不錯的戰甲，手持指虎，但這樣的裝備可稱不上真正的拳聖宗師。
-更精良的裝備不可或缺。
-準備好7種部位的40~70等海盜裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>剛準備踏上盜賊之路的你，仍然身披布衣，手握水星標，這樣的裝備在內行人眼中，可是個笑話。精良的裝備不可或缺。準備好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>種部位的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20~30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>等盜賊裝備</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，但這樣的裝備可稱不上真正的長槍大師。
-更精良的裝備不可或缺。
-準備好6種部位的40~70等劍士裝備(武器只能使用雙手武器)，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>你獲得了技能神位！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1225,91 +850,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第2階段跳跳之神的實力。</t>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第3階段跳跳之神的實力。</t>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中1個，便能展示給黑風，讓黑風看看，你成為第4階段跳跳之神的實力。</t>
-  </si>
-  <si>
-    <r>
-      <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到其中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個，便能展示給黑風，讓黑風看看，你成為第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>階段跳跳之神的實力。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。成功通關，將獲得五種不同殭屍圖騰中的一種。拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第一階段轉職試煉</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1322,66 +862,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在天之巔的黑暗之獸，獲得幽靈魔法。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在天之巔的黑暗之獸，獲得幽靈魔法。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆發你先前累積的經驗、能量，邁入第二階段。擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。交給黑風證明你的能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天分是你的朋友，缺少的只是經驗。擊敗藏在森林深處的王者，獲得他的的芽孢。或是取得300個蘑菇芽孢。交給黑風證明你的資質</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>天資聰穎的你，不必窠臼於傳統的轉職，你是職業者之王。擊敗亡者密林的妖怪，獲得他的黑暗聖經，加上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>張周遭獲取的咒符。交給黑風證明你的強大！獲取職業最終傳承</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為劍士，手握長劍，身披布衣，亟需訓練的你，努力揮劍吧！。歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。蒐集30片象徵努力的樹葉，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為弓箭手，手握短弓，身披布衣，亟需訓練的你，努力射箭吧！。歷代強者都是打木制準心出身的，而你顯然比他們更勝一籌。蒐集50個網孢盤菌，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>訓練劍術</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1402,32 +882,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>完全具備技術、裝備、補給的一名刺客，已經沒有短板會困擾他了，他缺的只剩更強的武器，更強的攻擊！。向黑風詢問最適合自己的最強拳套，獲得它！成為二階段最強冒險家。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稱得上是個合格刺客的你，雖然身穿品質不錯的皮甲，手持手裡劍，但這樣的裝備可稱不上真正的刺客宗師。
-更精良的裝備不可或缺。
-準備好6種部位的40~70等盜賊裝備，交給黑風，向他證明你的態度。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>訓練鏢術</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剛剛成為魔法師，手握長杖，身披布衣，亟需訓練的你，努力訓練魔法吧！。歷代強者都是打木制人偶出身的，而你顯然比他們更勝一籌。從巨木樹林蒐集80顆綠色珍珠，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為盜賊，手握飛鏢，身披布衣，亟需訓練的你，努力丟標吧！。歷代強者都是丟木樁出身的，而你顯然比他們更勝一籌。蒐集80個極度弱化克蘇魯的觸手，像黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，努力揮拳吧！。歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。拳打白蹢，蒐集30個掉落的索帶，像黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>成為槍術大師</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1448,191 +906,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成為槍騎兵，手持長槍，身穿鎧甲，但還是要熟練自我槍法，跟長槍大師一決高下吧！。 合格的槍騎兵都是以強者磨練槍法的，面對長槍大師，向槍術大師邁步！ 。搜集你斬斷的200個槍術大師的稜角，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。取得200瓶VODKA，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為獵人，手持長弓，身穿皮甲，但還是要熟練自我箭術，去狩獵吧！。 合格的獵人都是能夠不傷害獵物的皮毛，而你要成為獵人宗師，取得冒險島特有種藍紋吸蜜鸚鵡的王冠遠遠不能顯示你的技術！ 。蒐集200個冒險島特有種藍紋吸蜜鸚鵡掉落的羽毛，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為合格獵人，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200個ABC冰，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為進階魔法師，手持法杖，身穿布甲，更是要熟練各類魔法！。 合格的僧侶需要磨練高級魔法，而高級魔法往往需要媒介，你當前需要大量召回石來熟悉高階魔法！ 。蒐集150個召回石，向黑風證明你的魔法水平！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。古之宗師法天地自然，去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！。蒐集200個龍的銳意，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身為合格刺客，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個萬葉集之美，讓黑風看看你的專業。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>身為合格僧侶，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個黃藥師獨門靈丹，讓黑風看看你的專業。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身為合格打手，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。雖然超級藥水簡單粗暴，一名老練的冒險家能夠從環境中，取得所需的藥物補給。獲得200瓶魯道夫之奶，讓黑風看看你的專業。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>古之宗師法天地自然，去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。蒐集</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個藍色雙角龍的靈魂、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>個藍色雙角龍的鱗片，向黑風證明你的技巧！</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>任務類型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神出現了！
-時尚之神降臨人間，他只喜歡與自己相同的，又或是讓他徹底三官崩壞的造型。
-黑風將會在群組爆照，想辦法長得跟黑風一樣，或是放飛自我，讓他看看你的美感，時尚之神就有可能將你收為隨從！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1948,18 +1222,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>14. 水晶楓葉徽章每天可以領取（）抵用券（）冒險幣
-（只需輸入數值並以"半形,"分隔）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12. 分解10件暴君和5件法芙娜武器可以獲得多少點券（）。
 （只需輸入數值）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 寵物飢餓時投餵寵物食品，可以增加飽滿感（）好感度（）。
-（只需輸入數值並以"半形,"分隔）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2257,12 +1521,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>進入第二層苦難。
-這裡的人們為慾望所擺布，隨之起舞，不得寧靜之日，此樂非彼之樂乎？
-讓他們不再為慾望起念，他們的感謝能使你的王國上下一心。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>剛剛接觸世界真相，身處關鍵的轉捩點。
 地獄的邊緣徘徊著靈，他們無希望亦無絕望、寡歡亦無痛苦。
 給予他們所求，他們的回報能使你王冠附上一份靈魂。</t>
@@ -2275,68 +1533,749 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>為了成為楓之谷之王，你踏過山河，從山巔俯瞰雲海！你踏過幽都，遍歷靈魂與軼事！
+    <t>自由之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奪取自由之神的王座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由市場的頂端只能有一人屹立其上。
+他即是神，自由之神！
+向黑風了解任務目標，第一個站在自由之巔的將獲得自由權柄！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已成為自由之神！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終試煉</t>
+  </si>
+  <si>
+    <t>最終試煉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名打手，已經沒有短板會困擾他了！
+他缺的只剩更強的武器，更強的攻擊！
+向黑風詢問最適合自己的最強指虎，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！
+古之宗師法天地自然，去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！ 
+蒐集5個藍色雙角龍的靈魂、5個藍色雙角龍的鱗片，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名刺客，已經沒有短板會困擾他了！
+他缺的只剩更強的武器，更強的攻擊！
+向黑風詢問最適合自己的最強拳套，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。
+古之宗師法天地自然，去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！
+蒐集200個龍的銳意，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名僧侶，已經沒有短板會困擾他了！
+他缺的只剩更強的武器，更強的攻擊！
+向黑風詢問最適合自己的最強之杖，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名獵人，已經沒有短板會困擾他了！
+他缺的只剩更強的武器，更強的攻擊！
+向黑風詢問最適合自己的最強之弓，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全具備技術、裝備、補給的一名槍騎兵，已經沒有短板會困擾他了。
+他缺的只剩更強的武器，更強的攻擊！
+向黑風詢問最適合自己的最強之槍，獲得它！成為二階段最強冒險家。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為海盜，手握指虎，身披布衣，亟需訓練的你，努力揮拳吧！
+歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。
+拳打白蹢，蒐集30個掉落的索帶，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為盜賊，手握飛鏢，身披布衣，亟需訓練的你，努力丟標吧！
+歷代強者都是丟木樁出身的，而你顯然比他們更勝一籌。
+蒐集80個極度弱化克蘇魯的觸手，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為魔法師，手握長杖，身披布衣，亟需訓練的你，努力訓練魔法吧！
+歷代強者都是打木制人偶出身的，而你顯然比他們更勝一籌。
+從巨木樹林蒐集80顆綠色珍珠，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為弓箭手，手握短弓，身披布衣，亟需訓練的你，努力射箭吧！
+歷代強者都是打木制準心出身的，而你顯然比他們更勝一籌。
+蒐集50個網孢盤菌，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為劍士，手握長劍，身披布衣，亟需訓練的你，努力揮劍吧！
+歷代強者都是打木樁出身的，而你顯然比他們更勝一籌。
+蒐集30片象徵努力的樹葉，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天資聰穎的你，不必窠臼於傳統的轉職，你是職業者之王。
+擊敗亡者密林的妖怪，獲得他的黑暗聖經，加上10張周遭獲取的咒符。
+交給黑風證明你的強大！獲取職業最終傳承</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。
+擊敗藏在霜凍冰層的冰之魔像，獲得冰之淚。
+交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆發你先前累積的經驗、能量，邁入第二階段。
+擊敗藏在天之巔的黑暗之獸，獲得幽靈魔法。
+交給黑風證明你的能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天分是你的朋友，缺少的只是經驗。
+擊敗藏在森林深處的王者，獲得他的的芽孢。
+或是取得300個蘑菇芽孢。
+交給黑風證明你的資質</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成所有黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成4種黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成3種黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成2種黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法長得跟其中1個黑大王一樣。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。
+跳跳地圖中，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。
+成功通關，將獲得五種不同殭屍圖騰中的一種。
+拿到其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，便能展示給黑風，讓黑風看看，你成為第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>階段跳跳之神的實力。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。
+跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。
+成功通關，將獲得五種不同殭屍圖騰中的一種。
+拿到其中2個，便能展示給黑風，讓黑風看看，你成為第2階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。
+跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。
+成功通關，將獲得五種不同殭屍圖騰中的一種。
+拿到其中4個，便能展示給黑風，讓黑風看看，你成為第4階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。
+跳跳地圖中，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。
+成功通關，將獲得五種不同殭屍圖騰中的一種。
+拿到所有，便能展示給黑風，黑風會跪地高呼，膜拜跳跳之神。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殭屍入侵楓之谷世界，唯有跳跳能拯救世界。
+跳跳地圖中，有5張地圖已經被殭屍入侵，殭屍也想成為跳跳之神。
+成功通關，將獲得五種不同殭屍圖騰中的一種。
+拿到其中3個，便能展示給黑風，讓黑風看看，你成為第3階段跳跳之神的實力。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為神龍項鍊之神，稀有的神龍項鍊，你應該擁有。
+請將，乾淨的神龍項鍊，交給黑風。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為品客繽項鍊之神，稀有的品客繽項鍊，你應該擁有。
+請將，乾淨的品客繽項鍊，交給黑風。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉真的很棒，好吃好玩好方便，有用又有意思。
+大家都要香蕉，但是楓之谷生產的香蕉非常稀少，你找的到他嗎？
+找到香蕉，並且找到黑風向她證明你對香蕉的熱愛！
+挖哩蕉蕉~ (吃過的我們可是不要的喔~)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>身為鍛造之神，有關鍛造的物品，理應應有盡有。
+請將
+任意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>種製作防具的催化劑各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，
+任意兩種一般礦石各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，
+任意兩種屬性母礦各</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>個，
+以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顆匠人之心
+交給黑風。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自認記憶力超群的你，想要與他人來一場頭腦廝殺。
+因此，你需要一個戰場來讓你的頭腦得已發揮。
+尋找30張怪物卡，交給黑風，他會製作出讓你酣戰的極品戰場。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自認智慧的你，想要與他人來一場頭腦廝殺。
+因此，你需要一個戰場來讓你的頭腦得已發揮。
+尋找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顆五子棋的棋子，交給黑風，他會製作出讓你酣戰的極品戰場。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 水晶楓葉徽章每天可以領取（）抵用券（）冒險幣
+（只需輸入數值並以半形逗號 ',' 分隔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 寵物飢餓時投餵寵物食品，可以增加飽滿感（）好感度（）。
+（只需輸入數值並以半形逗號 ',' 分隔）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>為了成為楓之谷之王。
+你踏過山河，從山巔俯瞰雲海！你踏過幽都，遍歷靈魂與軼事！
 如今手握九樣國之重器。
 1. 王國土地 2.王國守衛 3.王國重量
 4. 王國權柄 5.王國同心 6.王國意志
 7. 王國靈魂 8.王國色彩 9.王國安穩
-請將國之重器按照上述排列，找到黑風，完成儀式，開啟最終 神之試煉！！
+請將國之重器按照上述排列。
+找到黑風，完成儀式，開啟最終 神之試煉！！
 完成試煉後，再找到黑風，即可完成任務。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自由之神</t>
+    <t>時尚之神出現了！時尚之神降臨人間！
+他只喜歡與自己相同的，又或是讓他徹底三官崩壞的造型。
+黑風將會在群組爆照，
+想辦法長得跟黑風一樣，或是放飛自我！
+讓他看看你的美感，時尚之神就有可能將你收為隨從！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>奪取自由之神的王座</t>
+    <t>進入第二層苦難。
+這裡的人們為慾望所擺布，隨之起舞，
+不得寧靜之日，此樂非彼之樂乎？
+讓他們不再為慾望起念，他們的感謝能使你的王國上下一心。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自由市場的頂端只能有一人屹立其上。
-他即是神，自由之神！
-向黑風了解任務目標，第一個站在自由之巔的將獲得自由權柄！</t>
+    <t>你想知道莉莉安，也就是黑風妹妹為什麼哀愁。
+找出原因解決他，能繼承黑王國的財富！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>你已成為自由之神！</t>
+    <t>已經擁有戰場的你，正當左右顧視之時，
+你竟發現眼前之人就是智慧之神
+自覺獨孤求敗的你，
+直接挑戰黑風，挑戰智慧之神，篡奪智慧之權柄！
+用五子棋擊敗黑風吧！
+你只有一次機會(或是獲得憐憫)！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+    <t>已經擁有戰場的你，正當左右顧視之時，
+你竟發現眼前之人就是記憶之神！
+自覺獨孤求敗的你，
+直接挑戰黑風，挑戰記憶之神，篡奪記憶力之權柄！
+用記憶大考驗擊敗黑風吧！
+你只有一次機會(或是獲得憐憫)！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>統御所有技能的技能之神，不僅自身全能，更可以賦予他人全能。
+技能書是技能之神權柄的重要體現。
+蒐集擁有特定技能的技能書，得到其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本技能書即可篡奪技能神位！
+交給黑風</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本擁有特定技能的技能書。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自認忍功一流的你，知道真正的忍耐之神，
+需要有能力忍住對智慧之果的慾望及衝動。
+為了成為忍耐之神，
+在黑風面前吃下智慧果實，成為第二個亞當／夏娃吧！
+在向高地忍耐任務中取得蘋果，並在黑風面前變成蘋果樹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上劍士之路的你，仍然身披布衣，手握長劍，
+這樣的裝備在內行人眼中，可是個笑話。
+精良的裝備不可或缺。
+準備好7種部位的20~30等戰士裝備，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上弓箭手之路的你，仍然身披布衣，手握短弓，
+這樣的裝備在內行人眼中，可是個笑話。
+精良的裝備不可或缺。
+準備好6種部位的20~30等弓箭手"裝備"，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上魔法師之路的你，仍然身披布衣，手握長劍，
+這樣的裝備在內行人眼中，可是個笑話。
+精良的裝備不可或缺。
+準備好6種部位的20~30等魔法師裝備，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上盜賊之路的你，仍然身披布衣，手握水星標，
+這樣的裝備在內行人眼中，可是個笑話。
+精良的裝備不可或缺。
+準備好6種部位的20~30等盜賊裝備，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛準備踏上海盜之路的你，仍然身披布衣，手握指虎，
+這樣的裝備在內行人眼中，可是個笑話。
+精良的裝備不可或缺。
+準備好6種部位的20~30等海盜裝備，，向黑風展示你做足的準備</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為槍騎兵，手持長槍，身穿鎧甲，
+但還是要熟練自我槍法，跟長槍大師一決高下吧！
+合格的槍騎兵都是以強者磨練槍法的，
+面對長槍大師，向槍術大師邁步！
+搜集你斬斷的200個槍術大師的稜角，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格槍騎兵的你，雖然身穿品質不錯的戰袍，手持長槍，
+但這樣的裝備可稱不上真正的長槍大師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等劍士裝備(武器只能使用雙手武器)，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格槍騎兵，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。
+雖然超級藥水簡單粗暴，
+一名老練的冒險家能夠從環境中，取得所需的藥物補給。
+取得200瓶VODKA，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格獵人的你，雖然身穿品質不錯的皮甲，手持長弓，
+但這樣的裝備可稱不上真正的獵人宗師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等獵人裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格獵人，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。
+雖然超級藥水簡單粗暴，
+一名老練的冒險家能夠從環境中，取得所需的藥物補給。
+獲得200個ABC冰，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為進階魔法師，手持法杖，身穿布甲，更是要熟練各類魔法！
+ 合格的僧侶需要磨練高級魔法，
+而高級魔法往往需要媒介，你當前需要大量召回石來熟悉高階魔法！
+蒐集150個召回石，向黑風證明你的魔法水平！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格僧侶的你，雖然身穿品質不錯的布甲，手持法杖，
+但這樣的裝備可稱不上真正的法術大師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等法師裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格僧侶，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。
+雖然超級藥水簡單粗暴，
+一名老練的冒險家能夠從環境中，取得所需的藥物補給。
+獲得200個黃藥師獨門靈丹，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格刺客的你，雖然身穿品質不錯的皮甲，手持手裡劍，
+但這樣的裝備可稱不上真正的刺客宗師。
+更精良的裝備不可或缺。
+準備好6種部位的40~70等盜賊裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格刺客，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。
+雖然超級藥水簡單粗暴，
+一名老練的冒險家能夠從環境中，取得所需的藥物補給。
+獲得200個萬葉集之美，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稱得上是個合格打手的你，雖然身穿品質不錯的戰甲，手持指虎，
+但這樣的裝備可稱不上真正的拳聖宗師。
+更精良的裝備不可或缺。
+準備好7種部位的40~70等海盜裝備，交給黑風，向他證明你的態度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身為合格打手，更是一名合格的冒險家，補品藥物是戰鬥中的必需品。
+雖然超級藥水簡單粗暴，
+一名老練的冒險家能夠從環境中，取得所需的藥物補給。
+獲得200瓶魯道夫之奶，讓黑風看看你的專業。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通過這次試煉後，你將會接受最後傳承，
+獲得傳承，你才能真正接觸主線任務！
 擊敗另一時空的梅格耐斯，獲得他掉落的傳承道具。
 交給黑風，完成全部職業任務線！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+    <t>通過這次試煉後，你將會接受最後傳承，
+獲得傳承，你才能真正接觸主線任務！
 擊敗另一時空的哈維酋長，獲得他掉落的傳承道具。
 交給黑風，完成全部職業任務線！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+    <t>通過這次試煉後，你將會接受最後傳承，
+獲得傳承，你才能真正接觸主線任務！
 擊敗另一時空的弱化希拉，獲得他掉落的傳承道具。
 交給黑風，完成全部職業任務線！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+    <t>通過這次試煉後，你將會接受最後傳承，
+獲得傳承，你才能真正接觸主線任務！
 擊敗另一時空的暴力熊，獲得他掉落的傳承道具。
 交給黑風，完成全部職業任務線！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>通過這次試煉後，你將會接受最後傳承，獲得傳承，你才能真正接觸主線任務！。
+    <t>通過這次試煉後，你將會接受最後傳承，
+獲得傳承，你才能真正接觸主線任務！
 擊敗另一時空的大海獸，獲得他掉落的傳承道具。
 交給黑風，完成全部職業任務線！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最終試煉</t>
-  </si>
-  <si>
-    <t>最終試煉</t>
+    <t>成為獵人，手持長弓，身穿皮甲，但還是要熟練自我箭術。
+去狩獵吧！合格的獵人都是能夠不傷害獵物的皮毛。
+而你要成為獵人宗師，
+取得冒險島特有種藍紋吸蜜鸚鵡的王冠遠遠不能顯示你的技術！ 
+蒐集200個冒險島特有種藍紋吸蜜鸚鵡掉落的羽毛，
+向黑風證明你的技巧！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2650,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1046"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2670,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2691,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2714,25 +2653,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2756,25 +2695,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2798,28 +2737,28 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2842,28 +2781,28 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2886,28 +2825,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>320</v>
+        <v>259</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2930,28 +2869,28 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2974,28 +2913,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>308</v>
+        <v>249</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3018,28 +2957,28 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3062,28 +3001,28 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3106,28 +3045,28 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3150,28 +3089,28 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>299</v>
+        <v>240</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3194,28 +3133,28 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>300</v>
+        <v>241</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3238,28 +3177,28 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3282,28 +3221,28 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3326,28 +3265,28 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3370,28 +3309,28 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3414,28 +3353,28 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3458,22 +3397,22 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -3503,13 +3442,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
@@ -3518,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3545,13 +3484,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
@@ -3560,7 +3499,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3587,13 +3526,13 @@
         <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
@@ -3602,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3629,13 +3568,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -3644,7 +3583,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3671,13 +3610,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>331</v>
+        <v>270</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>332</v>
+        <v>271</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
@@ -3686,7 +3625,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3713,13 +3652,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>335</v>
+        <v>274</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
@@ -3728,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3755,13 +3694,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>337</v>
+        <v>276</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>338</v>
+        <v>277</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -3770,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3797,13 +3736,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
@@ -3812,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3839,13 +3778,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
@@ -3854,7 +3793,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3886,8 +3825,8 @@
       <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
+      <c r="D29" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -3928,14 +3867,14 @@
       <c r="C30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>24</v>
+      <c r="D30" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>7</v>
@@ -3965,19 +3904,19 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>7</v>
@@ -4007,19 +3946,19 @@
         <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>7</v>
@@ -4049,19 +3988,19 @@
         <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>178</v>
+        <v>331</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>7</v>
@@ -4091,19 +4030,19 @@
         <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>349</v>
+        <v>286</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>351</v>
+        <v>288</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>7</v>
@@ -4133,19 +4072,19 @@
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>59</v>
+        <v>321</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>7</v>
@@ -4175,19 +4114,19 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>7</v>
@@ -4214,25 +4153,25 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4259,19 +4198,19 @@
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>7</v>
@@ -4301,19 +4240,19 @@
         <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>7</v>
@@ -4343,19 +4282,19 @@
         <v>21</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>31</v>
+      <c r="D40" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>7</v>
@@ -4382,22 +4321,22 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>7</v>
@@ -4424,22 +4363,22 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>239</v>
+        <v>314</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>7</v>
@@ -4466,22 +4405,22 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>7</v>
@@ -4508,22 +4447,22 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>7</v>
@@ -4550,22 +4489,22 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -4592,22 +4531,22 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>7</v>
@@ -4634,22 +4573,22 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>7</v>
@@ -4676,22 +4615,22 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>7</v>
@@ -4718,22 +4657,22 @@
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="D49" s="3" t="s">
-        <v>167</v>
+        <v>309</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>7</v>
@@ -4760,22 +4699,22 @@
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>7</v>
@@ -4808,10 +4747,10 @@
         <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
@@ -4820,7 +4759,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4850,10 +4789,10 @@
         <v>15</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
@@ -4892,10 +4831,10 @@
         <v>16</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -4934,10 +4873,10 @@
         <v>17</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
@@ -4976,10 +4915,10 @@
         <v>18</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
@@ -5015,13 +4954,13 @@
         <v>11</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -5030,7 +4969,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5057,13 +4996,13 @@
         <v>11</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>250</v>
+        <v>306</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
@@ -5072,7 +5011,7 @@
         <v>13</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5099,13 +5038,13 @@
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
@@ -5114,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5141,13 +5080,13 @@
         <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -5156,7 +5095,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5183,13 +5122,13 @@
         <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>247</v>
+        <v>305</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
@@ -5198,7 +5137,7 @@
         <v>13</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5225,13 +5164,13 @@
         <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
@@ -5240,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5267,13 +5206,13 @@
         <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -5282,7 +5221,7 @@
         <v>13</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5309,13 +5248,13 @@
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
@@ -5324,7 +5263,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5351,13 +5290,13 @@
         <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
@@ -5366,7 +5305,7 @@
         <v>13</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5393,13 +5332,13 @@
         <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -5408,7 +5347,7 @@
         <v>13</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5435,22 +5374,22 @@
         <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5477,22 +5416,22 @@
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5519,22 +5458,22 @@
         <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5561,22 +5500,22 @@
         <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>172</v>
+        <v>335</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5603,22 +5542,22 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5645,22 +5584,22 @@
         <v>19</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5687,22 +5626,22 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5729,22 +5668,22 @@
         <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>233</v>
+        <v>337</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5771,22 +5710,22 @@
         <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5813,22 +5752,22 @@
         <v>19</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5855,22 +5794,22 @@
         <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5897,22 +5836,22 @@
         <v>19</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5939,22 +5878,22 @@
         <v>19</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5981,22 +5920,22 @@
         <v>19</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>223</v>
+        <v>298</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -6023,22 +5962,22 @@
         <v>19</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6065,22 +6004,22 @@
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>225</v>
+        <v>342</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6107,22 +6046,22 @@
         <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6149,22 +6088,22 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6191,22 +6130,22 @@
         <v>19</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6233,22 +6172,22 @@
         <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6275,22 +6214,22 @@
         <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6317,22 +6256,22 @@
         <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>227</v>
+        <v>296</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6359,22 +6298,22 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6401,22 +6340,22 @@
         <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6443,22 +6382,22 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6485,22 +6424,22 @@
         <v>19</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6527,22 +6466,22 @@
         <v>19</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6569,22 +6508,22 @@
         <v>19</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6611,22 +6550,22 @@
         <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6653,22 +6592,22 @@
         <v>19</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6692,25 +6631,25 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>359</v>
+        <v>291</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6734,25 +6673,25 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6776,25 +6715,25 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6818,25 +6757,25 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6860,25 +6799,25 @@
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="358">
   <si>
     <t>任務名稱</t>
   </si>
@@ -1564,24 +1564,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！
-古之宗師法天地自然，去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！ 
-蒐集5個藍色雙角龍的靈魂、5個藍色雙角龍的鱗片，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完全具備技術、裝備、補給的一名刺客，已經沒有短板會困擾他了！
 他缺的只剩更強的武器，更強的攻擊！
 向黑風詢問最適合自己的最強拳套，獲得它！成為二階段最強冒險家。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。
-古之宗師法天地自然，去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！
-蒐集200個龍的銳意，向黑風證明你的技巧！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完全具備技術、裝備、補給的一名僧侶，已經沒有短板會困擾他了！
 他缺的只剩更強的武器，更強的攻擊！
 向黑風詢問最適合自己的最強之杖，獲得它！成為二階段最強冒險家。</t>
@@ -1612,12 +1600,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>剛剛成為魔法師，手握長杖，身披布衣，亟需訓練的你，努力訓練魔法吧！
-歷代強者都是打木制人偶出身的，而你顯然比他們更勝一籌。
-從巨木樹林蒐集80顆綠色珍珠，向黑風證明你的努力！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>剛剛成為弓箭手，手握短弓，身披布衣，亟需訓練的你，努力射箭吧！
 歷代強者都是打木制準心出身的，而你顯然比他們更勝一籌。
 蒐集50個網孢盤菌，向黑風證明你的努力！</t>
@@ -1652,41 +1634,6 @@
 擊敗藏在森林深處的王者，獲得他的的芽孢。
 或是取得300個蘑菇芽孢。
 交給黑風證明你的資質</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！
-時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
-黑大王將會在群組爆照，五組圖片，想辦法完成所有黑大王的造型。
-身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！
-時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
-黑大王將會在群組爆照，五組圖片，想辦法完成4種黑大王的造型。
-身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！
-時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
-黑大王將會在群組爆照，五組圖片，想辦法完成3種黑大王的造型。
-身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！
-時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
-黑大王將會在群組爆照，五組圖片，想辦法完成2種黑大王的造型。
-身為時尚，區區造型只是基本功罷了！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>時尚之神通曉任何造型！
-時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，完成他的考驗，讓他看看你的腦容量。
-黑大王將會在群組爆照，五組圖片，想辦法長得跟其中1個黑大王一樣。
-身為時尚，區區造型只是基本功罷了！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2276,6 +2223,98 @@
 取得冒險島特有種藍紋吸蜜鸚鵡的王冠遠遠不能顯示你的技術！ 
 蒐集200個冒險島特有種藍紋吸蜜鸚鵡掉落的羽毛，
 向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>天資聰穎的你，不必窠臼於傳統的轉職，你是職業者之王。
+擊敗亡者密林的妖怪，獲得他的黑暗聖經，加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>張周遭獲取的咒符。
+交給黑風證明你的強大！獲取職業最終傳承</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為打手，手持指虎，身穿鎧甲，但還是要修行自身拳法！
+古之宗師法天地自然，
+去學習自然之靈、進化演變的自然意志，觀摩巨龍之魂！ 
+蒐集5個藍色雙角龍的靈魂、5個藍色雙角龍的鱗片，
+向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剛剛成為魔法師，手握長杖，身披布衣，
+亟需訓練的你，努力訓練魔法吧！
+歷代強者都是打木制人偶出身的，而你顯然比他們更勝一籌。
+從巨木樹林蒐集80顆綠色珍珠，向黑風證明你的努力！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為刺客，手持飛刃，身穿皮甲，但還是要熟練自我鏢術。
+古之宗師法天地自然，
+去學習自然之靈、進化演變的自然刀法，觀摩飛龍之利爪！
+蒐集200個龍的銳意，向黑風證明你的技巧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，
+完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成4種黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，
+完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法長得跟其中1個黑大王一樣。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，
+完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成2種黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，
+完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成3種黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時尚之神通曉任何造型！
+時尚惡魔黑大王妄圖挑戰你，質疑你的時尚功力，
+完成他的考驗，讓他看看你的腦容量。
+黑大王將會在群組爆照，五組圖片，想辦法完成所有黑大王的造型。
+身為時尚，區區造型只是基本功罷了！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2587,10 +2626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1046"/>
+  <dimension ref="A1:Z1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2704,7 +2743,7 @@
         <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
@@ -3186,7 +3225,7 @@
         <v>191</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -3318,7 +3357,7 @@
         <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -3397,25 +3436,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>326</v>
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>7</v>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3439,25 +3478,25 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3481,25 +3520,25 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>262</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>263</v>
+        <v>210</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3523,25 +3562,25 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>265</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3565,25 +3604,25 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>267</v>
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3607,25 +3646,25 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3649,25 +3688,25 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>273</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3691,25 +3730,25 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3733,25 +3772,25 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3775,25 +3814,25 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3817,25 +3856,25 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3859,25 +3898,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3901,25 +3940,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3943,25 +3982,25 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -3985,25 +4024,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -4027,25 +4066,25 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4069,25 +4108,25 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
+        <v>119</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4111,25 +4150,25 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -4152,26 +4191,26 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A37" s="3" t="s">
-        <v>121</v>
+      <c r="A37" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>36</v>
+      <c r="F37" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4195,25 +4234,25 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -4237,25 +4276,25 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -4279,25 +4318,25 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
+      <c r="F40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -4320,26 +4359,26 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>121</v>
+      <c r="A41" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4362,26 +4401,26 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="3" t="s">
-        <v>121</v>
+      <c r="A42" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -4404,26 +4443,26 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A43" s="3" t="s">
-        <v>121</v>
+      <c r="A43" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
+        <v>118</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -4446,26 +4485,26 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A44" s="3" t="s">
-        <v>121</v>
+      <c r="A44" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4488,26 +4527,26 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A45" s="3" t="s">
-        <v>121</v>
+      <c r="A45" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4530,26 +4569,26 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A46" s="3" t="s">
-        <v>121</v>
+      <c r="A46" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4572,26 +4611,26 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A47" s="3" t="s">
-        <v>121</v>
+      <c r="A47" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -4614,26 +4653,26 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A48" s="3" t="s">
-        <v>121</v>
+      <c r="A48" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -4656,26 +4695,26 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A49" s="3" t="s">
-        <v>121</v>
+      <c r="A49" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -4698,26 +4737,26 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A50" s="3" t="s">
-        <v>121</v>
+      <c r="A50" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4741,25 +4780,25 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>13</v>
+      <c r="F51" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4783,25 +4822,25 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>14</v>
+      <c r="F52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4825,25 +4864,25 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>14</v>
+      <c r="F53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4867,25 +4906,25 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>14</v>
+      <c r="F54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4909,25 +4948,25 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
+      <c r="F55" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4951,25 +4990,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>13</v>
+      <c r="F56" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -4993,25 +5032,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>13</v>
+      <c r="F57" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5035,25 +5074,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>13</v>
+      <c r="F58" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5077,25 +5116,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>13</v>
+      <c r="F59" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5119,25 +5158,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>43</v>
+        <v>181</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>13</v>
+      <c r="F60" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5161,25 +5200,25 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>51</v>
+        <v>182</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>13</v>
+      <c r="F61" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5203,25 +5242,25 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>13</v>
+      <c r="F62" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5245,25 +5284,25 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>13</v>
+      <c r="F63" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5286,26 +5325,26 @@
       <c r="Z63" s="1"/>
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A64" s="1" t="s">
-        <v>11</v>
+      <c r="A64" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>13</v>
+      <c r="F64" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5328,26 +5367,26 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A65" s="1" t="s">
-        <v>11</v>
+      <c r="A65" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>13</v>
+      <c r="F65" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5370,26 +5409,26 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A66" s="1" t="s">
-        <v>19</v>
+      <c r="A66" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5412,26 +5451,26 @@
       <c r="Z66" s="1"/>
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A67" s="1" t="s">
-        <v>19</v>
+      <c r="A67" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5454,26 +5493,26 @@
       <c r="Z67" s="1"/>
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A68" s="1" t="s">
-        <v>19</v>
+      <c r="A68" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5497,25 +5536,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>335</v>
+        <v>161</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>94</v>
+      <c r="F69" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5539,25 +5578,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>116</v>
+      <c r="F70" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5581,25 +5620,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>118</v>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5623,25 +5662,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>116</v>
+      <c r="F72" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5665,25 +5704,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>118</v>
+      <c r="F73" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5707,25 +5746,25 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>116</v>
+      <c r="F74" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5749,25 +5788,25 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>118</v>
+      <c r="F75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5791,25 +5830,25 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>165</v>
+        <v>276</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>339</v>
+        <v>278</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>116</v>
+      <c r="F76" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5833,25 +5872,25 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>116</v>
+      <c r="F77" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5875,25 +5914,25 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>167</v>
+        <v>283</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>116</v>
+      <c r="F78" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5917,25 +5956,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>187</v>
+        <v>8</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>71</v>
+      <c r="F79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5959,25 +5998,25 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>220</v>
+        <v>21</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>84</v>
+      <c r="F80" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6001,25 +6040,25 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>185</v>
+        <v>21</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>85</v>
+      <c r="F81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6043,25 +6082,25 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>86</v>
+      <c r="F82" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6085,25 +6124,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>87</v>
+      <c r="F83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6127,25 +6166,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>344</v>
+        <v>288</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>80</v>
+        <v>289</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6169,25 +6208,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>185</v>
+        <v>21</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>81</v>
+        <v>207</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6211,25 +6250,25 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>82</v>
+        <v>206</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6252,26 +6291,26 @@
       <c r="Z86" s="1"/>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A87" s="1" t="s">
-        <v>19</v>
+      <c r="A87" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>120</v>
+      <c r="F87" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6295,25 +6334,25 @@
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>76</v>
+        <v>208</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6337,25 +6376,25 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>77</v>
+        <v>209</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6379,25 +6418,25 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>186</v>
+        <v>21</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>78</v>
+      <c r="F90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6420,26 +6459,26 @@
       <c r="Z90" s="1"/>
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A91" s="1" t="s">
-        <v>19</v>
+      <c r="A91" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6462,26 +6501,26 @@
       <c r="Z91" s="1"/>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A92" s="1" t="s">
-        <v>19</v>
+      <c r="A92" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6504,26 +6543,26 @@
       <c r="Z92" s="1"/>
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A93" s="1" t="s">
-        <v>19</v>
+      <c r="A93" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>73</v>
+        <v>129</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6546,26 +6585,26 @@
       <c r="Z93" s="1"/>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A94" s="1" t="s">
-        <v>19</v>
+      <c r="A94" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>74</v>
+        <v>130</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6588,26 +6627,26 @@
       <c r="Z94" s="1"/>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A95" s="1" t="s">
-        <v>19</v>
+      <c r="A95" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>75</v>
+        <v>131</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6631,25 +6670,25 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>291</v>
+        <v>141</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>106</v>
+        <v>151</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6673,25 +6712,25 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6715,25 +6754,25 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>108</v>
+        <v>153</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6757,25 +6796,25 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>49</v>
+        <v>154</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6799,25 +6838,25 @@
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100" s="3" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>109</v>
+        <v>155</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -6840,13 +6879,13 @@
       <c r="Z100" s="1"/>
     </row>
     <row r="101" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -6868,12 +6907,12 @@
       <c r="Z101" s="1"/>
     </row>
     <row r="102" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -6896,12 +6935,12 @@
       <c r="Z102" s="1"/>
     </row>
     <row r="103" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -6924,12 +6963,12 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -6952,12 +6991,12 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -6984,7 +7023,7 @@
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+      <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="3"/>
       <c r="H106" s="1"/>
@@ -7012,7 +7051,7 @@
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="3"/>
       <c r="H107" s="1"/>
@@ -7040,7 +7079,7 @@
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
+      <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="3"/>
       <c r="H108" s="1"/>
@@ -7068,7 +7107,7 @@
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
+      <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="3"/>
       <c r="H109" s="1"/>
@@ -7096,7 +7135,7 @@
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
+      <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="3"/>
       <c r="H110" s="1"/>
@@ -7124,7 +7163,7 @@
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
+      <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="3"/>
       <c r="H111" s="1"/>
@@ -7152,7 +7191,7 @@
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="3"/>
       <c r="H112" s="1"/>
@@ -7180,7 +7219,7 @@
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="E113" s="1"/>
       <c r="F113" s="1"/>
       <c r="G113" s="3"/>
       <c r="H113" s="1"/>
@@ -7204,13 +7243,13 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A114" s="3"/>
+      <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="3"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -7232,13 +7271,13 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A115" s="3"/>
+      <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -7260,13 +7299,13 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A116" s="3"/>
+      <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
+      <c r="E116" s="1"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="1"/>
+      <c r="G116" s="3"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -7288,13 +7327,13 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A117" s="3"/>
+      <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="1"/>
       <c r="F117" s="3"/>
-      <c r="G117" s="1"/>
+      <c r="G117" s="3"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -7316,13 +7355,13 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A118" s="3"/>
+      <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
+      <c r="E118" s="1"/>
       <c r="F118" s="3"/>
-      <c r="G118" s="1"/>
+      <c r="G118" s="3"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -7345,12 +7384,12 @@
     </row>
     <row r="119" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -7373,12 +7412,12 @@
     </row>
     <row r="120" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -7401,12 +7440,12 @@
     </row>
     <row r="121" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -7429,12 +7468,12 @@
     </row>
     <row r="122" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -7457,12 +7496,12 @@
     </row>
     <row r="123" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -7485,12 +7524,12 @@
     </row>
     <row r="124" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -7513,12 +7552,12 @@
     </row>
     <row r="125" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -7541,12 +7580,12 @@
     </row>
     <row r="126" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -7569,12 +7608,12 @@
     </row>
     <row r="127" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -7597,12 +7636,12 @@
     </row>
     <row r="128" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -7625,12 +7664,12 @@
     </row>
     <row r="129" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -7653,12 +7692,12 @@
     </row>
     <row r="130" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -7681,12 +7720,12 @@
     </row>
     <row r="131" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -7709,12 +7748,12 @@
     </row>
     <row r="132" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -7737,12 +7776,12 @@
     </row>
     <row r="133" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -7765,12 +7804,12 @@
     </row>
     <row r="134" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -7793,12 +7832,12 @@
     </row>
     <row r="135" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -7821,12 +7860,12 @@
     </row>
     <row r="136" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -7849,12 +7888,12 @@
     </row>
     <row r="137" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -7877,12 +7916,12 @@
     </row>
     <row r="138" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -7905,12 +7944,12 @@
     </row>
     <row r="139" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -7933,12 +7972,12 @@
     </row>
     <row r="140" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -7961,12 +8000,12 @@
     </row>
     <row r="141" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -7989,12 +8028,12 @@
     </row>
     <row r="142" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -8017,12 +8056,12 @@
     </row>
     <row r="143" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
-      <c r="G143" s="1"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -8045,12 +8084,12 @@
     </row>
     <row r="144" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -8073,12 +8112,12 @@
     </row>
     <row r="145" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
-      <c r="G145" s="1"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -8100,13 +8139,13 @@
       <c r="Z145" s="1"/>
     </row>
     <row r="146" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
-      <c r="G146" s="1"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -8128,13 +8167,13 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -8156,13 +8195,13 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -8184,13 +8223,13 @@
       <c r="Z148" s="1"/>
     </row>
     <row r="149" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -8212,13 +8251,13 @@
       <c r="Z149" s="1"/>
     </row>
     <row r="150" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -8240,12 +8279,12 @@
       <c r="Z150" s="1"/>
     </row>
     <row r="151" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -8268,12 +8307,12 @@
       <c r="Z151" s="1"/>
     </row>
     <row r="152" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -8296,12 +8335,12 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -8324,12 +8363,12 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -8352,12 +8391,12 @@
       <c r="Z154" s="1"/>
     </row>
     <row r="155" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -8381,12 +8420,12 @@
     </row>
     <row r="156" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
+      <c r="G156" s="3"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -8409,12 +8448,12 @@
     </row>
     <row r="157" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
+      <c r="G157" s="3"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -8437,12 +8476,12 @@
     </row>
     <row r="158" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
+      <c r="G158" s="3"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -8465,12 +8504,12 @@
     </row>
     <row r="159" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
+      <c r="G159" s="3"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -8493,12 +8532,12 @@
     </row>
     <row r="160" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
+      <c r="G160" s="3"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -8521,12 +8560,12 @@
     </row>
     <row r="161" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
+      <c r="G161" s="3"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -8549,12 +8588,12 @@
     </row>
     <row r="162" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
+      <c r="G162" s="3"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -8577,12 +8616,12 @@
     </row>
     <row r="163" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
+      <c r="G163" s="3"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -8604,12 +8643,12 @@
       <c r="Z163" s="1"/>
     </row>
     <row r="164" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -8632,12 +8671,12 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -8660,12 +8699,12 @@
       <c r="Z165" s="1"/>
     </row>
     <row r="166" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -8688,12 +8727,12 @@
       <c r="Z166" s="1"/>
     </row>
     <row r="167" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -8716,12 +8755,12 @@
       <c r="Z167" s="1"/>
     </row>
     <row r="168" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -33075,7 +33114,7 @@
       <c r="Y1037" s="1"/>
       <c r="Z1037" s="1"/>
     </row>
-    <row r="1038" spans="1:26" ht="15" customHeight="1" thickBot="1">
+    <row r="1038" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1038" s="1"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
@@ -33083,8 +33122,27 @@
       <c r="E1038" s="1"/>
       <c r="F1038" s="1"/>
       <c r="G1038" s="1"/>
-    </row>
-    <row r="1039" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1038" s="1"/>
+      <c r="I1038" s="1"/>
+      <c r="J1038" s="1"/>
+      <c r="K1038" s="1"/>
+      <c r="L1038" s="1"/>
+      <c r="M1038" s="1"/>
+      <c r="N1038" s="1"/>
+      <c r="O1038" s="1"/>
+      <c r="P1038" s="1"/>
+      <c r="Q1038" s="1"/>
+      <c r="R1038" s="1"/>
+      <c r="S1038" s="1"/>
+      <c r="T1038" s="1"/>
+      <c r="U1038" s="1"/>
+      <c r="V1038" s="1"/>
+      <c r="W1038" s="1"/>
+      <c r="X1038" s="1"/>
+      <c r="Y1038" s="1"/>
+      <c r="Z1038" s="1"/>
+    </row>
+    <row r="1039" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1039" s="1"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
@@ -33092,8 +33150,27 @@
       <c r="E1039" s="1"/>
       <c r="F1039" s="1"/>
       <c r="G1039" s="1"/>
-    </row>
-    <row r="1040" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="H1039" s="1"/>
+      <c r="I1039" s="1"/>
+      <c r="J1039" s="1"/>
+      <c r="K1039" s="1"/>
+      <c r="L1039" s="1"/>
+      <c r="M1039" s="1"/>
+      <c r="N1039" s="1"/>
+      <c r="O1039" s="1"/>
+      <c r="P1039" s="1"/>
+      <c r="Q1039" s="1"/>
+      <c r="R1039" s="1"/>
+      <c r="S1039" s="1"/>
+      <c r="T1039" s="1"/>
+      <c r="U1039" s="1"/>
+      <c r="V1039" s="1"/>
+      <c r="W1039" s="1"/>
+      <c r="X1039" s="1"/>
+      <c r="Y1039" s="1"/>
+      <c r="Z1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1040" s="1"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
@@ -33101,8 +33178,27 @@
       <c r="E1040" s="1"/>
       <c r="F1040" s="1"/>
       <c r="G1040" s="1"/>
-    </row>
-    <row r="1041" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1040" s="1"/>
+      <c r="I1040" s="1"/>
+      <c r="J1040" s="1"/>
+      <c r="K1040" s="1"/>
+      <c r="L1040" s="1"/>
+      <c r="M1040" s="1"/>
+      <c r="N1040" s="1"/>
+      <c r="O1040" s="1"/>
+      <c r="P1040" s="1"/>
+      <c r="Q1040" s="1"/>
+      <c r="R1040" s="1"/>
+      <c r="S1040" s="1"/>
+      <c r="T1040" s="1"/>
+      <c r="U1040" s="1"/>
+      <c r="V1040" s="1"/>
+      <c r="W1040" s="1"/>
+      <c r="X1040" s="1"/>
+      <c r="Y1040" s="1"/>
+      <c r="Z1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1041" s="1"/>
       <c r="B1041" s="1"/>
       <c r="C1041" s="1"/>
@@ -33110,8 +33206,27 @@
       <c r="E1041" s="1"/>
       <c r="F1041" s="1"/>
       <c r="G1041" s="1"/>
-    </row>
-    <row r="1042" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1041" s="1"/>
+      <c r="I1041" s="1"/>
+      <c r="J1041" s="1"/>
+      <c r="K1041" s="1"/>
+      <c r="L1041" s="1"/>
+      <c r="M1041" s="1"/>
+      <c r="N1041" s="1"/>
+      <c r="O1041" s="1"/>
+      <c r="P1041" s="1"/>
+      <c r="Q1041" s="1"/>
+      <c r="R1041" s="1"/>
+      <c r="S1041" s="1"/>
+      <c r="T1041" s="1"/>
+      <c r="U1041" s="1"/>
+      <c r="V1041" s="1"/>
+      <c r="W1041" s="1"/>
+      <c r="X1041" s="1"/>
+      <c r="Y1041" s="1"/>
+      <c r="Z1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1042" s="1"/>
       <c r="B1042" s="1"/>
       <c r="C1042" s="1"/>
@@ -33119,8 +33234,27 @@
       <c r="E1042" s="1"/>
       <c r="F1042" s="1"/>
       <c r="G1042" s="1"/>
-    </row>
-    <row r="1043" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1042" s="1"/>
+      <c r="I1042" s="1"/>
+      <c r="J1042" s="1"/>
+      <c r="K1042" s="1"/>
+      <c r="L1042" s="1"/>
+      <c r="M1042" s="1"/>
+      <c r="N1042" s="1"/>
+      <c r="O1042" s="1"/>
+      <c r="P1042" s="1"/>
+      <c r="Q1042" s="1"/>
+      <c r="R1042" s="1"/>
+      <c r="S1042" s="1"/>
+      <c r="T1042" s="1"/>
+      <c r="U1042" s="1"/>
+      <c r="V1042" s="1"/>
+      <c r="W1042" s="1"/>
+      <c r="X1042" s="1"/>
+      <c r="Y1042" s="1"/>
+      <c r="Z1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1043" s="1"/>
       <c r="B1043" s="1"/>
       <c r="C1043" s="1"/>
@@ -33128,8 +33262,27 @@
       <c r="E1043" s="1"/>
       <c r="F1043" s="1"/>
       <c r="G1043" s="1"/>
-    </row>
-    <row r="1044" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1043" s="1"/>
+      <c r="I1043" s="1"/>
+      <c r="J1043" s="1"/>
+      <c r="K1043" s="1"/>
+      <c r="L1043" s="1"/>
+      <c r="M1043" s="1"/>
+      <c r="N1043" s="1"/>
+      <c r="O1043" s="1"/>
+      <c r="P1043" s="1"/>
+      <c r="Q1043" s="1"/>
+      <c r="R1043" s="1"/>
+      <c r="S1043" s="1"/>
+      <c r="T1043" s="1"/>
+      <c r="U1043" s="1"/>
+      <c r="V1043" s="1"/>
+      <c r="W1043" s="1"/>
+      <c r="X1043" s="1"/>
+      <c r="Y1043" s="1"/>
+      <c r="Z1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1044" s="1"/>
       <c r="B1044" s="1"/>
       <c r="C1044" s="1"/>
@@ -33137,8 +33290,27 @@
       <c r="E1044" s="1"/>
       <c r="F1044" s="1"/>
       <c r="G1044" s="1"/>
-    </row>
-    <row r="1045" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1044" s="1"/>
+      <c r="I1044" s="1"/>
+      <c r="J1044" s="1"/>
+      <c r="K1044" s="1"/>
+      <c r="L1044" s="1"/>
+      <c r="M1044" s="1"/>
+      <c r="N1044" s="1"/>
+      <c r="O1044" s="1"/>
+      <c r="P1044" s="1"/>
+      <c r="Q1044" s="1"/>
+      <c r="R1044" s="1"/>
+      <c r="S1044" s="1"/>
+      <c r="T1044" s="1"/>
+      <c r="U1044" s="1"/>
+      <c r="V1044" s="1"/>
+      <c r="W1044" s="1"/>
+      <c r="X1044" s="1"/>
+      <c r="Y1044" s="1"/>
+      <c r="Z1044" s="1"/>
+    </row>
+    <row r="1045" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1045" s="1"/>
       <c r="B1045" s="1"/>
       <c r="C1045" s="1"/>
@@ -33146,8 +33318,27 @@
       <c r="E1045" s="1"/>
       <c r="F1045" s="1"/>
       <c r="G1045" s="1"/>
-    </row>
-    <row r="1046" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="H1045" s="1"/>
+      <c r="I1045" s="1"/>
+      <c r="J1045" s="1"/>
+      <c r="K1045" s="1"/>
+      <c r="L1045" s="1"/>
+      <c r="M1045" s="1"/>
+      <c r="N1045" s="1"/>
+      <c r="O1045" s="1"/>
+      <c r="P1045" s="1"/>
+      <c r="Q1045" s="1"/>
+      <c r="R1045" s="1"/>
+      <c r="S1045" s="1"/>
+      <c r="T1045" s="1"/>
+      <c r="U1045" s="1"/>
+      <c r="V1045" s="1"/>
+      <c r="W1045" s="1"/>
+      <c r="X1045" s="1"/>
+      <c r="Y1045" s="1"/>
+      <c r="Z1045" s="1"/>
+    </row>
+    <row r="1046" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1046" s="1"/>
       <c r="B1046" s="1"/>
       <c r="C1046" s="1"/>
@@ -33155,6 +33346,1254 @@
       <c r="E1046" s="1"/>
       <c r="F1046" s="1"/>
       <c r="G1046" s="1"/>
+      <c r="H1046" s="1"/>
+      <c r="I1046" s="1"/>
+      <c r="J1046" s="1"/>
+      <c r="K1046" s="1"/>
+      <c r="L1046" s="1"/>
+      <c r="M1046" s="1"/>
+      <c r="N1046" s="1"/>
+      <c r="O1046" s="1"/>
+      <c r="P1046" s="1"/>
+      <c r="Q1046" s="1"/>
+      <c r="R1046" s="1"/>
+      <c r="S1046" s="1"/>
+      <c r="T1046" s="1"/>
+      <c r="U1046" s="1"/>
+      <c r="V1046" s="1"/>
+      <c r="W1046" s="1"/>
+      <c r="X1046" s="1"/>
+      <c r="Y1046" s="1"/>
+      <c r="Z1046" s="1"/>
+    </row>
+    <row r="1047" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1047" s="1"/>
+      <c r="B1047" s="1"/>
+      <c r="C1047" s="1"/>
+      <c r="D1047" s="1"/>
+      <c r="E1047" s="1"/>
+      <c r="F1047" s="1"/>
+      <c r="G1047" s="1"/>
+      <c r="H1047" s="1"/>
+      <c r="I1047" s="1"/>
+      <c r="J1047" s="1"/>
+      <c r="K1047" s="1"/>
+      <c r="L1047" s="1"/>
+      <c r="M1047" s="1"/>
+      <c r="N1047" s="1"/>
+      <c r="O1047" s="1"/>
+      <c r="P1047" s="1"/>
+      <c r="Q1047" s="1"/>
+      <c r="R1047" s="1"/>
+      <c r="S1047" s="1"/>
+      <c r="T1047" s="1"/>
+      <c r="U1047" s="1"/>
+      <c r="V1047" s="1"/>
+      <c r="W1047" s="1"/>
+      <c r="X1047" s="1"/>
+      <c r="Y1047" s="1"/>
+      <c r="Z1047" s="1"/>
+    </row>
+    <row r="1048" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1048" s="1"/>
+      <c r="B1048" s="1"/>
+      <c r="C1048" s="1"/>
+      <c r="D1048" s="1"/>
+      <c r="E1048" s="1"/>
+      <c r="F1048" s="1"/>
+      <c r="G1048" s="1"/>
+      <c r="H1048" s="1"/>
+      <c r="I1048" s="1"/>
+      <c r="J1048" s="1"/>
+      <c r="K1048" s="1"/>
+      <c r="L1048" s="1"/>
+      <c r="M1048" s="1"/>
+      <c r="N1048" s="1"/>
+      <c r="O1048" s="1"/>
+      <c r="P1048" s="1"/>
+      <c r="Q1048" s="1"/>
+      <c r="R1048" s="1"/>
+      <c r="S1048" s="1"/>
+      <c r="T1048" s="1"/>
+      <c r="U1048" s="1"/>
+      <c r="V1048" s="1"/>
+      <c r="W1048" s="1"/>
+      <c r="X1048" s="1"/>
+      <c r="Y1048" s="1"/>
+      <c r="Z1048" s="1"/>
+    </row>
+    <row r="1049" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1049" s="1"/>
+      <c r="B1049" s="1"/>
+      <c r="C1049" s="1"/>
+      <c r="D1049" s="1"/>
+      <c r="E1049" s="1"/>
+      <c r="F1049" s="1"/>
+      <c r="G1049" s="1"/>
+      <c r="H1049" s="1"/>
+      <c r="I1049" s="1"/>
+      <c r="J1049" s="1"/>
+      <c r="K1049" s="1"/>
+      <c r="L1049" s="1"/>
+      <c r="M1049" s="1"/>
+      <c r="N1049" s="1"/>
+      <c r="O1049" s="1"/>
+      <c r="P1049" s="1"/>
+      <c r="Q1049" s="1"/>
+      <c r="R1049" s="1"/>
+      <c r="S1049" s="1"/>
+      <c r="T1049" s="1"/>
+      <c r="U1049" s="1"/>
+      <c r="V1049" s="1"/>
+      <c r="W1049" s="1"/>
+      <c r="X1049" s="1"/>
+      <c r="Y1049" s="1"/>
+      <c r="Z1049" s="1"/>
+    </row>
+    <row r="1050" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1050" s="1"/>
+      <c r="B1050" s="1"/>
+      <c r="C1050" s="1"/>
+      <c r="D1050" s="1"/>
+      <c r="E1050" s="1"/>
+      <c r="F1050" s="1"/>
+      <c r="G1050" s="1"/>
+      <c r="H1050" s="1"/>
+      <c r="I1050" s="1"/>
+      <c r="J1050" s="1"/>
+      <c r="K1050" s="1"/>
+      <c r="L1050" s="1"/>
+      <c r="M1050" s="1"/>
+      <c r="N1050" s="1"/>
+      <c r="O1050" s="1"/>
+      <c r="P1050" s="1"/>
+      <c r="Q1050" s="1"/>
+      <c r="R1050" s="1"/>
+      <c r="S1050" s="1"/>
+      <c r="T1050" s="1"/>
+      <c r="U1050" s="1"/>
+      <c r="V1050" s="1"/>
+      <c r="W1050" s="1"/>
+      <c r="X1050" s="1"/>
+      <c r="Y1050" s="1"/>
+      <c r="Z1050" s="1"/>
+    </row>
+    <row r="1051" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1051" s="1"/>
+      <c r="B1051" s="1"/>
+      <c r="C1051" s="1"/>
+      <c r="D1051" s="1"/>
+      <c r="E1051" s="1"/>
+      <c r="F1051" s="1"/>
+      <c r="G1051" s="1"/>
+      <c r="H1051" s="1"/>
+      <c r="I1051" s="1"/>
+      <c r="J1051" s="1"/>
+      <c r="K1051" s="1"/>
+      <c r="L1051" s="1"/>
+      <c r="M1051" s="1"/>
+      <c r="N1051" s="1"/>
+      <c r="O1051" s="1"/>
+      <c r="P1051" s="1"/>
+      <c r="Q1051" s="1"/>
+      <c r="R1051" s="1"/>
+      <c r="S1051" s="1"/>
+      <c r="T1051" s="1"/>
+      <c r="U1051" s="1"/>
+      <c r="V1051" s="1"/>
+      <c r="W1051" s="1"/>
+      <c r="X1051" s="1"/>
+      <c r="Y1051" s="1"/>
+      <c r="Z1051" s="1"/>
+    </row>
+    <row r="1052" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1052" s="1"/>
+      <c r="B1052" s="1"/>
+      <c r="C1052" s="1"/>
+      <c r="D1052" s="1"/>
+      <c r="E1052" s="1"/>
+      <c r="F1052" s="1"/>
+      <c r="G1052" s="1"/>
+      <c r="H1052" s="1"/>
+      <c r="I1052" s="1"/>
+      <c r="J1052" s="1"/>
+      <c r="K1052" s="1"/>
+      <c r="L1052" s="1"/>
+      <c r="M1052" s="1"/>
+      <c r="N1052" s="1"/>
+      <c r="O1052" s="1"/>
+      <c r="P1052" s="1"/>
+      <c r="Q1052" s="1"/>
+      <c r="R1052" s="1"/>
+      <c r="S1052" s="1"/>
+      <c r="T1052" s="1"/>
+      <c r="U1052" s="1"/>
+      <c r="V1052" s="1"/>
+      <c r="W1052" s="1"/>
+      <c r="X1052" s="1"/>
+      <c r="Y1052" s="1"/>
+      <c r="Z1052" s="1"/>
+    </row>
+    <row r="1053" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1053" s="1"/>
+      <c r="B1053" s="1"/>
+      <c r="C1053" s="1"/>
+      <c r="D1053" s="1"/>
+      <c r="E1053" s="1"/>
+      <c r="F1053" s="1"/>
+      <c r="G1053" s="1"/>
+      <c r="H1053" s="1"/>
+      <c r="I1053" s="1"/>
+      <c r="J1053" s="1"/>
+      <c r="K1053" s="1"/>
+      <c r="L1053" s="1"/>
+      <c r="M1053" s="1"/>
+      <c r="N1053" s="1"/>
+      <c r="O1053" s="1"/>
+      <c r="P1053" s="1"/>
+      <c r="Q1053" s="1"/>
+      <c r="R1053" s="1"/>
+      <c r="S1053" s="1"/>
+      <c r="T1053" s="1"/>
+      <c r="U1053" s="1"/>
+      <c r="V1053" s="1"/>
+      <c r="W1053" s="1"/>
+      <c r="X1053" s="1"/>
+      <c r="Y1053" s="1"/>
+      <c r="Z1053" s="1"/>
+    </row>
+    <row r="1054" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1054" s="1"/>
+      <c r="B1054" s="1"/>
+      <c r="C1054" s="1"/>
+      <c r="D1054" s="1"/>
+      <c r="E1054" s="1"/>
+      <c r="F1054" s="1"/>
+      <c r="G1054" s="1"/>
+      <c r="H1054" s="1"/>
+      <c r="I1054" s="1"/>
+      <c r="J1054" s="1"/>
+      <c r="K1054" s="1"/>
+      <c r="L1054" s="1"/>
+      <c r="M1054" s="1"/>
+      <c r="N1054" s="1"/>
+      <c r="O1054" s="1"/>
+      <c r="P1054" s="1"/>
+      <c r="Q1054" s="1"/>
+      <c r="R1054" s="1"/>
+      <c r="S1054" s="1"/>
+      <c r="T1054" s="1"/>
+      <c r="U1054" s="1"/>
+      <c r="V1054" s="1"/>
+      <c r="W1054" s="1"/>
+      <c r="X1054" s="1"/>
+      <c r="Y1054" s="1"/>
+      <c r="Z1054" s="1"/>
+    </row>
+    <row r="1055" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1055" s="1"/>
+      <c r="B1055" s="1"/>
+      <c r="C1055" s="1"/>
+      <c r="D1055" s="1"/>
+      <c r="E1055" s="1"/>
+      <c r="F1055" s="1"/>
+      <c r="G1055" s="1"/>
+      <c r="H1055" s="1"/>
+      <c r="I1055" s="1"/>
+      <c r="J1055" s="1"/>
+      <c r="K1055" s="1"/>
+      <c r="L1055" s="1"/>
+      <c r="M1055" s="1"/>
+      <c r="N1055" s="1"/>
+      <c r="O1055" s="1"/>
+      <c r="P1055" s="1"/>
+      <c r="Q1055" s="1"/>
+      <c r="R1055" s="1"/>
+      <c r="S1055" s="1"/>
+      <c r="T1055" s="1"/>
+      <c r="U1055" s="1"/>
+      <c r="V1055" s="1"/>
+      <c r="W1055" s="1"/>
+      <c r="X1055" s="1"/>
+      <c r="Y1055" s="1"/>
+      <c r="Z1055" s="1"/>
+    </row>
+    <row r="1056" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1056" s="1"/>
+      <c r="B1056" s="1"/>
+      <c r="C1056" s="1"/>
+      <c r="D1056" s="1"/>
+      <c r="E1056" s="1"/>
+      <c r="F1056" s="1"/>
+      <c r="G1056" s="1"/>
+      <c r="H1056" s="1"/>
+      <c r="I1056" s="1"/>
+      <c r="J1056" s="1"/>
+      <c r="K1056" s="1"/>
+      <c r="L1056" s="1"/>
+      <c r="M1056" s="1"/>
+      <c r="N1056" s="1"/>
+      <c r="O1056" s="1"/>
+      <c r="P1056" s="1"/>
+      <c r="Q1056" s="1"/>
+      <c r="R1056" s="1"/>
+      <c r="S1056" s="1"/>
+      <c r="T1056" s="1"/>
+      <c r="U1056" s="1"/>
+      <c r="V1056" s="1"/>
+      <c r="W1056" s="1"/>
+      <c r="X1056" s="1"/>
+      <c r="Y1056" s="1"/>
+      <c r="Z1056" s="1"/>
+    </row>
+    <row r="1057" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1057" s="1"/>
+      <c r="B1057" s="1"/>
+      <c r="C1057" s="1"/>
+      <c r="D1057" s="1"/>
+      <c r="E1057" s="1"/>
+      <c r="F1057" s="1"/>
+      <c r="G1057" s="1"/>
+      <c r="H1057" s="1"/>
+      <c r="I1057" s="1"/>
+      <c r="J1057" s="1"/>
+      <c r="K1057" s="1"/>
+      <c r="L1057" s="1"/>
+      <c r="M1057" s="1"/>
+      <c r="N1057" s="1"/>
+      <c r="O1057" s="1"/>
+      <c r="P1057" s="1"/>
+      <c r="Q1057" s="1"/>
+      <c r="R1057" s="1"/>
+      <c r="S1057" s="1"/>
+      <c r="T1057" s="1"/>
+      <c r="U1057" s="1"/>
+      <c r="V1057" s="1"/>
+      <c r="W1057" s="1"/>
+      <c r="X1057" s="1"/>
+      <c r="Y1057" s="1"/>
+      <c r="Z1057" s="1"/>
+    </row>
+    <row r="1058" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1058" s="1"/>
+      <c r="B1058" s="1"/>
+      <c r="C1058" s="1"/>
+      <c r="D1058" s="1"/>
+      <c r="E1058" s="1"/>
+      <c r="F1058" s="1"/>
+      <c r="G1058" s="1"/>
+      <c r="H1058" s="1"/>
+      <c r="I1058" s="1"/>
+      <c r="J1058" s="1"/>
+      <c r="K1058" s="1"/>
+      <c r="L1058" s="1"/>
+      <c r="M1058" s="1"/>
+      <c r="N1058" s="1"/>
+      <c r="O1058" s="1"/>
+      <c r="P1058" s="1"/>
+      <c r="Q1058" s="1"/>
+      <c r="R1058" s="1"/>
+      <c r="S1058" s="1"/>
+      <c r="T1058" s="1"/>
+      <c r="U1058" s="1"/>
+      <c r="V1058" s="1"/>
+      <c r="W1058" s="1"/>
+      <c r="X1058" s="1"/>
+      <c r="Y1058" s="1"/>
+      <c r="Z1058" s="1"/>
+    </row>
+    <row r="1059" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1059" s="1"/>
+      <c r="B1059" s="1"/>
+      <c r="C1059" s="1"/>
+      <c r="D1059" s="1"/>
+      <c r="E1059" s="1"/>
+      <c r="F1059" s="1"/>
+      <c r="G1059" s="1"/>
+      <c r="H1059" s="1"/>
+      <c r="I1059" s="1"/>
+      <c r="J1059" s="1"/>
+      <c r="K1059" s="1"/>
+      <c r="L1059" s="1"/>
+      <c r="M1059" s="1"/>
+      <c r="N1059" s="1"/>
+      <c r="O1059" s="1"/>
+      <c r="P1059" s="1"/>
+      <c r="Q1059" s="1"/>
+      <c r="R1059" s="1"/>
+      <c r="S1059" s="1"/>
+      <c r="T1059" s="1"/>
+      <c r="U1059" s="1"/>
+      <c r="V1059" s="1"/>
+      <c r="W1059" s="1"/>
+      <c r="X1059" s="1"/>
+      <c r="Y1059" s="1"/>
+      <c r="Z1059" s="1"/>
+    </row>
+    <row r="1060" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1060" s="1"/>
+      <c r="B1060" s="1"/>
+      <c r="C1060" s="1"/>
+      <c r="D1060" s="1"/>
+      <c r="E1060" s="1"/>
+      <c r="F1060" s="1"/>
+      <c r="G1060" s="1"/>
+      <c r="H1060" s="1"/>
+      <c r="I1060" s="1"/>
+      <c r="J1060" s="1"/>
+      <c r="K1060" s="1"/>
+      <c r="L1060" s="1"/>
+      <c r="M1060" s="1"/>
+      <c r="N1060" s="1"/>
+      <c r="O1060" s="1"/>
+      <c r="P1060" s="1"/>
+      <c r="Q1060" s="1"/>
+      <c r="R1060" s="1"/>
+      <c r="S1060" s="1"/>
+      <c r="T1060" s="1"/>
+      <c r="U1060" s="1"/>
+      <c r="V1060" s="1"/>
+      <c r="W1060" s="1"/>
+      <c r="X1060" s="1"/>
+      <c r="Y1060" s="1"/>
+      <c r="Z1060" s="1"/>
+    </row>
+    <row r="1061" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1061" s="1"/>
+      <c r="B1061" s="1"/>
+      <c r="C1061" s="1"/>
+      <c r="D1061" s="1"/>
+      <c r="E1061" s="1"/>
+      <c r="F1061" s="1"/>
+      <c r="G1061" s="1"/>
+      <c r="H1061" s="1"/>
+      <c r="I1061" s="1"/>
+      <c r="J1061" s="1"/>
+      <c r="K1061" s="1"/>
+      <c r="L1061" s="1"/>
+      <c r="M1061" s="1"/>
+      <c r="N1061" s="1"/>
+      <c r="O1061" s="1"/>
+      <c r="P1061" s="1"/>
+      <c r="Q1061" s="1"/>
+      <c r="R1061" s="1"/>
+      <c r="S1061" s="1"/>
+      <c r="T1061" s="1"/>
+      <c r="U1061" s="1"/>
+      <c r="V1061" s="1"/>
+      <c r="W1061" s="1"/>
+      <c r="X1061" s="1"/>
+      <c r="Y1061" s="1"/>
+      <c r="Z1061" s="1"/>
+    </row>
+    <row r="1062" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1062" s="1"/>
+      <c r="B1062" s="1"/>
+      <c r="C1062" s="1"/>
+      <c r="D1062" s="1"/>
+      <c r="E1062" s="1"/>
+      <c r="F1062" s="1"/>
+      <c r="G1062" s="1"/>
+      <c r="H1062" s="1"/>
+      <c r="I1062" s="1"/>
+      <c r="J1062" s="1"/>
+      <c r="K1062" s="1"/>
+      <c r="L1062" s="1"/>
+      <c r="M1062" s="1"/>
+      <c r="N1062" s="1"/>
+      <c r="O1062" s="1"/>
+      <c r="P1062" s="1"/>
+      <c r="Q1062" s="1"/>
+      <c r="R1062" s="1"/>
+      <c r="S1062" s="1"/>
+      <c r="T1062" s="1"/>
+      <c r="U1062" s="1"/>
+      <c r="V1062" s="1"/>
+      <c r="W1062" s="1"/>
+      <c r="X1062" s="1"/>
+      <c r="Y1062" s="1"/>
+      <c r="Z1062" s="1"/>
+    </row>
+    <row r="1063" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1063" s="1"/>
+      <c r="B1063" s="1"/>
+      <c r="C1063" s="1"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="1"/>
+      <c r="F1063" s="1"/>
+      <c r="G1063" s="1"/>
+      <c r="H1063" s="1"/>
+      <c r="I1063" s="1"/>
+      <c r="J1063" s="1"/>
+      <c r="K1063" s="1"/>
+      <c r="L1063" s="1"/>
+      <c r="M1063" s="1"/>
+      <c r="N1063" s="1"/>
+      <c r="O1063" s="1"/>
+      <c r="P1063" s="1"/>
+      <c r="Q1063" s="1"/>
+      <c r="R1063" s="1"/>
+      <c r="S1063" s="1"/>
+      <c r="T1063" s="1"/>
+      <c r="U1063" s="1"/>
+      <c r="V1063" s="1"/>
+      <c r="W1063" s="1"/>
+      <c r="X1063" s="1"/>
+      <c r="Y1063" s="1"/>
+      <c r="Z1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1064" s="1"/>
+      <c r="B1064" s="1"/>
+      <c r="C1064" s="1"/>
+      <c r="D1064" s="1"/>
+      <c r="E1064" s="1"/>
+      <c r="F1064" s="1"/>
+      <c r="G1064" s="1"/>
+      <c r="H1064" s="1"/>
+      <c r="I1064" s="1"/>
+      <c r="J1064" s="1"/>
+      <c r="K1064" s="1"/>
+      <c r="L1064" s="1"/>
+      <c r="M1064" s="1"/>
+      <c r="N1064" s="1"/>
+      <c r="O1064" s="1"/>
+      <c r="P1064" s="1"/>
+      <c r="Q1064" s="1"/>
+      <c r="R1064" s="1"/>
+      <c r="S1064" s="1"/>
+      <c r="T1064" s="1"/>
+      <c r="U1064" s="1"/>
+      <c r="V1064" s="1"/>
+      <c r="W1064" s="1"/>
+      <c r="X1064" s="1"/>
+      <c r="Y1064" s="1"/>
+      <c r="Z1064" s="1"/>
+    </row>
+    <row r="1065" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1065" s="1"/>
+      <c r="B1065" s="1"/>
+      <c r="C1065" s="1"/>
+      <c r="D1065" s="1"/>
+      <c r="E1065" s="1"/>
+      <c r="F1065" s="1"/>
+      <c r="G1065" s="1"/>
+      <c r="H1065" s="1"/>
+      <c r="I1065" s="1"/>
+      <c r="J1065" s="1"/>
+      <c r="K1065" s="1"/>
+      <c r="L1065" s="1"/>
+      <c r="M1065" s="1"/>
+      <c r="N1065" s="1"/>
+      <c r="O1065" s="1"/>
+      <c r="P1065" s="1"/>
+      <c r="Q1065" s="1"/>
+      <c r="R1065" s="1"/>
+      <c r="S1065" s="1"/>
+      <c r="T1065" s="1"/>
+      <c r="U1065" s="1"/>
+      <c r="V1065" s="1"/>
+      <c r="W1065" s="1"/>
+      <c r="X1065" s="1"/>
+      <c r="Y1065" s="1"/>
+      <c r="Z1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1066" s="1"/>
+      <c r="B1066" s="1"/>
+      <c r="C1066" s="1"/>
+      <c r="D1066" s="1"/>
+      <c r="E1066" s="1"/>
+      <c r="F1066" s="1"/>
+      <c r="G1066" s="1"/>
+      <c r="H1066" s="1"/>
+      <c r="I1066" s="1"/>
+      <c r="J1066" s="1"/>
+      <c r="K1066" s="1"/>
+      <c r="L1066" s="1"/>
+      <c r="M1066" s="1"/>
+      <c r="N1066" s="1"/>
+      <c r="O1066" s="1"/>
+      <c r="P1066" s="1"/>
+      <c r="Q1066" s="1"/>
+      <c r="R1066" s="1"/>
+      <c r="S1066" s="1"/>
+      <c r="T1066" s="1"/>
+      <c r="U1066" s="1"/>
+      <c r="V1066" s="1"/>
+      <c r="W1066" s="1"/>
+      <c r="X1066" s="1"/>
+      <c r="Y1066" s="1"/>
+      <c r="Z1066" s="1"/>
+    </row>
+    <row r="1067" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1067" s="1"/>
+      <c r="B1067" s="1"/>
+      <c r="C1067" s="1"/>
+      <c r="D1067" s="1"/>
+      <c r="E1067" s="1"/>
+      <c r="F1067" s="1"/>
+      <c r="G1067" s="1"/>
+      <c r="H1067" s="1"/>
+      <c r="I1067" s="1"/>
+      <c r="J1067" s="1"/>
+      <c r="K1067" s="1"/>
+      <c r="L1067" s="1"/>
+      <c r="M1067" s="1"/>
+      <c r="N1067" s="1"/>
+      <c r="O1067" s="1"/>
+      <c r="P1067" s="1"/>
+      <c r="Q1067" s="1"/>
+      <c r="R1067" s="1"/>
+      <c r="S1067" s="1"/>
+      <c r="T1067" s="1"/>
+      <c r="U1067" s="1"/>
+      <c r="V1067" s="1"/>
+      <c r="W1067" s="1"/>
+      <c r="X1067" s="1"/>
+      <c r="Y1067" s="1"/>
+      <c r="Z1067" s="1"/>
+    </row>
+    <row r="1068" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1068" s="1"/>
+      <c r="B1068" s="1"/>
+      <c r="C1068" s="1"/>
+      <c r="D1068" s="1"/>
+      <c r="E1068" s="1"/>
+      <c r="F1068" s="1"/>
+      <c r="G1068" s="1"/>
+      <c r="H1068" s="1"/>
+      <c r="I1068" s="1"/>
+      <c r="J1068" s="1"/>
+      <c r="K1068" s="1"/>
+      <c r="L1068" s="1"/>
+      <c r="M1068" s="1"/>
+      <c r="N1068" s="1"/>
+      <c r="O1068" s="1"/>
+      <c r="P1068" s="1"/>
+      <c r="Q1068" s="1"/>
+      <c r="R1068" s="1"/>
+      <c r="S1068" s="1"/>
+      <c r="T1068" s="1"/>
+      <c r="U1068" s="1"/>
+      <c r="V1068" s="1"/>
+      <c r="W1068" s="1"/>
+      <c r="X1068" s="1"/>
+      <c r="Y1068" s="1"/>
+      <c r="Z1068" s="1"/>
+    </row>
+    <row r="1069" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1069" s="1"/>
+      <c r="B1069" s="1"/>
+      <c r="C1069" s="1"/>
+      <c r="D1069" s="1"/>
+      <c r="E1069" s="1"/>
+      <c r="F1069" s="1"/>
+      <c r="G1069" s="1"/>
+      <c r="H1069" s="1"/>
+      <c r="I1069" s="1"/>
+      <c r="J1069" s="1"/>
+      <c r="K1069" s="1"/>
+      <c r="L1069" s="1"/>
+      <c r="M1069" s="1"/>
+      <c r="N1069" s="1"/>
+      <c r="O1069" s="1"/>
+      <c r="P1069" s="1"/>
+      <c r="Q1069" s="1"/>
+      <c r="R1069" s="1"/>
+      <c r="S1069" s="1"/>
+      <c r="T1069" s="1"/>
+      <c r="U1069" s="1"/>
+      <c r="V1069" s="1"/>
+      <c r="W1069" s="1"/>
+      <c r="X1069" s="1"/>
+      <c r="Y1069" s="1"/>
+      <c r="Z1069" s="1"/>
+    </row>
+    <row r="1070" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1070" s="1"/>
+      <c r="B1070" s="1"/>
+      <c r="C1070" s="1"/>
+      <c r="D1070" s="1"/>
+      <c r="E1070" s="1"/>
+      <c r="F1070" s="1"/>
+      <c r="G1070" s="1"/>
+      <c r="H1070" s="1"/>
+      <c r="I1070" s="1"/>
+      <c r="J1070" s="1"/>
+      <c r="K1070" s="1"/>
+      <c r="L1070" s="1"/>
+      <c r="M1070" s="1"/>
+      <c r="N1070" s="1"/>
+      <c r="O1070" s="1"/>
+      <c r="P1070" s="1"/>
+      <c r="Q1070" s="1"/>
+      <c r="R1070" s="1"/>
+      <c r="S1070" s="1"/>
+      <c r="T1070" s="1"/>
+      <c r="U1070" s="1"/>
+      <c r="V1070" s="1"/>
+      <c r="W1070" s="1"/>
+      <c r="X1070" s="1"/>
+      <c r="Y1070" s="1"/>
+      <c r="Z1070" s="1"/>
+    </row>
+    <row r="1071" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1071" s="1"/>
+      <c r="B1071" s="1"/>
+      <c r="C1071" s="1"/>
+      <c r="D1071" s="1"/>
+      <c r="E1071" s="1"/>
+      <c r="F1071" s="1"/>
+      <c r="G1071" s="1"/>
+      <c r="H1071" s="1"/>
+      <c r="I1071" s="1"/>
+      <c r="J1071" s="1"/>
+      <c r="K1071" s="1"/>
+      <c r="L1071" s="1"/>
+      <c r="M1071" s="1"/>
+      <c r="N1071" s="1"/>
+      <c r="O1071" s="1"/>
+      <c r="P1071" s="1"/>
+      <c r="Q1071" s="1"/>
+      <c r="R1071" s="1"/>
+      <c r="S1071" s="1"/>
+      <c r="T1071" s="1"/>
+      <c r="U1071" s="1"/>
+      <c r="V1071" s="1"/>
+      <c r="W1071" s="1"/>
+      <c r="X1071" s="1"/>
+      <c r="Y1071" s="1"/>
+      <c r="Z1071" s="1"/>
+    </row>
+    <row r="1072" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1072" s="1"/>
+      <c r="B1072" s="1"/>
+      <c r="C1072" s="1"/>
+      <c r="D1072" s="1"/>
+      <c r="E1072" s="1"/>
+      <c r="F1072" s="1"/>
+      <c r="G1072" s="1"/>
+      <c r="H1072" s="1"/>
+      <c r="I1072" s="1"/>
+      <c r="J1072" s="1"/>
+      <c r="K1072" s="1"/>
+      <c r="L1072" s="1"/>
+      <c r="M1072" s="1"/>
+      <c r="N1072" s="1"/>
+      <c r="O1072" s="1"/>
+      <c r="P1072" s="1"/>
+      <c r="Q1072" s="1"/>
+      <c r="R1072" s="1"/>
+      <c r="S1072" s="1"/>
+      <c r="T1072" s="1"/>
+      <c r="U1072" s="1"/>
+      <c r="V1072" s="1"/>
+      <c r="W1072" s="1"/>
+      <c r="X1072" s="1"/>
+      <c r="Y1072" s="1"/>
+      <c r="Z1072" s="1"/>
+    </row>
+    <row r="1073" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1073" s="1"/>
+      <c r="B1073" s="1"/>
+      <c r="C1073" s="1"/>
+      <c r="D1073" s="1"/>
+      <c r="E1073" s="1"/>
+      <c r="F1073" s="1"/>
+      <c r="G1073" s="1"/>
+      <c r="H1073" s="1"/>
+      <c r="I1073" s="1"/>
+      <c r="J1073" s="1"/>
+      <c r="K1073" s="1"/>
+      <c r="L1073" s="1"/>
+      <c r="M1073" s="1"/>
+      <c r="N1073" s="1"/>
+      <c r="O1073" s="1"/>
+      <c r="P1073" s="1"/>
+      <c r="Q1073" s="1"/>
+      <c r="R1073" s="1"/>
+      <c r="S1073" s="1"/>
+      <c r="T1073" s="1"/>
+      <c r="U1073" s="1"/>
+      <c r="V1073" s="1"/>
+      <c r="W1073" s="1"/>
+      <c r="X1073" s="1"/>
+      <c r="Y1073" s="1"/>
+      <c r="Z1073" s="1"/>
+    </row>
+    <row r="1074" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1074" s="1"/>
+      <c r="B1074" s="1"/>
+      <c r="C1074" s="1"/>
+      <c r="D1074" s="1"/>
+      <c r="E1074" s="1"/>
+      <c r="F1074" s="1"/>
+      <c r="G1074" s="1"/>
+      <c r="H1074" s="1"/>
+      <c r="I1074" s="1"/>
+      <c r="J1074" s="1"/>
+      <c r="K1074" s="1"/>
+      <c r="L1074" s="1"/>
+      <c r="M1074" s="1"/>
+      <c r="N1074" s="1"/>
+      <c r="O1074" s="1"/>
+      <c r="P1074" s="1"/>
+      <c r="Q1074" s="1"/>
+      <c r="R1074" s="1"/>
+      <c r="S1074" s="1"/>
+      <c r="T1074" s="1"/>
+      <c r="U1074" s="1"/>
+      <c r="V1074" s="1"/>
+      <c r="W1074" s="1"/>
+      <c r="X1074" s="1"/>
+      <c r="Y1074" s="1"/>
+      <c r="Z1074" s="1"/>
+    </row>
+    <row r="1075" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1075" s="1"/>
+      <c r="B1075" s="1"/>
+      <c r="C1075" s="1"/>
+      <c r="D1075" s="1"/>
+      <c r="E1075" s="1"/>
+      <c r="F1075" s="1"/>
+      <c r="G1075" s="1"/>
+      <c r="H1075" s="1"/>
+      <c r="I1075" s="1"/>
+      <c r="J1075" s="1"/>
+      <c r="K1075" s="1"/>
+      <c r="L1075" s="1"/>
+      <c r="M1075" s="1"/>
+      <c r="N1075" s="1"/>
+      <c r="O1075" s="1"/>
+      <c r="P1075" s="1"/>
+      <c r="Q1075" s="1"/>
+      <c r="R1075" s="1"/>
+      <c r="S1075" s="1"/>
+      <c r="T1075" s="1"/>
+      <c r="U1075" s="1"/>
+      <c r="V1075" s="1"/>
+      <c r="W1075" s="1"/>
+      <c r="X1075" s="1"/>
+      <c r="Y1075" s="1"/>
+      <c r="Z1075" s="1"/>
+    </row>
+    <row r="1076" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1076" s="1"/>
+      <c r="B1076" s="1"/>
+      <c r="C1076" s="1"/>
+      <c r="D1076" s="1"/>
+      <c r="E1076" s="1"/>
+      <c r="F1076" s="1"/>
+      <c r="G1076" s="1"/>
+      <c r="H1076" s="1"/>
+      <c r="I1076" s="1"/>
+      <c r="J1076" s="1"/>
+      <c r="K1076" s="1"/>
+      <c r="L1076" s="1"/>
+      <c r="M1076" s="1"/>
+      <c r="N1076" s="1"/>
+      <c r="O1076" s="1"/>
+      <c r="P1076" s="1"/>
+      <c r="Q1076" s="1"/>
+      <c r="R1076" s="1"/>
+      <c r="S1076" s="1"/>
+      <c r="T1076" s="1"/>
+      <c r="U1076" s="1"/>
+      <c r="V1076" s="1"/>
+      <c r="W1076" s="1"/>
+      <c r="X1076" s="1"/>
+      <c r="Y1076" s="1"/>
+      <c r="Z1076" s="1"/>
+    </row>
+    <row r="1077" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1077" s="1"/>
+      <c r="B1077" s="1"/>
+      <c r="C1077" s="1"/>
+      <c r="D1077" s="1"/>
+      <c r="E1077" s="1"/>
+      <c r="F1077" s="1"/>
+      <c r="G1077" s="1"/>
+      <c r="H1077" s="1"/>
+      <c r="I1077" s="1"/>
+      <c r="J1077" s="1"/>
+      <c r="K1077" s="1"/>
+      <c r="L1077" s="1"/>
+      <c r="M1077" s="1"/>
+      <c r="N1077" s="1"/>
+      <c r="O1077" s="1"/>
+      <c r="P1077" s="1"/>
+      <c r="Q1077" s="1"/>
+      <c r="R1077" s="1"/>
+      <c r="S1077" s="1"/>
+      <c r="T1077" s="1"/>
+      <c r="U1077" s="1"/>
+      <c r="V1077" s="1"/>
+      <c r="W1077" s="1"/>
+      <c r="X1077" s="1"/>
+      <c r="Y1077" s="1"/>
+      <c r="Z1077" s="1"/>
+    </row>
+    <row r="1078" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1078" s="1"/>
+      <c r="B1078" s="1"/>
+      <c r="C1078" s="1"/>
+      <c r="D1078" s="1"/>
+      <c r="E1078" s="1"/>
+      <c r="F1078" s="1"/>
+      <c r="G1078" s="1"/>
+      <c r="H1078" s="1"/>
+      <c r="I1078" s="1"/>
+      <c r="J1078" s="1"/>
+      <c r="K1078" s="1"/>
+      <c r="L1078" s="1"/>
+      <c r="M1078" s="1"/>
+      <c r="N1078" s="1"/>
+      <c r="O1078" s="1"/>
+      <c r="P1078" s="1"/>
+      <c r="Q1078" s="1"/>
+      <c r="R1078" s="1"/>
+      <c r="S1078" s="1"/>
+      <c r="T1078" s="1"/>
+      <c r="U1078" s="1"/>
+      <c r="V1078" s="1"/>
+      <c r="W1078" s="1"/>
+      <c r="X1078" s="1"/>
+      <c r="Y1078" s="1"/>
+      <c r="Z1078" s="1"/>
+    </row>
+    <row r="1079" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1079" s="1"/>
+      <c r="B1079" s="1"/>
+      <c r="C1079" s="1"/>
+      <c r="D1079" s="1"/>
+      <c r="E1079" s="1"/>
+      <c r="F1079" s="1"/>
+      <c r="G1079" s="1"/>
+      <c r="H1079" s="1"/>
+      <c r="I1079" s="1"/>
+      <c r="J1079" s="1"/>
+      <c r="K1079" s="1"/>
+      <c r="L1079" s="1"/>
+      <c r="M1079" s="1"/>
+      <c r="N1079" s="1"/>
+      <c r="O1079" s="1"/>
+      <c r="P1079" s="1"/>
+      <c r="Q1079" s="1"/>
+      <c r="R1079" s="1"/>
+      <c r="S1079" s="1"/>
+      <c r="T1079" s="1"/>
+      <c r="U1079" s="1"/>
+      <c r="V1079" s="1"/>
+      <c r="W1079" s="1"/>
+      <c r="X1079" s="1"/>
+      <c r="Y1079" s="1"/>
+      <c r="Z1079" s="1"/>
+    </row>
+    <row r="1080" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1080" s="1"/>
+      <c r="B1080" s="1"/>
+      <c r="C1080" s="1"/>
+      <c r="D1080" s="1"/>
+      <c r="E1080" s="1"/>
+      <c r="F1080" s="1"/>
+      <c r="G1080" s="1"/>
+      <c r="H1080" s="1"/>
+      <c r="I1080" s="1"/>
+      <c r="J1080" s="1"/>
+      <c r="K1080" s="1"/>
+      <c r="L1080" s="1"/>
+      <c r="M1080" s="1"/>
+      <c r="N1080" s="1"/>
+      <c r="O1080" s="1"/>
+      <c r="P1080" s="1"/>
+      <c r="Q1080" s="1"/>
+      <c r="R1080" s="1"/>
+      <c r="S1080" s="1"/>
+      <c r="T1080" s="1"/>
+      <c r="U1080" s="1"/>
+      <c r="V1080" s="1"/>
+      <c r="W1080" s="1"/>
+      <c r="X1080" s="1"/>
+      <c r="Y1080" s="1"/>
+      <c r="Z1080" s="1"/>
+    </row>
+    <row r="1081" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1081" s="1"/>
+      <c r="B1081" s="1"/>
+      <c r="C1081" s="1"/>
+      <c r="D1081" s="1"/>
+      <c r="E1081" s="1"/>
+      <c r="F1081" s="1"/>
+      <c r="G1081" s="1"/>
+      <c r="H1081" s="1"/>
+      <c r="I1081" s="1"/>
+      <c r="J1081" s="1"/>
+      <c r="K1081" s="1"/>
+      <c r="L1081" s="1"/>
+      <c r="M1081" s="1"/>
+      <c r="N1081" s="1"/>
+      <c r="O1081" s="1"/>
+      <c r="P1081" s="1"/>
+      <c r="Q1081" s="1"/>
+      <c r="R1081" s="1"/>
+      <c r="S1081" s="1"/>
+      <c r="T1081" s="1"/>
+      <c r="U1081" s="1"/>
+      <c r="V1081" s="1"/>
+      <c r="W1081" s="1"/>
+      <c r="X1081" s="1"/>
+      <c r="Y1081" s="1"/>
+      <c r="Z1081" s="1"/>
+    </row>
+    <row r="1082" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1082" s="1"/>
+      <c r="B1082" s="1"/>
+      <c r="C1082" s="1"/>
+      <c r="D1082" s="1"/>
+      <c r="E1082" s="1"/>
+      <c r="F1082" s="1"/>
+      <c r="G1082" s="1"/>
+      <c r="H1082" s="1"/>
+      <c r="I1082" s="1"/>
+      <c r="J1082" s="1"/>
+      <c r="K1082" s="1"/>
+      <c r="L1082" s="1"/>
+      <c r="M1082" s="1"/>
+      <c r="N1082" s="1"/>
+      <c r="O1082" s="1"/>
+      <c r="P1082" s="1"/>
+      <c r="Q1082" s="1"/>
+      <c r="R1082" s="1"/>
+      <c r="S1082" s="1"/>
+      <c r="T1082" s="1"/>
+      <c r="U1082" s="1"/>
+      <c r="V1082" s="1"/>
+      <c r="W1082" s="1"/>
+      <c r="X1082" s="1"/>
+      <c r="Y1082" s="1"/>
+      <c r="Z1082" s="1"/>
+    </row>
+    <row r="1083" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1083" s="1"/>
+      <c r="B1083" s="1"/>
+      <c r="C1083" s="1"/>
+      <c r="D1083" s="1"/>
+      <c r="E1083" s="1"/>
+      <c r="F1083" s="1"/>
+      <c r="G1083" s="1"/>
+      <c r="H1083" s="1"/>
+      <c r="I1083" s="1"/>
+      <c r="J1083" s="1"/>
+      <c r="K1083" s="1"/>
+      <c r="L1083" s="1"/>
+      <c r="M1083" s="1"/>
+      <c r="N1083" s="1"/>
+      <c r="O1083" s="1"/>
+      <c r="P1083" s="1"/>
+      <c r="Q1083" s="1"/>
+      <c r="R1083" s="1"/>
+      <c r="S1083" s="1"/>
+      <c r="T1083" s="1"/>
+      <c r="U1083" s="1"/>
+      <c r="V1083" s="1"/>
+      <c r="W1083" s="1"/>
+      <c r="X1083" s="1"/>
+      <c r="Y1083" s="1"/>
+      <c r="Z1083" s="1"/>
+    </row>
+    <row r="1084" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1084" s="1"/>
+      <c r="B1084" s="1"/>
+      <c r="C1084" s="1"/>
+      <c r="D1084" s="1"/>
+      <c r="E1084" s="1"/>
+      <c r="F1084" s="1"/>
+      <c r="G1084" s="1"/>
+      <c r="H1084" s="1"/>
+      <c r="I1084" s="1"/>
+      <c r="J1084" s="1"/>
+      <c r="K1084" s="1"/>
+      <c r="L1084" s="1"/>
+      <c r="M1084" s="1"/>
+      <c r="N1084" s="1"/>
+      <c r="O1084" s="1"/>
+      <c r="P1084" s="1"/>
+      <c r="Q1084" s="1"/>
+      <c r="R1084" s="1"/>
+      <c r="S1084" s="1"/>
+      <c r="T1084" s="1"/>
+      <c r="U1084" s="1"/>
+      <c r="V1084" s="1"/>
+      <c r="W1084" s="1"/>
+      <c r="X1084" s="1"/>
+      <c r="Y1084" s="1"/>
+      <c r="Z1084" s="1"/>
+    </row>
+    <row r="1085" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1085" s="1"/>
+      <c r="B1085" s="1"/>
+      <c r="C1085" s="1"/>
+      <c r="D1085" s="1"/>
+      <c r="E1085" s="1"/>
+      <c r="F1085" s="1"/>
+      <c r="G1085" s="1"/>
+      <c r="H1085" s="1"/>
+      <c r="I1085" s="1"/>
+      <c r="J1085" s="1"/>
+      <c r="K1085" s="1"/>
+      <c r="L1085" s="1"/>
+      <c r="M1085" s="1"/>
+      <c r="N1085" s="1"/>
+      <c r="O1085" s="1"/>
+      <c r="P1085" s="1"/>
+      <c r="Q1085" s="1"/>
+      <c r="R1085" s="1"/>
+      <c r="S1085" s="1"/>
+      <c r="T1085" s="1"/>
+      <c r="U1085" s="1"/>
+      <c r="V1085" s="1"/>
+      <c r="W1085" s="1"/>
+      <c r="X1085" s="1"/>
+      <c r="Y1085" s="1"/>
+      <c r="Z1085" s="1"/>
+    </row>
+    <row r="1086" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1086" s="1"/>
+      <c r="B1086" s="1"/>
+      <c r="C1086" s="1"/>
+      <c r="D1086" s="1"/>
+      <c r="E1086" s="1"/>
+      <c r="F1086" s="1"/>
+      <c r="G1086" s="1"/>
+      <c r="H1086" s="1"/>
+      <c r="I1086" s="1"/>
+      <c r="J1086" s="1"/>
+      <c r="K1086" s="1"/>
+      <c r="L1086" s="1"/>
+      <c r="M1086" s="1"/>
+      <c r="N1086" s="1"/>
+      <c r="O1086" s="1"/>
+      <c r="P1086" s="1"/>
+      <c r="Q1086" s="1"/>
+      <c r="R1086" s="1"/>
+      <c r="S1086" s="1"/>
+      <c r="T1086" s="1"/>
+      <c r="U1086" s="1"/>
+      <c r="V1086" s="1"/>
+      <c r="W1086" s="1"/>
+      <c r="X1086" s="1"/>
+      <c r="Y1086" s="1"/>
+      <c r="Z1086" s="1"/>
+    </row>
+    <row r="1087" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A1087" s="1"/>
+      <c r="B1087" s="1"/>
+      <c r="C1087" s="1"/>
+      <c r="D1087" s="1"/>
+      <c r="E1087" s="1"/>
+      <c r="F1087" s="1"/>
+      <c r="G1087" s="1"/>
+      <c r="H1087" s="1"/>
+      <c r="I1087" s="1"/>
+      <c r="J1087" s="1"/>
+      <c r="K1087" s="1"/>
+      <c r="L1087" s="1"/>
+      <c r="M1087" s="1"/>
+      <c r="N1087" s="1"/>
+      <c r="O1087" s="1"/>
+      <c r="P1087" s="1"/>
+      <c r="Q1087" s="1"/>
+      <c r="R1087" s="1"/>
+      <c r="S1087" s="1"/>
+      <c r="T1087" s="1"/>
+      <c r="U1087" s="1"/>
+      <c r="V1087" s="1"/>
+      <c r="W1087" s="1"/>
+      <c r="X1087" s="1"/>
+      <c r="Y1087" s="1"/>
+      <c r="Z1087" s="1"/>
+    </row>
+    <row r="1088" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="A1088" s="1"/>
+      <c r="B1088" s="1"/>
+      <c r="C1088" s="1"/>
+      <c r="D1088" s="1"/>
+      <c r="E1088" s="1"/>
+      <c r="F1088" s="1"/>
+      <c r="G1088" s="1"/>
+    </row>
+    <row r="1089" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1089" s="1"/>
+      <c r="B1089" s="1"/>
+      <c r="C1089" s="1"/>
+      <c r="D1089" s="1"/>
+      <c r="E1089" s="1"/>
+      <c r="F1089" s="1"/>
+      <c r="G1089" s="1"/>
+    </row>
+    <row r="1090" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1090" s="1"/>
+      <c r="B1090" s="1"/>
+      <c r="C1090" s="1"/>
+      <c r="D1090" s="1"/>
+      <c r="E1090" s="1"/>
+      <c r="F1090" s="1"/>
+      <c r="G1090" s="1"/>
+    </row>
+    <row r="1091" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1091" s="1"/>
+      <c r="B1091" s="1"/>
+      <c r="C1091" s="1"/>
+      <c r="D1091" s="1"/>
+      <c r="E1091" s="1"/>
+      <c r="F1091" s="1"/>
+      <c r="G1091" s="1"/>
+    </row>
+    <row r="1092" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1092" s="1"/>
+      <c r="B1092" s="1"/>
+      <c r="C1092" s="1"/>
+      <c r="D1092" s="1"/>
+      <c r="E1092" s="1"/>
+      <c r="F1092" s="1"/>
+      <c r="G1092" s="1"/>
+    </row>
+    <row r="1093" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1093" s="1"/>
+      <c r="B1093" s="1"/>
+      <c r="C1093" s="1"/>
+      <c r="D1093" s="1"/>
+      <c r="E1093" s="1"/>
+      <c r="F1093" s="1"/>
+      <c r="G1093" s="1"/>
+    </row>
+    <row r="1094" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1094" s="1"/>
+      <c r="B1094" s="1"/>
+      <c r="C1094" s="1"/>
+      <c r="D1094" s="1"/>
+      <c r="E1094" s="1"/>
+      <c r="F1094" s="1"/>
+      <c r="G1094" s="1"/>
+    </row>
+    <row r="1095" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1095" s="1"/>
+      <c r="B1095" s="1"/>
+      <c r="C1095" s="1"/>
+      <c r="D1095" s="1"/>
+      <c r="E1095" s="1"/>
+      <c r="F1095" s="1"/>
+      <c r="G1095" s="1"/>
+    </row>
+    <row r="1096" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A1096" s="1"/>
+      <c r="B1096" s="1"/>
+      <c r="C1096" s="1"/>
+      <c r="D1096" s="1"/>
+      <c r="E1096" s="1"/>
+      <c r="F1096" s="1"/>
+      <c r="G1096" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/任務表.xlsx
+++ b/任務表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="400">
   <si>
     <t>任務名稱</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>任務面向</t>
-  </si>
-  <si>
-    <t>待定</t>
   </si>
   <si>
     <t>一般</t>
@@ -2317,6 +2314,217 @@
 身為時尚，區區造型只是基本功罷了！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>第一名:300幣
+第二名:200幣
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>3000幣</t>
+  </si>
+  <si>
+    <t>第一名:200幣
+第二名:150幣
+第三名: 50幣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一名:200幣
+第二名:150幣
+第三名: 50幣
+</t>
+  </si>
+  <si>
+    <t>第一名:200幣 
+第二名:150幣 
+第三名: 50幣</t>
+  </si>
+  <si>
+    <t>第一名:100幣
+第二名:70幣
+第三名: 50幣</t>
+  </si>
+  <si>
+    <t>第一名:100幣 
+第二名:70幣 
+第三名: 50幣</t>
+  </si>
+  <si>
+    <t>第一名:300幣
+第二名:200幣
+第三名: 150幣</t>
+  </si>
+  <si>
+    <t>第一名:300幣 
+第二名:200幣 
+第三名: 150幣</t>
+  </si>
+  <si>
+    <t>第一名:500幣
+第二名:350幣
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t>第一名:500幣 
+第二名:350幣 
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一名:130幣
+第二名:100幣
+第三名: 70幣
+</t>
+  </si>
+  <si>
+    <t>第一名:150幣
+第二名:130幣
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>第一名:130幣
+第二名:100幣
+第三名: 70幣</t>
+  </si>
+  <si>
+    <t>第一名:130幣 
+第二名:100幣 
+第三名: 70幣</t>
+  </si>
+  <si>
+    <t>第一名:150幣 
+第二名:130幣 
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>第一名:320幣
+第二名:210幣
+第三名: 160幣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一名:350幣
+第二名:220幣
+第三名: 170幣
+</t>
+  </si>
+  <si>
+    <t>第一名:360幣
+第二名:250幣
+第三名: 180幣</t>
+  </si>
+  <si>
+    <t>第一名:400幣
+第二名:300幣
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t>第一名:350幣 
+第二名:220幣 
+第三名: 170幣</t>
+  </si>
+  <si>
+    <t>第一名:360幣 
+第二名:250幣 
+第三名: 180幣</t>
+  </si>
+  <si>
+    <t>第一名:400幣 
+第二名:300幣 
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t>第一名:320幣 
+第二名:210幣 
+第三名: 160幣</t>
+  </si>
+  <si>
+    <t>第一名:350幣
+第二名:220幣
+第三名: 170幣</t>
+  </si>
+  <si>
+    <t>第一名:666幣
+第二名:500幣
+第三名: 350幣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一名:666幣
+第二名:500幣
+第三名: 350幣
+</t>
+  </si>
+  <si>
+    <t>第一名:666幣 
+第二名:500幣
+第三名: 350幣</t>
+  </si>
+  <si>
+    <t>第一名:3000幣.天上25星.5000W破功*3顆
+第二名:2500幣.拉拉副手20.5000W破功*2顆
+第三名:2000幣.奧爾卡or神豪機器人擇一.5000W破功1顆</t>
+  </si>
+  <si>
+    <t>第一名:300幣
+第二名:200幣 
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>第一名:300幣 
+第二名:200幣 
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>黑風</t>
+  </si>
+  <si>
+    <t>第一名:300幣
+第二名:150幣
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>第一名:300幣 
+第二名:150幣 
+第三名: 100幣</t>
+  </si>
+  <si>
+    <t>1000幣1顆5000W破功</t>
+  </si>
+  <si>
+    <t>第一名:300幣
+第二名:300幣
+第三名: 300幣</t>
+  </si>
+  <si>
+    <t>第一名:500幣
+第二名:300幣
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t>第一名:600幣
+第二名:400幣
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t>第一名:600幣 
+第二名:400幣 
+第三名: 200幣</t>
+  </si>
+  <si>
+    <t>第一名:1500幣 
+第二名:1000幣 
+第三名: 800幣</t>
+  </si>
+  <si>
+    <t>第一名:300幣一坨大便*3顆
+第二名:150幣一坨大便*2顆
+第三名: 100幣一坨大便*1顆</t>
+  </si>
+  <si>
+    <t>第一名:300幣一坨大便*3顆 
+第二名:150幣一坨大便*2顆 
+第三名: 100幣一坨大便*1顆</t>
+  </si>
+  <si>
+    <t>1000幣.一坨大便10顆</t>
+  </si>
 </sst>
 </file>
 
@@ -2359,12 +2567,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2394,7 +2608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2409,6 +2623,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2628,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1096"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2648,7 +2865,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2669,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2692,25 +2909,25 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2734,25 +2951,25 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2776,28 +2993,28 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2820,28 +3037,28 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2864,28 +3081,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2908,28 +3125,28 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2952,28 +3169,28 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -2996,28 +3213,28 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3040,28 +3257,28 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3084,28 +3301,28 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3128,28 +3345,28 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3172,28 +3389,28 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3216,28 +3433,28 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3260,28 +3477,28 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3304,28 +3521,28 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3348,28 +3565,28 @@
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3392,28 +3609,28 @@
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3436,25 +3653,25 @@
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -3478,25 +3695,25 @@
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -3520,25 +3737,25 @@
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -3562,25 +3779,25 @@
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -3604,25 +3821,25 @@
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -3646,25 +3863,25 @@
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>364</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -3688,25 +3905,25 @@
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -3730,25 +3947,25 @@
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -3772,25 +3989,25 @@
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -3814,25 +4031,25 @@
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -3856,25 +4073,25 @@
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>366</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3898,25 +4115,25 @@
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3940,25 +4157,25 @@
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -3982,25 +4199,25 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -4024,25 +4241,25 @@
     </row>
     <row r="33" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -4066,25 +4283,25 @@
     </row>
     <row r="34" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>6</v>
+        <v>368</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -4108,25 +4325,25 @@
     </row>
     <row r="35" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4150,25 +4367,25 @@
     </row>
     <row r="36" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -4192,25 +4409,25 @@
     </row>
     <row r="37" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -4234,25 +4451,25 @@
     </row>
     <row r="38" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -4276,25 +4493,25 @@
     </row>
     <row r="39" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -4318,25 +4535,25 @@
     </row>
     <row r="40" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -4360,25 +4577,25 @@
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4402,25 +4619,25 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -4444,25 +4661,25 @@
     </row>
     <row r="43" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>6</v>
+        <v>372</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -4486,25 +4703,25 @@
     </row>
     <row r="44" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -4528,25 +4745,25 @@
     </row>
     <row r="45" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -4570,25 +4787,25 @@
     </row>
     <row r="46" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -4612,25 +4829,25 @@
     </row>
     <row r="47" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6</v>
+        <v>376</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -4654,25 +4871,25 @@
     </row>
     <row r="48" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -4696,25 +4913,25 @@
     </row>
     <row r="49" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -4738,25 +4955,25 @@
     </row>
     <row r="50" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -4780,25 +4997,25 @@
     </row>
     <row r="51" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -4822,25 +5039,25 @@
     </row>
     <row r="52" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A52" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -4864,25 +5081,25 @@
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A53" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -4906,25 +5123,25 @@
     </row>
     <row r="54" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A54" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -4948,25 +5165,25 @@
     </row>
     <row r="55" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A55" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -4990,25 +5207,25 @@
     </row>
     <row r="56" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5032,25 +5249,25 @@
     </row>
     <row r="57" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5074,25 +5291,25 @@
     </row>
     <row r="58" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A58" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5116,25 +5333,25 @@
     </row>
     <row r="59" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5158,25 +5375,25 @@
     </row>
     <row r="60" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A60" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>6</v>
+        <v>380</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5200,25 +5417,25 @@
     </row>
     <row r="61" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>6</v>
+        <v>377</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5242,25 +5459,25 @@
     </row>
     <row r="62" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5284,25 +5501,25 @@
     </row>
     <row r="63" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A63" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>6</v>
+        <v>376</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5326,25 +5543,25 @@
     </row>
     <row r="64" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5368,25 +5585,25 @@
     </row>
     <row r="65" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A65" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5410,25 +5627,25 @@
     </row>
     <row r="66" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A66" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5452,25 +5669,25 @@
     </row>
     <row r="67" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5494,25 +5711,25 @@
     </row>
     <row r="68" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A68" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5536,25 +5753,25 @@
     </row>
     <row r="69" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A69" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="G69" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -5578,25 +5795,25 @@
     </row>
     <row r="70" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>6</v>
+        <v>283</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -5620,25 +5837,25 @@
     </row>
     <row r="71" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -5662,25 +5879,25 @@
     </row>
     <row r="72" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A72" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -5704,25 +5921,25 @@
     </row>
     <row r="73" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -5746,25 +5963,25 @@
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="E74" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -5788,25 +6005,25 @@
     </row>
     <row r="75" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="E75" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -5830,25 +6047,25 @@
     </row>
     <row r="76" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -5872,25 +6089,25 @@
     </row>
     <row r="77" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -5914,25 +6131,25 @@
     </row>
     <row r="78" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A78" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -5956,25 +6173,25 @@
     </row>
     <row r="79" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -5998,25 +6215,25 @@
     </row>
     <row r="80" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -6040,25 +6257,25 @@
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -6082,25 +6299,25 @@
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -6124,25 +6341,25 @@
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -6166,25 +6383,25 @@
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -6208,25 +6425,25 @@
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -6250,25 +6467,25 @@
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -6292,25 +6509,25 @@
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -6334,25 +6551,25 @@
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A88" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -6376,25 +6593,25 @@
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -6418,25 +6635,25 @@
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -6460,25 +6677,25 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A91" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="D91" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -6502,25 +6719,25 @@
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A92" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -6544,25 +6761,25 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A93" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -6586,25 +6803,25 @@
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A94" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -6628,25 +6845,25 @@
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A95" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -6670,25 +6887,25 @@
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A96" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -6712,25 +6929,25 @@
     </row>
     <row r="97" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A97" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -6754,25 +6971,25 @@
     </row>
     <row r="98" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A98" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -6796,25 +7013,25 @@
     </row>
     <row r="99" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A99" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -6838,25 +7055,25 @@
     </row>
     <row r="100" spans="1:26" ht="14.25" customHeight="1" thickBot="1">
       <c r="A100" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -8283,7 +8500,7 @@
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
+      <c r="E151" s="1"/>
       <c r="F151" s="3"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -8311,7 +8528,7 @@
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
+      <c r="E152" s="1"/>
       <c r="F152" s="3"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -8339,7 +8556,7 @@
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
+      <c r="E153" s="1"/>
       <c r="F153" s="3"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -8367,7 +8584,7 @@
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="E154" s="1"/>
       <c r="F154" s="3"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -8395,7 +8612,7 @@
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
+      <c r="E155" s="1"/>
       <c r="F155" s="3"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -8423,7 +8640,7 @@
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+      <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="3"/>
       <c r="H156" s="1"/>
@@ -8451,7 +8668,7 @@
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
+      <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="3"/>
       <c r="H157" s="1"/>
@@ -8479,7 +8696,7 @@
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
+      <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="3"/>
       <c r="H158" s="1"/>
@@ -8507,7 +8724,7 @@
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
+      <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="3"/>
       <c r="H159" s="1"/>
@@ -8535,7 +8752,7 @@
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
+      <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="3"/>
       <c r="H160" s="1"/>
@@ -8563,7 +8780,7 @@
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
+      <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="3"/>
       <c r="H161" s="1"/>
@@ -8591,7 +8808,7 @@
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
+      <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="3"/>
       <c r="H162" s="1"/>
@@ -8619,7 +8836,7 @@
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
+      <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="3"/>
       <c r="H163" s="1"/>
@@ -8647,7 +8864,7 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="E164" s="1"/>
       <c r="F164" s="3"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -8675,7 +8892,7 @@
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
+      <c r="E165" s="1"/>
       <c r="F165" s="3"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -8703,7 +8920,7 @@
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
+      <c r="E166" s="1"/>
       <c r="F166" s="3"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -8731,7 +8948,7 @@
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
+      <c r="E167" s="1"/>
       <c r="F167" s="3"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -8759,7 +8976,7 @@
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
+      <c r="E168" s="1"/>
       <c r="F168" s="3"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
